--- a/doc/Zeitplanung-1.xlsx
+++ b/doc/Zeitplanung-1.xlsx
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
   <si>
     <t>Nr.</t>
   </si>
@@ -249,28 +249,10 @@
     <t>KW 4</t>
   </si>
   <si>
-    <t>&lt;Projektname&gt;</t>
-  </si>
-  <si>
     <t>Anforderungsanalyse</t>
   </si>
   <si>
-    <t>Anforderung #04</t>
-  </si>
-  <si>
-    <t>Anforderung #05</t>
-  </si>
-  <si>
     <t>Anforderung #06</t>
-  </si>
-  <si>
-    <t>Anforderung #03</t>
-  </si>
-  <si>
-    <t>Anforderung #02</t>
-  </si>
-  <si>
-    <t>Anforderung #01</t>
   </si>
   <si>
     <t>Administration, Planung, Dokumentation</t>
@@ -316,6 +298,27 @@
   </si>
   <si>
     <t>Vortrag</t>
+  </si>
+  <si>
+    <t>Cobro</t>
+  </si>
+  <si>
+    <t>Webseitendesign</t>
+  </si>
+  <si>
+    <t>Befehleliste                #01</t>
+  </si>
+  <si>
+    <t>Anleitung                   #03</t>
+  </si>
+  <si>
+    <t>A bis B Programm     #02</t>
+  </si>
+  <si>
+    <t>Programmieren         #04</t>
+  </si>
+  <si>
+    <t>Webseite                    #06</t>
   </si>
 </sst>
 </file>
@@ -556,7 +559,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="83">
+  <borders count="91">
     <border>
       <left/>
       <right/>
@@ -853,17 +856,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -996,15 +988,6 @@
     </border>
     <border>
       <left/>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -1019,17 +1002,6 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
         <color indexed="64"/>
       </right>
       <top style="hair">
@@ -1291,7 +1263,204 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
         <color indexed="64"/>
       </left>
       <right/>
@@ -1305,34 +1474,225 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -1341,245 +1701,14 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1598,13 +1727,13 @@
     <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="34" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="33" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1650,13 +1779,13 @@
     <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1683,76 +1812,73 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="65" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="66" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="62" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="67" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="63" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="68" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1770,37 +1896,37 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="69" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="65" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="71" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="67" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="4" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="4" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1821,7 +1947,7 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="47" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1830,13 +1956,13 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1851,279 +1977,337 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="75" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="75" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="76" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="68" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="68" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="77" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="78" xfId="2" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="42" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="35" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="42" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="30" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="43" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="74" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="24" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="34" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="13" borderId="34" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="69" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="69" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="70" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="69" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="71" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="34" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="40" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="69" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="72" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="73" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="15" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="49" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="2" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="62" xfId="2" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="82" xfId="2" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="11" borderId="84" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="11" borderId="85" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="11" borderId="12" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="86" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="68" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="11" borderId="68" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="13" borderId="11" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="21" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="11" borderId="67" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="11" borderId="8" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="11" borderId="65" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="13" borderId="11" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="11" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="83" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="41" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="11" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="41" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="11" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="90" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="11" borderId="5" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="70" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="79" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="79" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="80" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="72" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="72" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="81" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="82" xfId="2" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="45" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="37" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="45" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="31" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="46" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="19" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="11" borderId="6" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="11" borderId="78" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="78" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="25" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="36" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="13" borderId="36" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="13" borderId="36" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="36" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="73" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="73" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="13" borderId="73" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="73" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="74" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="73" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="75" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="35" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="46" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="36" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="51" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="7" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="38" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="54" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="43" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="35" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="46" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="73" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="76" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="77" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="15" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="23" fillId="13" borderId="83" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2181,6 +2365,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2327,7 +2512,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2342,10 +2527,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -2428,11 +2613,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="316494840"/>
-        <c:axId val="316499152"/>
+        <c:axId val="323719280"/>
+        <c:axId val="323719672"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="316494840"/>
+        <c:axId val="323719280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2442,14 +2627,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="316499152"/>
+        <c:crossAx val="323719672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="316499152"/>
+        <c:axId val="323719672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2460,13 +2645,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="316494840"/>
+        <c:crossAx val="323719280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2497,7 +2683,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.3875348069717072E-2"/>
+          <c:y val="4.9891605752336102E-2"/>
+          <c:w val="0.86847127331861584"/>
+          <c:h val="0.85016514081981476"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -2550,22 +2746,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2624,10 +2820,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2659,11 +2855,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="316495232"/>
-        <c:axId val="316499936"/>
+        <c:axId val="323720064"/>
+        <c:axId val="323721632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="316495232"/>
+        <c:axId val="323720064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2673,7 +2869,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="316499936"/>
+        <c:crossAx val="323721632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2681,7 +2877,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="316499936"/>
+        <c:axId val="323721632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2692,13 +2888,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="316495232"/>
+        <c:crossAx val="323720064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3131,20 +3328,21 @@
   <sheetPr codeName="Tabelle1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AQ44"/>
+  <dimension ref="A1:BE162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.58203125" style="5" customWidth="1"/>
     <col min="2" max="2" width="44.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="3.83203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="4.58203125" style="5" customWidth="1"/>
     <col min="4" max="4" width="3.83203125" style="15" customWidth="1"/>
-    <col min="5" max="9" width="3.83203125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="3.83203125" style="16" customWidth="1"/>
+    <col min="5" max="7" width="3.83203125" style="5" customWidth="1"/>
+    <col min="8" max="9" width="3.83203125" style="5" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="3.83203125" style="16" hidden="1" customWidth="1"/>
     <col min="11" max="30" width="3.25" style="5" customWidth="1"/>
     <col min="31" max="35" width="3.25" style="4" customWidth="1"/>
     <col min="36" max="40" width="3.08203125" style="4" customWidth="1"/>
@@ -3154,41 +3352,41 @@
     <col min="46" max="16384" width="12.5" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="26" x14ac:dyDescent="0.35">
-      <c r="A1" s="86" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86"/>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="86"/>
-    </row>
-    <row r="2" spans="1:43" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:44" ht="26" x14ac:dyDescent="0.35">
+      <c r="A1" s="149" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="149"/>
+      <c r="P1" s="149"/>
+      <c r="Q1" s="149"/>
+      <c r="R1" s="149"/>
+      <c r="S1" s="149"/>
+      <c r="T1" s="149"/>
+      <c r="U1" s="149"/>
+      <c r="V1" s="149"/>
+      <c r="W1" s="149"/>
+      <c r="X1" s="149"/>
+      <c r="Y1" s="149"/>
+      <c r="Z1" s="149"/>
+      <c r="AA1" s="149"/>
+      <c r="AB1" s="149"/>
+      <c r="AC1" s="149"/>
+      <c r="AD1" s="149"/>
+    </row>
+    <row r="2" spans="1:44" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -3200,91 +3398,91 @@
       <c r="I2" s="4"/>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="170"/>
-      <c r="B3" s="171"/>
-      <c r="C3" s="172" t="s">
+    <row r="3" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="142"/>
+      <c r="B3" s="192"/>
+      <c r="C3" s="190" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="172"/>
-      <c r="E3" s="173"/>
-      <c r="F3" s="174"/>
-      <c r="G3" s="174"/>
-      <c r="H3" s="175"/>
-      <c r="I3" s="172" t="s">
+      <c r="D3" s="191"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="147" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="172"/>
-      <c r="K3" s="172"/>
-      <c r="L3" s="172"/>
-      <c r="M3" s="176"/>
-      <c r="N3" s="177" t="s">
+      <c r="J3" s="147"/>
+      <c r="K3" s="147"/>
+      <c r="L3" s="147"/>
+      <c r="M3" s="150"/>
+      <c r="N3" s="146" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="172"/>
-      <c r="P3" s="172"/>
-      <c r="Q3" s="172"/>
-      <c r="R3" s="172"/>
-      <c r="S3" s="177" t="s">
+      <c r="O3" s="147"/>
+      <c r="P3" s="147"/>
+      <c r="Q3" s="147"/>
+      <c r="R3" s="147"/>
+      <c r="S3" s="146" t="s">
         <v>27</v>
       </c>
-      <c r="T3" s="172"/>
-      <c r="U3" s="172"/>
-      <c r="V3" s="172"/>
-      <c r="W3" s="172"/>
-      <c r="X3" s="177" t="s">
+      <c r="T3" s="147"/>
+      <c r="U3" s="147"/>
+      <c r="V3" s="147"/>
+      <c r="W3" s="147"/>
+      <c r="X3" s="146" t="s">
         <v>28</v>
       </c>
-      <c r="Y3" s="172"/>
-      <c r="Z3" s="172"/>
-      <c r="AA3" s="172"/>
-      <c r="AB3" s="172"/>
-      <c r="AC3" s="177" t="s">
+      <c r="Y3" s="147"/>
+      <c r="Z3" s="147"/>
+      <c r="AA3" s="147"/>
+      <c r="AB3" s="147"/>
+      <c r="AC3" s="146" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD3" s="147"/>
+      <c r="AE3" s="147"/>
+      <c r="AF3" s="147"/>
+      <c r="AG3" s="147"/>
+      <c r="AH3" s="146" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI3" s="147"/>
+      <c r="AJ3" s="147"/>
+      <c r="AK3" s="147"/>
+      <c r="AL3" s="148"/>
+      <c r="AM3" s="146" t="s">
         <v>39</v>
       </c>
-      <c r="AD3" s="172"/>
-      <c r="AE3" s="172"/>
-      <c r="AF3" s="172"/>
-      <c r="AG3" s="172"/>
-      <c r="AH3" s="177" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI3" s="172"/>
-      <c r="AJ3" s="172"/>
-      <c r="AK3" s="172"/>
-      <c r="AL3" s="178"/>
-      <c r="AM3" s="177" t="s">
-        <v>45</v>
-      </c>
-      <c r="AN3" s="172"/>
-      <c r="AO3" s="172"/>
-      <c r="AP3" s="172"/>
-      <c r="AQ3" s="178"/>
-    </row>
-    <row r="4" spans="1:43" ht="90.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="155" t="s">
+      <c r="AN3" s="147"/>
+      <c r="AO3" s="147"/>
+      <c r="AP3" s="147"/>
+      <c r="AQ3" s="148"/>
+    </row>
+    <row r="4" spans="1:44" ht="90.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="188"/>
+      <c r="C4" s="189" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="156" t="s">
+      <c r="D4" s="189" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="114" t="s">
+      <c r="E4" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="120" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="121" t="s">
+      <c r="F4" s="109" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="176" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="55" t="s">
+      <c r="H4" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="63">
+      <c r="I4" s="62">
         <v>43073</v>
       </c>
       <c r="J4" s="17">
@@ -3398,7 +3596,7 @@
         <f>AJ4+1</f>
         <v>43111</v>
       </c>
-      <c r="AL4" s="42">
+      <c r="AL4" s="41">
         <f>AK4+1</f>
         <v>43112</v>
       </c>
@@ -3418,1783 +3616,1822 @@
         <f>AO4+1</f>
         <v>43118</v>
       </c>
-      <c r="AQ4" s="42">
+      <c r="AQ4" s="41">
         <f>AP4+1</f>
         <v>43119</v>
       </c>
     </row>
-    <row r="5" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="61">
+    <row r="5" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="60">
         <v>10</v>
       </c>
-      <c r="B5" s="141" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="157">
+      <c r="B5" s="126" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="183">
         <f>SUM(C6:C10)</f>
-        <v>25</v>
-      </c>
-      <c r="D5" s="158">
+        <v>18</v>
+      </c>
+      <c r="D5" s="136">
         <f>SUM(D6:D10)</f>
-        <v>2</v>
-      </c>
-      <c r="E5" s="129"/>
-      <c r="F5" s="130"/>
-      <c r="G5" s="131"/>
-      <c r="H5" s="132"/>
-      <c r="I5" s="133"/>
-      <c r="J5" s="134"/>
-      <c r="K5" s="135"/>
-      <c r="L5" s="136"/>
-      <c r="M5" s="137"/>
-      <c r="N5" s="138"/>
-      <c r="O5" s="135"/>
-      <c r="P5" s="136"/>
-      <c r="Q5" s="134"/>
-      <c r="R5" s="139"/>
-      <c r="S5" s="138"/>
-      <c r="T5" s="135"/>
-      <c r="U5" s="136"/>
-      <c r="V5" s="134"/>
-      <c r="W5" s="139"/>
-      <c r="X5" s="138"/>
-      <c r="Y5" s="135"/>
-      <c r="Z5" s="136"/>
-      <c r="AA5" s="134"/>
-      <c r="AB5" s="139"/>
-      <c r="AC5" s="138"/>
-      <c r="AD5" s="135"/>
-      <c r="AE5" s="136"/>
-      <c r="AF5" s="134"/>
-      <c r="AG5" s="139"/>
-      <c r="AH5" s="138"/>
-      <c r="AI5" s="135"/>
-      <c r="AJ5" s="135"/>
-      <c r="AK5" s="136"/>
-      <c r="AL5" s="140"/>
-      <c r="AM5" s="138"/>
-      <c r="AN5" s="135"/>
-      <c r="AO5" s="135"/>
-      <c r="AP5" s="136"/>
-      <c r="AQ5" s="140"/>
-    </row>
-    <row r="6" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="E5" s="182"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="175"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="121"/>
+      <c r="M5" s="122"/>
+      <c r="N5" s="123"/>
+      <c r="O5" s="120"/>
+      <c r="P5" s="121"/>
+      <c r="Q5" s="119"/>
+      <c r="R5" s="124"/>
+      <c r="S5" s="123"/>
+      <c r="T5" s="120"/>
+      <c r="U5" s="121"/>
+      <c r="V5" s="119"/>
+      <c r="W5" s="124"/>
+      <c r="X5" s="123"/>
+      <c r="Y5" s="120"/>
+      <c r="Z5" s="121"/>
+      <c r="AA5" s="119"/>
+      <c r="AB5" s="124"/>
+      <c r="AC5" s="123"/>
+      <c r="AD5" s="120"/>
+      <c r="AE5" s="121"/>
+      <c r="AF5" s="119"/>
+      <c r="AG5" s="124"/>
+      <c r="AH5" s="123"/>
+      <c r="AI5" s="120"/>
+      <c r="AJ5" s="120"/>
+      <c r="AK5" s="121"/>
+      <c r="AL5" s="125"/>
+      <c r="AM5" s="123"/>
+      <c r="AN5" s="120"/>
+      <c r="AO5" s="120"/>
+      <c r="AP5" s="121"/>
+      <c r="AQ5" s="125"/>
+    </row>
+    <row r="6" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="38">
         <v>11</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="159">
+      <c r="C6" s="137">
         <v>2</v>
       </c>
-      <c r="D6" s="160">
-        <v>2</v>
-      </c>
-      <c r="E6" s="115">
+      <c r="D6" s="137">
+        <f>IF(SUM(J6:AR6)=0," ",SUM(J6:AR6))</f>
+        <v>3</v>
+      </c>
+      <c r="E6" s="104">
         <v>1</v>
       </c>
-      <c r="F6" s="124"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="101" t="s">
-        <v>48</v>
-      </c>
-      <c r="L6" s="95"/>
-      <c r="M6" s="96"/>
-      <c r="N6" s="81"/>
-      <c r="O6" s="81"/>
-      <c r="P6" s="101" t="s">
-        <v>48</v>
-      </c>
+      <c r="F6" s="110"/>
+      <c r="G6" s="177"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="92">
+        <v>3</v>
+      </c>
+      <c r="L6" s="86"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="158"/>
       <c r="Q6" s="25"/>
       <c r="R6" s="26"/>
-      <c r="S6" s="81"/>
-      <c r="T6" s="81"/>
+      <c r="S6" s="80"/>
+      <c r="T6" s="80"/>
       <c r="U6" s="24"/>
       <c r="V6" s="25"/>
       <c r="W6" s="26"/>
-      <c r="X6" s="77"/>
-      <c r="Y6" s="77"/>
-      <c r="Z6" s="77"/>
-      <c r="AA6" s="77"/>
-      <c r="AB6" s="77"/>
-      <c r="AC6" s="77"/>
-      <c r="AD6" s="77"/>
-      <c r="AE6" s="77"/>
-      <c r="AF6" s="77"/>
-      <c r="AG6" s="77"/>
-      <c r="AH6" s="81"/>
-      <c r="AI6" s="81"/>
+      <c r="X6" s="76"/>
+      <c r="Y6" s="76"/>
+      <c r="Z6" s="76"/>
+      <c r="AA6" s="76"/>
+      <c r="AB6" s="76"/>
+      <c r="AC6" s="76"/>
+      <c r="AD6" s="76"/>
+      <c r="AE6" s="76"/>
+      <c r="AF6" s="76"/>
+      <c r="AG6" s="76"/>
+      <c r="AH6" s="80"/>
+      <c r="AI6" s="80"/>
       <c r="AJ6" s="25"/>
       <c r="AK6" s="25"/>
-      <c r="AL6" s="44"/>
-      <c r="AM6" s="81"/>
-      <c r="AN6" s="81"/>
+      <c r="AL6" s="43"/>
+      <c r="AM6" s="80"/>
+      <c r="AN6" s="80"/>
       <c r="AO6" s="25"/>
       <c r="AP6" s="25"/>
-      <c r="AQ6" s="44"/>
-    </row>
-    <row r="7" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AQ6" s="43"/>
+    </row>
+    <row r="7" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="38">
         <v>12</v>
       </c>
-      <c r="B7" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="161">
+      <c r="B7" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="137">
         <v>3</v>
       </c>
-      <c r="D7" s="160"/>
-      <c r="E7" s="116">
+      <c r="D7" s="137">
+        <f>IF(SUM(J7:AR7)=0," ",SUM(J7:AR7))</f>
+        <v>4</v>
+      </c>
+      <c r="E7" s="105">
         <v>1</v>
       </c>
-      <c r="F7" s="124"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="178"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
       <c r="K7" s="27"/>
-      <c r="L7" s="97"/>
-      <c r="M7" s="96"/>
-      <c r="N7" s="81"/>
-      <c r="O7" s="81"/>
-      <c r="P7" s="101" t="s">
-        <v>48</v>
+      <c r="L7" s="88"/>
+      <c r="M7" s="87"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="80"/>
+      <c r="P7" s="92">
+        <v>4</v>
       </c>
       <c r="Q7" s="28"/>
       <c r="R7" s="29"/>
-      <c r="S7" s="81"/>
-      <c r="T7" s="81"/>
+      <c r="S7" s="80"/>
+      <c r="T7" s="80"/>
       <c r="U7" s="24"/>
       <c r="V7" s="28"/>
       <c r="W7" s="29"/>
-      <c r="X7" s="75"/>
-      <c r="Y7" s="75"/>
-      <c r="Z7" s="75"/>
-      <c r="AA7" s="75"/>
-      <c r="AB7" s="75"/>
-      <c r="AC7" s="75"/>
-      <c r="AD7" s="75"/>
-      <c r="AE7" s="75"/>
-      <c r="AF7" s="75"/>
-      <c r="AG7" s="75"/>
-      <c r="AH7" s="81"/>
-      <c r="AI7" s="81"/>
+      <c r="X7" s="74"/>
+      <c r="Y7" s="74"/>
+      <c r="Z7" s="74"/>
+      <c r="AA7" s="74"/>
+      <c r="AB7" s="74"/>
+      <c r="AC7" s="74"/>
+      <c r="AD7" s="74"/>
+      <c r="AE7" s="74"/>
+      <c r="AF7" s="74"/>
+      <c r="AG7" s="74"/>
+      <c r="AH7" s="80"/>
+      <c r="AI7" s="80"/>
       <c r="AJ7" s="28"/>
       <c r="AK7" s="28"/>
-      <c r="AL7" s="46"/>
-      <c r="AM7" s="81"/>
-      <c r="AN7" s="81"/>
+      <c r="AL7" s="45"/>
+      <c r="AM7" s="80"/>
+      <c r="AN7" s="80"/>
       <c r="AO7" s="28"/>
       <c r="AP7" s="28"/>
-      <c r="AQ7" s="46"/>
-    </row>
-    <row r="8" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AQ7" s="45"/>
+    </row>
+    <row r="8" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="38">
         <v>13</v>
       </c>
-      <c r="B8" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="161">
+      <c r="B8" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="137">
         <v>6</v>
       </c>
-      <c r="D8" s="160" t="str">
-        <f t="shared" ref="D8:D10" si="0">IF(SUM(I8:AB8)=0," ",SUM(I8:AB8))</f>
+      <c r="D8" s="137" t="str">
+        <f t="shared" ref="D8:D10" si="0">IF(SUM(J8:AR8)=0," ",SUM(J8:AR8))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E8" s="116">
+      <c r="E8" s="105">
         <v>1</v>
       </c>
-      <c r="F8" s="124"/>
-      <c r="G8" s="122"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="195"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
       <c r="K8" s="27"/>
-      <c r="L8" s="97"/>
-      <c r="M8" s="96"/>
-      <c r="N8" s="81"/>
-      <c r="O8" s="81"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="87"/>
+      <c r="N8" s="80"/>
+      <c r="O8" s="80"/>
       <c r="P8" s="24"/>
       <c r="Q8" s="28"/>
-      <c r="R8" s="101" t="s">
-        <v>48</v>
-      </c>
-      <c r="S8" s="81"/>
-      <c r="T8" s="81"/>
+      <c r="R8" s="92"/>
+      <c r="S8" s="80"/>
+      <c r="T8" s="80"/>
       <c r="U8" s="24"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="101" t="s">
-        <v>48</v>
-      </c>
-      <c r="X8" s="75"/>
-      <c r="Y8" s="75"/>
-      <c r="Z8" s="75"/>
-      <c r="AA8" s="75"/>
-      <c r="AB8" s="75"/>
-      <c r="AC8" s="75"/>
-      <c r="AD8" s="75"/>
-      <c r="AE8" s="75"/>
-      <c r="AF8" s="75"/>
-      <c r="AG8" s="75"/>
-      <c r="AH8" s="81"/>
-      <c r="AI8" s="81"/>
+      <c r="V8" s="92"/>
+      <c r="W8" s="92"/>
+      <c r="X8" s="74"/>
+      <c r="Y8" s="74"/>
+      <c r="Z8" s="74"/>
+      <c r="AA8" s="74"/>
+      <c r="AB8" s="74"/>
+      <c r="AC8" s="74"/>
+      <c r="AD8" s="74"/>
+      <c r="AE8" s="74"/>
+      <c r="AF8" s="74"/>
+      <c r="AG8" s="74"/>
+      <c r="AH8" s="80"/>
+      <c r="AI8" s="80"/>
       <c r="AJ8" s="28"/>
       <c r="AK8" s="23"/>
-      <c r="AL8" s="101" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM8" s="81"/>
-      <c r="AN8" s="81"/>
+      <c r="AL8" s="166"/>
+      <c r="AM8" s="162"/>
+      <c r="AN8" s="80"/>
       <c r="AO8" s="28"/>
       <c r="AP8" s="23"/>
-      <c r="AQ8" s="101" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AQ8" s="166"/>
+      <c r="AR8" s="161"/>
+    </row>
+    <row r="9" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="38">
         <v>14</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="161">
-        <v>6</v>
-      </c>
-      <c r="D9" s="160" t="str">
+      <c r="C9" s="137">
+        <v>2</v>
+      </c>
+      <c r="D9" s="137">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E9" s="116">
         <v>1</v>
       </c>
-      <c r="F9" s="124"/>
-      <c r="G9" s="122"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
+      <c r="E9" s="105">
+        <v>1</v>
+      </c>
+      <c r="F9" s="110"/>
+      <c r="G9" s="178"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
       <c r="K9" s="27"/>
-      <c r="L9" s="97"/>
-      <c r="M9" s="96"/>
-      <c r="N9" s="81"/>
-      <c r="O9" s="81"/>
-      <c r="P9" s="101" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q9" s="101" t="s">
-        <v>48</v>
+      <c r="L9" s="88"/>
+      <c r="M9" s="87"/>
+      <c r="N9" s="80"/>
+      <c r="O9" s="80"/>
+      <c r="P9" s="92">
+        <v>0.5</v>
+      </c>
+      <c r="Q9" s="92">
+        <v>0.5</v>
       </c>
       <c r="R9" s="29"/>
-      <c r="S9" s="81"/>
-      <c r="T9" s="81"/>
+      <c r="S9" s="80"/>
+      <c r="T9" s="80"/>
       <c r="U9" s="24"/>
       <c r="V9" s="28"/>
       <c r="W9" s="29"/>
-      <c r="X9" s="79"/>
-      <c r="Y9" s="79"/>
-      <c r="Z9" s="79"/>
-      <c r="AA9" s="79"/>
-      <c r="AB9" s="79"/>
-      <c r="AC9" s="79"/>
-      <c r="AD9" s="79"/>
-      <c r="AE9" s="79"/>
-      <c r="AF9" s="79"/>
-      <c r="AG9" s="75"/>
-      <c r="AH9" s="81"/>
-      <c r="AI9" s="81"/>
+      <c r="X9" s="78"/>
+      <c r="Y9" s="78"/>
+      <c r="Z9" s="78"/>
+      <c r="AA9" s="78"/>
+      <c r="AB9" s="78"/>
+      <c r="AC9" s="78"/>
+      <c r="AD9" s="78"/>
+      <c r="AE9" s="78"/>
+      <c r="AF9" s="78"/>
+      <c r="AG9" s="74"/>
+      <c r="AH9" s="80"/>
+      <c r="AI9" s="80"/>
       <c r="AJ9" s="28"/>
       <c r="AK9" s="23"/>
-      <c r="AL9" s="47"/>
-      <c r="AM9" s="81"/>
-      <c r="AN9" s="81"/>
+      <c r="AL9" s="46"/>
+      <c r="AM9" s="80"/>
+      <c r="AN9" s="80"/>
       <c r="AO9" s="28"/>
       <c r="AP9" s="23"/>
-      <c r="AQ9" s="47"/>
-    </row>
-    <row r="10" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AQ9" s="46"/>
+    </row>
+    <row r="10" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="38">
         <v>15</v>
       </c>
-      <c r="B10" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="162">
-        <v>8</v>
-      </c>
-      <c r="D10" s="160" t="str">
+      <c r="B10" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="137">
+        <v>5</v>
+      </c>
+      <c r="D10" s="137" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E10" s="117">
+      <c r="E10" s="106">
         <v>1</v>
       </c>
-      <c r="F10" s="125"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
+      <c r="F10" s="194"/>
+      <c r="G10" s="179"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
       <c r="K10" s="31"/>
-      <c r="L10" s="98"/>
-      <c r="M10" s="99"/>
-      <c r="N10" s="81"/>
-      <c r="O10" s="81"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="90"/>
+      <c r="N10" s="80"/>
+      <c r="O10" s="80"/>
       <c r="P10" s="32"/>
       <c r="Q10" s="33"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="81"/>
-      <c r="T10" s="81"/>
+      <c r="R10" s="92"/>
+      <c r="S10" s="80"/>
+      <c r="T10" s="80"/>
       <c r="U10" s="32"/>
       <c r="V10" s="33"/>
       <c r="W10" s="34"/>
-      <c r="X10" s="79"/>
-      <c r="Y10" s="79"/>
-      <c r="Z10" s="79"/>
-      <c r="AA10" s="79"/>
-      <c r="AB10" s="79"/>
-      <c r="AC10" s="79"/>
-      <c r="AD10" s="79"/>
-      <c r="AE10" s="79"/>
-      <c r="AF10" s="79"/>
-      <c r="AG10" s="79"/>
-      <c r="AH10" s="81"/>
-      <c r="AI10" s="81"/>
-      <c r="AJ10" s="33"/>
+      <c r="X10" s="78"/>
+      <c r="Y10" s="78"/>
+      <c r="Z10" s="78"/>
+      <c r="AA10" s="78"/>
+      <c r="AB10" s="78"/>
+      <c r="AC10" s="78"/>
+      <c r="AD10" s="78"/>
+      <c r="AE10" s="78"/>
+      <c r="AF10" s="78"/>
+      <c r="AG10" s="78"/>
+      <c r="AH10" s="80"/>
+      <c r="AI10" s="80"/>
+      <c r="AJ10" s="92"/>
       <c r="AK10" s="35"/>
-      <c r="AL10" s="47"/>
-      <c r="AM10" s="81"/>
-      <c r="AN10" s="81"/>
-      <c r="AO10" s="33"/>
+      <c r="AL10" s="46"/>
+      <c r="AM10" s="80"/>
+      <c r="AN10" s="80"/>
+      <c r="AO10" s="167"/>
       <c r="AP10" s="35"/>
-      <c r="AQ10" s="47"/>
-    </row>
-    <row r="11" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="142">
+      <c r="AQ10" s="46"/>
+    </row>
+    <row r="11" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="127">
         <v>20</v>
       </c>
-      <c r="B11" s="141" t="s">
+      <c r="B11" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="163">
+      <c r="C11" s="184">
         <f>SUM(C12:C15)</f>
+        <v>8</v>
+      </c>
+      <c r="D11" s="136">
+        <f>SUM(D12:D15)</f>
         <v>6</v>
       </c>
-      <c r="D11" s="157">
-        <f>SUM(D12:D15)</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="129"/>
-      <c r="F11" s="130"/>
-      <c r="G11" s="143"/>
-      <c r="H11" s="132"/>
-      <c r="I11" s="133"/>
-      <c r="J11" s="134"/>
-      <c r="K11" s="135"/>
-      <c r="L11" s="136"/>
-      <c r="M11" s="137"/>
-      <c r="N11" s="138"/>
-      <c r="O11" s="135"/>
-      <c r="P11" s="136"/>
-      <c r="Q11" s="134"/>
-      <c r="R11" s="139"/>
-      <c r="S11" s="138"/>
-      <c r="T11" s="135"/>
-      <c r="U11" s="136"/>
-      <c r="V11" s="134"/>
-      <c r="W11" s="139"/>
-      <c r="X11" s="138"/>
-      <c r="Y11" s="135"/>
-      <c r="Z11" s="136"/>
-      <c r="AA11" s="134"/>
-      <c r="AB11" s="139"/>
-      <c r="AC11" s="138"/>
-      <c r="AD11" s="135"/>
-      <c r="AE11" s="136"/>
-      <c r="AF11" s="134"/>
-      <c r="AG11" s="139"/>
-      <c r="AH11" s="138"/>
-      <c r="AI11" s="135"/>
-      <c r="AJ11" s="135"/>
-      <c r="AK11" s="136"/>
-      <c r="AL11" s="140"/>
-      <c r="AM11" s="138"/>
-      <c r="AN11" s="135"/>
-      <c r="AO11" s="135"/>
-      <c r="AP11" s="136"/>
-      <c r="AQ11" s="140"/>
-    </row>
-    <row r="12" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E11" s="182"/>
+      <c r="F11" s="186"/>
+      <c r="G11" s="128"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="118"/>
+      <c r="J11" s="119"/>
+      <c r="K11" s="193"/>
+      <c r="L11" s="121"/>
+      <c r="M11" s="122"/>
+      <c r="N11" s="123"/>
+      <c r="O11" s="120"/>
+      <c r="P11" s="121"/>
+      <c r="Q11" s="119"/>
+      <c r="R11" s="124"/>
+      <c r="S11" s="123"/>
+      <c r="T11" s="120"/>
+      <c r="U11" s="121"/>
+      <c r="V11" s="119"/>
+      <c r="W11" s="124"/>
+      <c r="X11" s="123"/>
+      <c r="Y11" s="120"/>
+      <c r="Z11" s="121"/>
+      <c r="AA11" s="119"/>
+      <c r="AB11" s="124"/>
+      <c r="AC11" s="123"/>
+      <c r="AD11" s="120"/>
+      <c r="AE11" s="121"/>
+      <c r="AF11" s="119"/>
+      <c r="AG11" s="124"/>
+      <c r="AH11" s="123"/>
+      <c r="AI11" s="120"/>
+      <c r="AJ11" s="120"/>
+      <c r="AK11" s="121"/>
+      <c r="AL11" s="125"/>
+      <c r="AM11" s="123"/>
+      <c r="AN11" s="120"/>
+      <c r="AO11" s="120"/>
+      <c r="AP11" s="121"/>
+      <c r="AQ11" s="125"/>
+    </row>
+    <row r="12" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="39">
         <v>21</v>
       </c>
-      <c r="B12" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="159">
+      <c r="B12" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="137">
+        <v>5</v>
+      </c>
+      <c r="D12" s="137">
+        <f>IF(SUM(J12:AR12)=0," ",SUM(J12:AR12))</f>
         <v>6</v>
       </c>
-      <c r="D12" s="164" t="str">
-        <f>IF(SUM(I12:AB12)=0," ",SUM(I12:AB12))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E12" s="115">
+      <c r="E12" s="104">
         <v>1</v>
       </c>
-      <c r="F12" s="124"/>
-      <c r="G12" s="122"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="101" t="s">
-        <v>48</v>
-      </c>
-      <c r="L12" s="95"/>
-      <c r="M12" s="96"/>
-      <c r="N12" s="81"/>
-      <c r="O12" s="81"/>
-      <c r="P12" s="101" t="s">
-        <v>48</v>
+      <c r="F12" s="110"/>
+      <c r="G12" s="177"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="92">
+        <v>4</v>
+      </c>
+      <c r="L12" s="86"/>
+      <c r="M12" s="87"/>
+      <c r="N12" s="80"/>
+      <c r="O12" s="80"/>
+      <c r="P12" s="92">
+        <v>2</v>
       </c>
       <c r="Q12" s="25"/>
       <c r="R12" s="25"/>
-      <c r="S12" s="81"/>
-      <c r="T12" s="81"/>
+      <c r="S12" s="80"/>
+      <c r="T12" s="80"/>
       <c r="U12" s="24"/>
       <c r="V12" s="25"/>
       <c r="W12" s="25"/>
-      <c r="X12" s="78"/>
-      <c r="Y12" s="78"/>
-      <c r="Z12" s="78"/>
-      <c r="AA12" s="78"/>
-      <c r="AB12" s="78"/>
-      <c r="AC12" s="78"/>
-      <c r="AD12" s="78"/>
-      <c r="AE12" s="78"/>
-      <c r="AF12" s="78"/>
-      <c r="AG12" s="78"/>
-      <c r="AH12" s="81"/>
-      <c r="AI12" s="81"/>
+      <c r="X12" s="77"/>
+      <c r="Y12" s="77"/>
+      <c r="Z12" s="77"/>
+      <c r="AA12" s="77"/>
+      <c r="AB12" s="77"/>
+      <c r="AC12" s="77"/>
+      <c r="AD12" s="77"/>
+      <c r="AE12" s="77"/>
+      <c r="AF12" s="77"/>
+      <c r="AG12" s="77"/>
+      <c r="AH12" s="80"/>
+      <c r="AI12" s="80"/>
       <c r="AJ12" s="25"/>
       <c r="AK12" s="36"/>
-      <c r="AL12" s="49"/>
-      <c r="AM12" s="81"/>
-      <c r="AN12" s="81"/>
+      <c r="AL12" s="48"/>
+      <c r="AM12" s="80"/>
+      <c r="AN12" s="80"/>
       <c r="AO12" s="25"/>
       <c r="AP12" s="36"/>
-      <c r="AQ12" s="49"/>
-    </row>
-    <row r="13" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AQ12" s="48"/>
+    </row>
+    <row r="13" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="39">
         <v>22</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="159"/>
-      <c r="D13" s="164"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
+      <c r="B13" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="137">
+        <v>3</v>
+      </c>
+      <c r="D13" s="137" t="str">
+        <f t="shared" ref="D13:D15" si="1">IF(SUM(J13:AR13)=0," ",SUM(J13:AR13))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E13" s="104"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="178"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="80"/>
       <c r="K13" s="27"/>
-      <c r="L13" s="95"/>
-      <c r="M13" s="96"/>
-      <c r="N13" s="81"/>
-      <c r="O13" s="81"/>
+      <c r="L13" s="86"/>
+      <c r="M13" s="87"/>
+      <c r="N13" s="80"/>
+      <c r="O13" s="80"/>
       <c r="P13" s="24"/>
       <c r="Q13" s="25"/>
       <c r="R13" s="25"/>
-      <c r="S13" s="81"/>
-      <c r="T13" s="81"/>
+      <c r="S13" s="80"/>
+      <c r="T13" s="80"/>
       <c r="U13" s="24"/>
       <c r="V13" s="25"/>
-      <c r="W13" s="25"/>
-      <c r="X13" s="78"/>
-      <c r="Y13" s="78"/>
-      <c r="Z13" s="78"/>
-      <c r="AA13" s="78"/>
-      <c r="AB13" s="78"/>
-      <c r="AC13" s="78"/>
-      <c r="AD13" s="78"/>
-      <c r="AE13" s="78"/>
-      <c r="AF13" s="78"/>
-      <c r="AG13" s="78"/>
-      <c r="AH13" s="81"/>
-      <c r="AI13" s="81"/>
+      <c r="W13" s="92"/>
+      <c r="X13" s="77"/>
+      <c r="Y13" s="77"/>
+      <c r="Z13" s="77"/>
+      <c r="AA13" s="77"/>
+      <c r="AB13" s="77"/>
+      <c r="AC13" s="77"/>
+      <c r="AD13" s="77"/>
+      <c r="AE13" s="77"/>
+      <c r="AF13" s="77"/>
+      <c r="AG13" s="77"/>
+      <c r="AH13" s="80"/>
+      <c r="AI13" s="80"/>
       <c r="AJ13" s="25"/>
       <c r="AK13" s="36"/>
-      <c r="AL13" s="49"/>
-      <c r="AM13" s="81"/>
-      <c r="AN13" s="81"/>
+      <c r="AL13" s="48"/>
+      <c r="AM13" s="80"/>
+      <c r="AN13" s="80"/>
       <c r="AO13" s="25"/>
       <c r="AP13" s="36"/>
-      <c r="AQ13" s="49"/>
-    </row>
-    <row r="14" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AQ13" s="48"/>
+    </row>
+    <row r="14" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="39">
         <v>23</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="159"/>
-      <c r="D14" s="164"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="122"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="137"/>
+      <c r="D14" s="137" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E14" s="104"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="178"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
       <c r="K14" s="27"/>
-      <c r="L14" s="95"/>
-      <c r="M14" s="96"/>
-      <c r="N14" s="81"/>
-      <c r="O14" s="81"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="87"/>
+      <c r="N14" s="80"/>
+      <c r="O14" s="80"/>
       <c r="P14" s="24"/>
       <c r="Q14" s="25"/>
       <c r="R14" s="25"/>
-      <c r="S14" s="81"/>
-      <c r="T14" s="81"/>
+      <c r="S14" s="80"/>
+      <c r="T14" s="80"/>
       <c r="U14" s="24"/>
       <c r="V14" s="25"/>
       <c r="W14" s="25"/>
-      <c r="X14" s="78"/>
-      <c r="Y14" s="78"/>
-      <c r="Z14" s="78"/>
-      <c r="AA14" s="78"/>
-      <c r="AB14" s="78"/>
-      <c r="AC14" s="78"/>
-      <c r="AD14" s="78"/>
-      <c r="AE14" s="78"/>
-      <c r="AF14" s="78"/>
-      <c r="AG14" s="78"/>
-      <c r="AH14" s="81"/>
-      <c r="AI14" s="81"/>
+      <c r="X14" s="77"/>
+      <c r="Y14" s="77"/>
+      <c r="Z14" s="77"/>
+      <c r="AA14" s="77"/>
+      <c r="AB14" s="77"/>
+      <c r="AC14" s="77"/>
+      <c r="AD14" s="77"/>
+      <c r="AE14" s="77"/>
+      <c r="AF14" s="77"/>
+      <c r="AG14" s="77"/>
+      <c r="AH14" s="80"/>
+      <c r="AI14" s="80"/>
       <c r="AJ14" s="25"/>
       <c r="AK14" s="36"/>
-      <c r="AL14" s="49"/>
-      <c r="AM14" s="81"/>
-      <c r="AN14" s="81"/>
+      <c r="AL14" s="48"/>
+      <c r="AM14" s="80"/>
+      <c r="AN14" s="80"/>
       <c r="AO14" s="25"/>
       <c r="AP14" s="36"/>
-      <c r="AQ14" s="49"/>
-    </row>
-    <row r="15" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AQ14" s="48"/>
+    </row>
+    <row r="15" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="39">
         <v>24</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="159"/>
-      <c r="D15" s="164" t="str">
-        <f t="shared" ref="D15" si="1">IF(SUM(I15:AB15)=0," ",SUM(I15:AB15))</f>
+      <c r="B15" s="42"/>
+      <c r="C15" s="137"/>
+      <c r="D15" s="137" t="str">
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E15" s="115"/>
-      <c r="F15" s="124"/>
-      <c r="G15" s="122"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="179"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
       <c r="K15" s="27"/>
-      <c r="L15" s="95"/>
-      <c r="M15" s="96"/>
-      <c r="N15" s="81"/>
-      <c r="O15" s="81"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="87"/>
+      <c r="N15" s="80"/>
+      <c r="O15" s="80"/>
       <c r="P15" s="24"/>
       <c r="Q15" s="25"/>
       <c r="R15" s="25"/>
-      <c r="S15" s="81"/>
-      <c r="T15" s="81"/>
+      <c r="S15" s="80"/>
+      <c r="T15" s="80"/>
       <c r="U15" s="24"/>
       <c r="V15" s="25"/>
       <c r="W15" s="25"/>
-      <c r="X15" s="78"/>
-      <c r="Y15" s="78"/>
-      <c r="Z15" s="78"/>
-      <c r="AA15" s="78"/>
-      <c r="AB15" s="78"/>
-      <c r="AC15" s="78"/>
-      <c r="AD15" s="78"/>
-      <c r="AE15" s="78"/>
-      <c r="AF15" s="78"/>
-      <c r="AG15" s="78"/>
-      <c r="AH15" s="81"/>
-      <c r="AI15" s="81"/>
+      <c r="X15" s="77"/>
+      <c r="Y15" s="77"/>
+      <c r="Z15" s="77"/>
+      <c r="AA15" s="77"/>
+      <c r="AB15" s="77"/>
+      <c r="AC15" s="77"/>
+      <c r="AD15" s="77"/>
+      <c r="AE15" s="77"/>
+      <c r="AF15" s="77"/>
+      <c r="AG15" s="77"/>
+      <c r="AH15" s="80"/>
+      <c r="AI15" s="80"/>
       <c r="AJ15" s="25"/>
       <c r="AK15" s="36"/>
-      <c r="AL15" s="49"/>
-      <c r="AM15" s="81"/>
-      <c r="AN15" s="81"/>
+      <c r="AL15" s="48"/>
+      <c r="AM15" s="80"/>
+      <c r="AN15" s="80"/>
       <c r="AO15" s="25"/>
       <c r="AP15" s="36"/>
-      <c r="AQ15" s="49"/>
-    </row>
-    <row r="16" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="142">
+      <c r="AQ15" s="48"/>
+    </row>
+    <row r="16" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="127">
         <v>30</v>
       </c>
-      <c r="B16" s="141" t="s">
+      <c r="B16" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="157">
+      <c r="C16" s="183">
         <f>SUM(C17:C23)</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="158">
+        <v>56</v>
+      </c>
+      <c r="D16" s="183">
         <f>SUM(D17:D23)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="129"/>
-      <c r="F16" s="130"/>
-      <c r="G16" s="143"/>
-      <c r="H16" s="132"/>
-      <c r="I16" s="133"/>
-      <c r="J16" s="134"/>
-      <c r="K16" s="135"/>
-      <c r="L16" s="136"/>
-      <c r="M16" s="137"/>
-      <c r="N16" s="138"/>
-      <c r="O16" s="135"/>
-      <c r="P16" s="136"/>
-      <c r="Q16" s="134"/>
-      <c r="R16" s="139"/>
-      <c r="S16" s="138"/>
-      <c r="T16" s="135"/>
-      <c r="U16" s="136"/>
-      <c r="V16" s="134"/>
-      <c r="W16" s="139"/>
-      <c r="X16" s="138"/>
-      <c r="Y16" s="135"/>
-      <c r="Z16" s="136"/>
-      <c r="AA16" s="134"/>
-      <c r="AB16" s="139"/>
-      <c r="AC16" s="138"/>
-      <c r="AD16" s="135"/>
-      <c r="AE16" s="136"/>
-      <c r="AF16" s="134"/>
-      <c r="AG16" s="139"/>
-      <c r="AH16" s="138"/>
-      <c r="AI16" s="135"/>
-      <c r="AJ16" s="135"/>
-      <c r="AK16" s="136"/>
-      <c r="AL16" s="140"/>
-      <c r="AM16" s="138"/>
-      <c r="AN16" s="135"/>
-      <c r="AO16" s="135"/>
-      <c r="AP16" s="136"/>
-      <c r="AQ16" s="140"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="185"/>
+      <c r="G16" s="181"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="118"/>
+      <c r="J16" s="119"/>
+      <c r="K16" s="120"/>
+      <c r="L16" s="121"/>
+      <c r="M16" s="122"/>
+      <c r="N16" s="123"/>
+      <c r="O16" s="120"/>
+      <c r="P16" s="121"/>
+      <c r="Q16" s="119"/>
+      <c r="R16" s="124"/>
+      <c r="S16" s="123"/>
+      <c r="T16" s="120"/>
+      <c r="U16" s="121"/>
+      <c r="V16" s="119"/>
+      <c r="W16" s="124"/>
+      <c r="X16" s="123"/>
+      <c r="Y16" s="120"/>
+      <c r="Z16" s="121"/>
+      <c r="AA16" s="119"/>
+      <c r="AB16" s="124"/>
+      <c r="AC16" s="123"/>
+      <c r="AD16" s="120"/>
+      <c r="AE16" s="121"/>
+      <c r="AF16" s="119"/>
+      <c r="AG16" s="124"/>
+      <c r="AH16" s="123"/>
+      <c r="AI16" s="120"/>
+      <c r="AJ16" s="120"/>
+      <c r="AK16" s="121"/>
+      <c r="AL16" s="125"/>
+      <c r="AM16" s="123"/>
+      <c r="AN16" s="120"/>
+      <c r="AO16" s="120"/>
+      <c r="AP16" s="121"/>
+      <c r="AQ16" s="125"/>
     </row>
     <row r="17" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="39">
         <v>31</v>
       </c>
-      <c r="B17" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="159"/>
-      <c r="D17" s="164" t="str">
-        <f>IF(SUM(I17:AB17)=0," ",SUM(I17:AB17))</f>
+      <c r="B17" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="138">
+        <v>2</v>
+      </c>
+      <c r="D17" s="138" t="str">
+        <f>IF(SUM(I17:AQ17)=0," ",SUM(I17:AQ17))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E17" s="115">
+      <c r="E17" s="104">
         <v>1</v>
       </c>
-      <c r="F17" s="124"/>
-      <c r="G17" s="122"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="177"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
       <c r="K17" s="24"/>
-      <c r="L17" s="95"/>
-      <c r="M17" s="96"/>
-      <c r="N17" s="81"/>
-      <c r="O17" s="81"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="80"/>
+      <c r="O17" s="80"/>
       <c r="P17" s="24"/>
       <c r="Q17" s="25"/>
       <c r="R17" s="26"/>
-      <c r="S17" s="81"/>
-      <c r="T17" s="81"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="25"/>
-      <c r="W17" s="26"/>
-      <c r="X17" s="77"/>
-      <c r="Y17" s="77"/>
-      <c r="Z17" s="77"/>
-      <c r="AA17" s="77"/>
-      <c r="AB17" s="77"/>
-      <c r="AC17" s="77"/>
-      <c r="AD17" s="77"/>
-      <c r="AE17" s="77"/>
-      <c r="AF17" s="77"/>
-      <c r="AG17" s="77"/>
-      <c r="AH17" s="81"/>
-      <c r="AI17" s="81"/>
-      <c r="AJ17" s="25"/>
+      <c r="S17" s="80"/>
+      <c r="T17" s="80"/>
+      <c r="U17" s="92"/>
+      <c r="V17" s="92"/>
+      <c r="W17" s="158"/>
+      <c r="X17" s="76"/>
+      <c r="Y17" s="76"/>
+      <c r="Z17" s="76"/>
+      <c r="AA17" s="76"/>
+      <c r="AB17" s="76"/>
+      <c r="AC17" s="76"/>
+      <c r="AD17" s="76"/>
+      <c r="AE17" s="76"/>
+      <c r="AF17" s="76"/>
+      <c r="AG17" s="92"/>
+      <c r="AH17" s="80"/>
+      <c r="AI17" s="80"/>
+      <c r="AJ17" s="92"/>
       <c r="AK17" s="36"/>
-      <c r="AL17" s="49"/>
-      <c r="AM17" s="81"/>
-      <c r="AN17" s="81"/>
+      <c r="AL17" s="48"/>
+      <c r="AM17" s="80"/>
+      <c r="AN17" s="80"/>
       <c r="AO17" s="25"/>
       <c r="AP17" s="36"/>
-      <c r="AQ17" s="49"/>
+      <c r="AQ17" s="48"/>
     </row>
     <row r="18" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="39">
         <v>32</v>
       </c>
-      <c r="B18" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="159"/>
-      <c r="D18" s="164"/>
-      <c r="E18" s="115">
+      <c r="B18" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="138">
+        <v>3</v>
+      </c>
+      <c r="D18" s="138" t="str">
+        <f t="shared" ref="D18:D23" si="2">IF(SUM(I18:AQ18)=0," ",SUM(I18:AQ18))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E18" s="104">
         <v>1</v>
       </c>
-      <c r="F18" s="124"/>
-      <c r="G18" s="122"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="178"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="80"/>
       <c r="K18" s="24"/>
-      <c r="L18" s="95"/>
-      <c r="M18" s="96"/>
-      <c r="N18" s="81"/>
-      <c r="O18" s="81"/>
+      <c r="L18" s="86"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="80"/>
+      <c r="O18" s="80"/>
       <c r="P18" s="24"/>
       <c r="Q18" s="25"/>
       <c r="R18" s="26"/>
-      <c r="S18" s="81"/>
-      <c r="T18" s="81"/>
+      <c r="S18" s="80"/>
+      <c r="T18" s="80"/>
       <c r="U18" s="24"/>
       <c r="V18" s="25"/>
       <c r="W18" s="26"/>
-      <c r="X18" s="77"/>
-      <c r="Y18" s="77"/>
-      <c r="Z18" s="77"/>
-      <c r="AA18" s="77"/>
-      <c r="AB18" s="77"/>
-      <c r="AC18" s="77"/>
-      <c r="AD18" s="77"/>
-      <c r="AE18" s="77"/>
-      <c r="AF18" s="77"/>
-      <c r="AG18" s="77"/>
-      <c r="AH18" s="81"/>
-      <c r="AI18" s="81"/>
-      <c r="AJ18" s="25"/>
-      <c r="AK18" s="36"/>
-      <c r="AL18" s="49"/>
-      <c r="AM18" s="81"/>
-      <c r="AN18" s="81"/>
+      <c r="X18" s="76"/>
+      <c r="Y18" s="92"/>
+      <c r="Z18" s="76"/>
+      <c r="AA18" s="76"/>
+      <c r="AB18" s="92"/>
+      <c r="AC18" s="76"/>
+      <c r="AD18" s="76"/>
+      <c r="AE18" s="92"/>
+      <c r="AF18" s="76"/>
+      <c r="AG18" s="76"/>
+      <c r="AH18" s="80"/>
+      <c r="AI18" s="80"/>
+      <c r="AJ18" s="92"/>
+      <c r="AK18" s="92"/>
+      <c r="AL18" s="48"/>
+      <c r="AM18" s="80"/>
+      <c r="AN18" s="80"/>
       <c r="AO18" s="25"/>
       <c r="AP18" s="36"/>
-      <c r="AQ18" s="49"/>
+      <c r="AQ18" s="48"/>
     </row>
     <row r="19" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="39">
         <v>33</v>
       </c>
-      <c r="B19" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="159"/>
-      <c r="D19" s="164"/>
-      <c r="E19" s="115">
+      <c r="B19" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="138">
         <v>1</v>
       </c>
-      <c r="F19" s="124"/>
-      <c r="G19" s="122"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
+      <c r="D19" s="138" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E19" s="104">
+        <v>1</v>
+      </c>
+      <c r="F19" s="110"/>
+      <c r="G19" s="178"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="80"/>
       <c r="K19" s="24"/>
-      <c r="L19" s="95"/>
-      <c r="M19" s="96"/>
-      <c r="N19" s="81"/>
-      <c r="O19" s="81"/>
+      <c r="L19" s="86"/>
+      <c r="M19" s="87"/>
+      <c r="N19" s="80"/>
+      <c r="O19" s="80"/>
       <c r="P19" s="24"/>
       <c r="Q19" s="25"/>
       <c r="R19" s="26"/>
-      <c r="S19" s="81"/>
-      <c r="T19" s="81"/>
+      <c r="S19" s="80"/>
+      <c r="T19" s="80"/>
       <c r="U19" s="24"/>
       <c r="V19" s="25"/>
       <c r="W19" s="26"/>
-      <c r="X19" s="77"/>
-      <c r="Y19" s="77"/>
-      <c r="Z19" s="77"/>
-      <c r="AA19" s="77"/>
-      <c r="AB19" s="77"/>
-      <c r="AC19" s="77"/>
-      <c r="AD19" s="77"/>
-      <c r="AE19" s="77"/>
-      <c r="AF19" s="77"/>
-      <c r="AG19" s="77"/>
-      <c r="AH19" s="81"/>
-      <c r="AI19" s="81"/>
+      <c r="X19" s="92"/>
+      <c r="Y19" s="76"/>
+      <c r="Z19" s="76"/>
+      <c r="AA19" s="76"/>
+      <c r="AB19" s="76"/>
+      <c r="AC19" s="76"/>
+      <c r="AD19" s="76"/>
+      <c r="AE19" s="76"/>
+      <c r="AF19" s="76"/>
+      <c r="AG19" s="76"/>
+      <c r="AH19" s="80"/>
+      <c r="AI19" s="80"/>
       <c r="AJ19" s="25"/>
       <c r="AK19" s="36"/>
-      <c r="AL19" s="49"/>
-      <c r="AM19" s="81"/>
-      <c r="AN19" s="81"/>
+      <c r="AL19" s="48"/>
+      <c r="AM19" s="80"/>
+      <c r="AN19" s="80"/>
       <c r="AO19" s="25"/>
       <c r="AP19" s="36"/>
-      <c r="AQ19" s="49"/>
+      <c r="AQ19" s="48"/>
     </row>
     <row r="20" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="39">
         <v>34</v>
       </c>
-      <c r="B20" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="159"/>
-      <c r="D20" s="164"/>
-      <c r="E20" s="115">
+      <c r="B20" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="138">
+        <v>45</v>
+      </c>
+      <c r="D20" s="138" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E20" s="104">
         <v>1</v>
       </c>
-      <c r="F20" s="124"/>
-      <c r="G20" s="122"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="81"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="178"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="80"/>
       <c r="K20" s="24"/>
-      <c r="L20" s="95"/>
-      <c r="M20" s="96"/>
-      <c r="N20" s="81"/>
-      <c r="O20" s="81"/>
+      <c r="L20" s="86"/>
+      <c r="M20" s="87"/>
+      <c r="N20" s="80"/>
+      <c r="O20" s="80"/>
       <c r="P20" s="24"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="81"/>
-      <c r="T20" s="81"/>
-      <c r="U20" s="24"/>
-      <c r="V20" s="25"/>
-      <c r="W20" s="26"/>
-      <c r="X20" s="77"/>
-      <c r="Y20" s="77"/>
-      <c r="Z20" s="77"/>
-      <c r="AA20" s="77"/>
-      <c r="AB20" s="77"/>
-      <c r="AC20" s="77"/>
-      <c r="AD20" s="77"/>
-      <c r="AE20" s="77"/>
-      <c r="AF20" s="77"/>
-      <c r="AG20" s="77"/>
-      <c r="AH20" s="81"/>
-      <c r="AI20" s="81"/>
-      <c r="AJ20" s="25"/>
-      <c r="AK20" s="36"/>
-      <c r="AL20" s="49"/>
-      <c r="AM20" s="81"/>
-      <c r="AN20" s="81"/>
-      <c r="AO20" s="25"/>
+      <c r="Q20" s="92"/>
+      <c r="R20" s="92"/>
+      <c r="S20" s="80"/>
+      <c r="T20" s="80"/>
+      <c r="U20" s="92"/>
+      <c r="V20" s="92"/>
+      <c r="W20" s="158"/>
+      <c r="X20" s="76"/>
+      <c r="Y20" s="76"/>
+      <c r="Z20" s="76"/>
+      <c r="AA20" s="76"/>
+      <c r="AB20" s="76"/>
+      <c r="AC20" s="76"/>
+      <c r="AD20" s="76"/>
+      <c r="AE20" s="76"/>
+      <c r="AF20" s="76"/>
+      <c r="AG20" s="76"/>
+      <c r="AH20" s="80"/>
+      <c r="AI20" s="80"/>
+      <c r="AJ20" s="92"/>
+      <c r="AK20" s="92"/>
+      <c r="AL20" s="160"/>
+      <c r="AM20" s="162"/>
+      <c r="AN20" s="80"/>
+      <c r="AO20" s="158"/>
       <c r="AP20" s="36"/>
-      <c r="AQ20" s="49"/>
+      <c r="AQ20" s="48"/>
     </row>
     <row r="21" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="39">
         <v>35</v>
       </c>
-      <c r="B21" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="159"/>
-      <c r="D21" s="164"/>
-      <c r="E21" s="115">
+      <c r="B21" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="138">
+        <v>5</v>
+      </c>
+      <c r="D21" s="138" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E21" s="104">
         <v>1</v>
       </c>
-      <c r="F21" s="124"/>
-      <c r="G21" s="122"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="81"/>
+      <c r="F21" s="180"/>
+      <c r="G21" s="170"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="80"/>
       <c r="K21" s="24"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="96"/>
-      <c r="N21" s="81"/>
-      <c r="O21" s="81"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="87"/>
+      <c r="N21" s="80"/>
+      <c r="O21" s="80"/>
       <c r="P21" s="24"/>
       <c r="Q21" s="25"/>
       <c r="R21" s="26"/>
-      <c r="S21" s="81"/>
-      <c r="T21" s="81"/>
+      <c r="S21" s="80"/>
+      <c r="T21" s="80"/>
       <c r="U21" s="24"/>
       <c r="V21" s="25"/>
-      <c r="W21" s="26"/>
-      <c r="X21" s="77"/>
-      <c r="Y21" s="77"/>
-      <c r="Z21" s="77"/>
-      <c r="AA21" s="77"/>
-      <c r="AB21" s="77"/>
-      <c r="AC21" s="77"/>
-      <c r="AD21" s="77"/>
-      <c r="AE21" s="77"/>
-      <c r="AF21" s="77"/>
-      <c r="AG21" s="77"/>
-      <c r="AH21" s="81"/>
-      <c r="AI21" s="81"/>
-      <c r="AJ21" s="25"/>
+      <c r="W21" s="92"/>
+      <c r="X21" s="76"/>
+      <c r="Y21" s="76"/>
+      <c r="Z21" s="76"/>
+      <c r="AA21" s="76"/>
+      <c r="AB21" s="76"/>
+      <c r="AC21" s="76"/>
+      <c r="AD21" s="76"/>
+      <c r="AE21" s="76"/>
+      <c r="AF21" s="76"/>
+      <c r="AG21" s="76"/>
+      <c r="AH21" s="80"/>
+      <c r="AI21" s="80"/>
+      <c r="AJ21" s="158"/>
       <c r="AK21" s="36"/>
-      <c r="AL21" s="49"/>
-      <c r="AM21" s="81"/>
-      <c r="AN21" s="81"/>
+      <c r="AL21" s="48"/>
+      <c r="AM21" s="80"/>
+      <c r="AN21" s="80"/>
       <c r="AO21" s="25"/>
       <c r="AP21" s="36"/>
-      <c r="AQ21" s="49"/>
+      <c r="AQ21" s="48"/>
     </row>
     <row r="22" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="39">
         <v>36</v>
       </c>
-      <c r="B22" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="159"/>
-      <c r="D22" s="164"/>
-      <c r="E22" s="115">
+      <c r="B22" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="138"/>
+      <c r="D22" s="138" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E22" s="104">
         <v>1</v>
       </c>
-      <c r="F22" s="124"/>
-      <c r="G22" s="122"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="81"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="178"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="80"/>
       <c r="K22" s="24"/>
-      <c r="L22" s="95"/>
-      <c r="M22" s="96"/>
-      <c r="N22" s="81"/>
-      <c r="O22" s="81"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="87"/>
+      <c r="N22" s="80"/>
+      <c r="O22" s="80"/>
       <c r="P22" s="24"/>
       <c r="Q22" s="25"/>
       <c r="R22" s="26"/>
-      <c r="S22" s="81"/>
-      <c r="T22" s="81"/>
+      <c r="S22" s="80"/>
+      <c r="T22" s="80"/>
       <c r="U22" s="24"/>
       <c r="V22" s="25"/>
       <c r="W22" s="26"/>
-      <c r="X22" s="77"/>
-      <c r="Y22" s="77"/>
-      <c r="Z22" s="77"/>
-      <c r="AA22" s="77"/>
-      <c r="AB22" s="77"/>
-      <c r="AC22" s="77"/>
-      <c r="AD22" s="77"/>
-      <c r="AE22" s="77"/>
-      <c r="AF22" s="77"/>
-      <c r="AG22" s="77"/>
-      <c r="AH22" s="81"/>
-      <c r="AI22" s="81"/>
+      <c r="X22" s="76"/>
+      <c r="Y22" s="76"/>
+      <c r="Z22" s="76"/>
+      <c r="AA22" s="76"/>
+      <c r="AB22" s="76"/>
+      <c r="AC22" s="76"/>
+      <c r="AD22" s="76"/>
+      <c r="AE22" s="76"/>
+      <c r="AF22" s="76"/>
+      <c r="AG22" s="76"/>
+      <c r="AH22" s="80"/>
+      <c r="AI22" s="80"/>
       <c r="AJ22" s="25"/>
       <c r="AK22" s="36"/>
-      <c r="AL22" s="49"/>
-      <c r="AM22" s="81"/>
-      <c r="AN22" s="81"/>
+      <c r="AL22" s="48"/>
+      <c r="AM22" s="80"/>
+      <c r="AN22" s="80"/>
       <c r="AO22" s="25"/>
       <c r="AP22" s="36"/>
-      <c r="AQ22" s="49"/>
+      <c r="AQ22" s="48"/>
     </row>
     <row r="23" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="39">
         <v>37</v>
       </c>
-      <c r="B23" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="161"/>
-      <c r="D23" s="160" t="str">
-        <f>IF(SUM(I23:AB23)=0," ",SUM(I23:AB23))</f>
+      <c r="B23" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="138"/>
+      <c r="D23" s="138" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E23" s="116">
+      <c r="E23" s="105">
         <v>1</v>
       </c>
-      <c r="F23" s="124"/>
-      <c r="G23" s="122"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="81"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="179"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="80"/>
       <c r="K23" s="27"/>
-      <c r="L23" s="97"/>
-      <c r="M23" s="96"/>
-      <c r="N23" s="81"/>
-      <c r="O23" s="81"/>
+      <c r="L23" s="88"/>
+      <c r="M23" s="87"/>
+      <c r="N23" s="80"/>
+      <c r="O23" s="80"/>
       <c r="P23" s="24"/>
       <c r="Q23" s="28"/>
       <c r="R23" s="29"/>
-      <c r="S23" s="81"/>
-      <c r="T23" s="81"/>
+      <c r="S23" s="80"/>
+      <c r="T23" s="80"/>
       <c r="U23" s="24"/>
       <c r="V23" s="28"/>
       <c r="W23" s="29"/>
-      <c r="X23" s="77"/>
-      <c r="Y23" s="77"/>
-      <c r="Z23" s="77"/>
-      <c r="AA23" s="77"/>
-      <c r="AB23" s="77"/>
-      <c r="AC23" s="77"/>
-      <c r="AD23" s="77"/>
-      <c r="AE23" s="77"/>
-      <c r="AF23" s="77"/>
-      <c r="AG23" s="77"/>
-      <c r="AH23" s="81"/>
-      <c r="AI23" s="81"/>
+      <c r="X23" s="76"/>
+      <c r="Y23" s="76"/>
+      <c r="Z23" s="76"/>
+      <c r="AA23" s="76"/>
+      <c r="AB23" s="76"/>
+      <c r="AC23" s="76"/>
+      <c r="AD23" s="76"/>
+      <c r="AE23" s="76"/>
+      <c r="AF23" s="76"/>
+      <c r="AG23" s="76"/>
+      <c r="AH23" s="80"/>
+      <c r="AI23" s="80"/>
       <c r="AJ23" s="28"/>
       <c r="AK23" s="23"/>
-      <c r="AL23" s="47"/>
-      <c r="AM23" s="81"/>
-      <c r="AN23" s="81"/>
+      <c r="AL23" s="46"/>
+      <c r="AM23" s="80"/>
+      <c r="AN23" s="80"/>
       <c r="AO23" s="28"/>
       <c r="AP23" s="23"/>
-      <c r="AQ23" s="47"/>
+      <c r="AQ23" s="46"/>
     </row>
     <row r="24" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="142">
+      <c r="A24" s="127">
         <v>40</v>
       </c>
-      <c r="B24" s="141" t="s">
+      <c r="B24" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="157">
+      <c r="C24" s="183">
         <f>SUM(C25:C27)</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="158">
+        <v>15</v>
+      </c>
+      <c r="D24" s="183">
         <f>SUM(D25:D27)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="144"/>
-      <c r="F24" s="130"/>
-      <c r="G24" s="143"/>
-      <c r="H24" s="132"/>
-      <c r="I24" s="133"/>
-      <c r="J24" s="134"/>
-      <c r="K24" s="135"/>
-      <c r="L24" s="136"/>
-      <c r="M24" s="137"/>
-      <c r="N24" s="138"/>
-      <c r="O24" s="135"/>
-      <c r="P24" s="136"/>
-      <c r="Q24" s="134"/>
-      <c r="R24" s="139"/>
-      <c r="S24" s="138"/>
-      <c r="T24" s="135"/>
-      <c r="U24" s="136"/>
-      <c r="V24" s="134"/>
-      <c r="W24" s="139"/>
-      <c r="X24" s="138"/>
-      <c r="Y24" s="135"/>
-      <c r="Z24" s="136"/>
-      <c r="AA24" s="134"/>
-      <c r="AB24" s="139"/>
-      <c r="AC24" s="138"/>
-      <c r="AD24" s="135"/>
-      <c r="AE24" s="136"/>
-      <c r="AF24" s="134"/>
-      <c r="AG24" s="139"/>
-      <c r="AH24" s="138"/>
-      <c r="AI24" s="135"/>
-      <c r="AJ24" s="135"/>
-      <c r="AK24" s="136"/>
-      <c r="AL24" s="140"/>
-      <c r="AM24" s="138"/>
-      <c r="AN24" s="135"/>
-      <c r="AO24" s="135"/>
-      <c r="AP24" s="136"/>
-      <c r="AQ24" s="140"/>
+      <c r="E24" s="182"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="181"/>
+      <c r="H24" s="117"/>
+      <c r="I24" s="118"/>
+      <c r="J24" s="119"/>
+      <c r="K24" s="120"/>
+      <c r="L24" s="121"/>
+      <c r="M24" s="122"/>
+      <c r="N24" s="123"/>
+      <c r="O24" s="120"/>
+      <c r="P24" s="121"/>
+      <c r="Q24" s="119"/>
+      <c r="R24" s="124"/>
+      <c r="S24" s="123"/>
+      <c r="T24" s="120"/>
+      <c r="U24" s="121"/>
+      <c r="V24" s="119"/>
+      <c r="W24" s="124"/>
+      <c r="X24" s="123"/>
+      <c r="Y24" s="120"/>
+      <c r="Z24" s="121"/>
+      <c r="AA24" s="119"/>
+      <c r="AB24" s="124"/>
+      <c r="AC24" s="123"/>
+      <c r="AD24" s="120"/>
+      <c r="AE24" s="121"/>
+      <c r="AF24" s="119"/>
+      <c r="AG24" s="124"/>
+      <c r="AH24" s="123"/>
+      <c r="AI24" s="120"/>
+      <c r="AJ24" s="120"/>
+      <c r="AK24" s="121"/>
+      <c r="AL24" s="125"/>
+      <c r="AM24" s="123"/>
+      <c r="AN24" s="120"/>
+      <c r="AO24" s="120"/>
+      <c r="AP24" s="121"/>
+      <c r="AQ24" s="125"/>
     </row>
     <row r="25" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="39">
         <v>40</v>
       </c>
-      <c r="B25" s="51" t="s">
+      <c r="B25" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="159"/>
-      <c r="D25" s="164" t="str">
-        <f>IF(SUM(I25:AB25)=0," ",SUM(I25:AB25))</f>
+      <c r="C25" s="137">
+        <v>1</v>
+      </c>
+      <c r="D25" s="137" t="str">
+        <f>IF(SUM(J25:AR25)=0," ",SUM(J25:AR25))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E25" s="115">
+      <c r="E25" s="104">
         <v>1</v>
       </c>
-      <c r="F25" s="124"/>
-      <c r="G25" s="122"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="81"/>
-      <c r="J25" s="81"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="177"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="80"/>
       <c r="K25" s="24"/>
-      <c r="L25" s="95"/>
-      <c r="M25" s="96"/>
-      <c r="N25" s="81"/>
-      <c r="O25" s="81"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="87"/>
+      <c r="N25" s="80"/>
+      <c r="O25" s="80"/>
       <c r="P25" s="24"/>
-      <c r="Q25" s="25"/>
+      <c r="Q25" s="92"/>
       <c r="R25" s="26"/>
-      <c r="S25" s="81"/>
-      <c r="T25" s="81"/>
+      <c r="S25" s="80"/>
+      <c r="T25" s="80"/>
       <c r="U25" s="24"/>
       <c r="V25" s="25"/>
       <c r="W25" s="26"/>
-      <c r="X25" s="77"/>
-      <c r="Y25" s="77"/>
-      <c r="Z25" s="77"/>
-      <c r="AA25" s="77"/>
-      <c r="AB25" s="77"/>
-      <c r="AC25" s="77"/>
-      <c r="AD25" s="77"/>
-      <c r="AE25" s="77"/>
-      <c r="AF25" s="77"/>
-      <c r="AG25" s="77"/>
-      <c r="AH25" s="81"/>
-      <c r="AI25" s="81"/>
+      <c r="X25" s="76"/>
+      <c r="Y25" s="76"/>
+      <c r="Z25" s="76"/>
+      <c r="AA25" s="76"/>
+      <c r="AB25" s="76"/>
+      <c r="AC25" s="76"/>
+      <c r="AD25" s="76"/>
+      <c r="AE25" s="76"/>
+      <c r="AF25" s="76"/>
+      <c r="AG25" s="76"/>
+      <c r="AH25" s="80"/>
+      <c r="AI25" s="80"/>
       <c r="AJ25" s="25"/>
       <c r="AK25" s="25"/>
-      <c r="AL25" s="52"/>
-      <c r="AM25" s="81"/>
-      <c r="AN25" s="81"/>
+      <c r="AL25" s="51"/>
+      <c r="AM25" s="80"/>
+      <c r="AN25" s="80"/>
       <c r="AO25" s="25"/>
       <c r="AP25" s="25"/>
-      <c r="AQ25" s="52"/>
+      <c r="AQ25" s="51"/>
     </row>
     <row r="26" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="39">
         <v>41</v>
       </c>
-      <c r="B26" s="51" t="s">
+      <c r="B26" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="159"/>
-      <c r="D26" s="164" t="str">
-        <f>IF(SUM(I26:AB26)=0," ",SUM(I26:AB26))</f>
+      <c r="C26" s="137">
+        <v>6</v>
+      </c>
+      <c r="D26" s="137" t="str">
+        <f>IF(SUM(I26:AQ26)=0," ",SUM(I26:AQ26))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E26" s="115">
+      <c r="E26" s="104">
         <v>1</v>
       </c>
-      <c r="F26" s="124"/>
-      <c r="G26" s="122"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="81"/>
-      <c r="J26" s="81"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="178"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="80"/>
       <c r="K26" s="24"/>
-      <c r="L26" s="95"/>
-      <c r="M26" s="96"/>
-      <c r="N26" s="81"/>
-      <c r="O26" s="81"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="81"/>
-      <c r="T26" s="81"/>
-      <c r="U26" s="24"/>
-      <c r="V26" s="25"/>
-      <c r="W26" s="26"/>
-      <c r="X26" s="77"/>
-      <c r="Y26" s="77"/>
-      <c r="Z26" s="77"/>
-      <c r="AA26" s="77"/>
-      <c r="AB26" s="77"/>
-      <c r="AC26" s="77"/>
-      <c r="AD26" s="77"/>
-      <c r="AE26" s="77"/>
-      <c r="AF26" s="77"/>
-      <c r="AG26" s="77"/>
-      <c r="AH26" s="81"/>
-      <c r="AI26" s="81"/>
-      <c r="AJ26" s="28"/>
-      <c r="AK26" s="28"/>
-      <c r="AL26" s="53"/>
-      <c r="AM26" s="81"/>
-      <c r="AN26" s="81"/>
-      <c r="AO26" s="28"/>
+      <c r="L26" s="86"/>
+      <c r="M26" s="87"/>
+      <c r="N26" s="80"/>
+      <c r="O26" s="80"/>
+      <c r="P26" s="92"/>
+      <c r="Q26" s="92"/>
+      <c r="R26" s="92"/>
+      <c r="S26" s="80"/>
+      <c r="T26" s="80"/>
+      <c r="U26" s="92"/>
+      <c r="V26" s="92"/>
+      <c r="W26" s="92"/>
+      <c r="X26" s="76"/>
+      <c r="Y26" s="76"/>
+      <c r="Z26" s="76"/>
+      <c r="AA26" s="76"/>
+      <c r="AB26" s="76"/>
+      <c r="AC26" s="76"/>
+      <c r="AD26" s="76"/>
+      <c r="AE26" s="76"/>
+      <c r="AF26" s="76"/>
+      <c r="AG26" s="76"/>
+      <c r="AH26" s="80"/>
+      <c r="AI26" s="80"/>
+      <c r="AJ26" s="159"/>
+      <c r="AK26" s="92"/>
+      <c r="AL26" s="160"/>
+      <c r="AM26" s="162"/>
+      <c r="AN26" s="80"/>
+      <c r="AO26" s="92"/>
       <c r="AP26" s="28"/>
-      <c r="AQ26" s="53"/>
+      <c r="AQ26" s="52"/>
     </row>
     <row r="27" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="39">
         <v>42</v>
       </c>
-      <c r="B27" s="54" t="s">
+      <c r="B27" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="165"/>
-      <c r="D27" s="164" t="str">
-        <f>IF(SUM(I27:AB27)=0," ",SUM(I27:AB27))</f>
+      <c r="C27" s="137">
+        <v>8</v>
+      </c>
+      <c r="D27" s="137" t="str">
+        <f t="shared" ref="D27" si="3">IF(SUM(J27:AR27)=0," ",SUM(J27:AR27))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E27" s="118">
+      <c r="E27" s="107">
         <v>1</v>
       </c>
-      <c r="F27" s="125"/>
-      <c r="G27" s="122"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="81"/>
+      <c r="F27" s="111"/>
+      <c r="G27" s="179"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="80"/>
+      <c r="J27" s="80"/>
       <c r="K27" s="27"/>
-      <c r="L27" s="97"/>
-      <c r="M27" s="99"/>
-      <c r="N27" s="81"/>
-      <c r="O27" s="81"/>
+      <c r="L27" s="88"/>
+      <c r="M27" s="90"/>
+      <c r="N27" s="80"/>
+      <c r="O27" s="80"/>
       <c r="P27" s="27"/>
       <c r="Q27" s="37"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="81"/>
-      <c r="T27" s="81"/>
+      <c r="R27" s="92"/>
+      <c r="S27" s="80"/>
+      <c r="T27" s="80"/>
       <c r="U27" s="27"/>
-      <c r="V27" s="37"/>
+      <c r="V27" s="92"/>
       <c r="W27" s="30"/>
-      <c r="X27" s="77"/>
-      <c r="Y27" s="77"/>
-      <c r="Z27" s="77"/>
-      <c r="AA27" s="77"/>
-      <c r="AB27" s="77"/>
-      <c r="AC27" s="77"/>
-      <c r="AD27" s="77"/>
-      <c r="AE27" s="77"/>
-      <c r="AF27" s="77"/>
-      <c r="AG27" s="77"/>
-      <c r="AH27" s="81"/>
-      <c r="AI27" s="81"/>
+      <c r="X27" s="76"/>
+      <c r="Y27" s="76"/>
+      <c r="Z27" s="76"/>
+      <c r="AA27" s="76"/>
+      <c r="AB27" s="76"/>
+      <c r="AC27" s="76"/>
+      <c r="AD27" s="76"/>
+      <c r="AE27" s="76"/>
+      <c r="AF27" s="76"/>
+      <c r="AG27" s="76"/>
+      <c r="AH27" s="80"/>
+      <c r="AI27" s="80"/>
       <c r="AJ27" s="25"/>
-      <c r="AK27" s="25"/>
-      <c r="AL27" s="46"/>
-      <c r="AM27" s="81"/>
-      <c r="AN27" s="81"/>
-      <c r="AO27" s="25"/>
+      <c r="AK27" s="92"/>
+      <c r="AL27" s="45"/>
+      <c r="AM27" s="80"/>
+      <c r="AN27" s="80"/>
+      <c r="AO27" s="92"/>
       <c r="AP27" s="25"/>
-      <c r="AQ27" s="46"/>
+      <c r="AQ27" s="45"/>
     </row>
     <row r="28" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="142">
+      <c r="A28" s="127">
         <v>50</v>
       </c>
-      <c r="B28" s="141" t="s">
+      <c r="B28" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="157">
+      <c r="C28" s="187">
         <f>SUM(C29:C30)</f>
-        <v>0</v>
-      </c>
-      <c r="D28" s="158">
+        <v>5</v>
+      </c>
+      <c r="D28" s="183">
         <f>SUM(D29:D30)</f>
         <v>0</v>
       </c>
-      <c r="E28" s="129"/>
-      <c r="F28" s="130"/>
-      <c r="G28" s="143"/>
-      <c r="H28" s="132"/>
-      <c r="I28" s="133"/>
-      <c r="J28" s="134"/>
-      <c r="K28" s="135"/>
-      <c r="L28" s="136"/>
-      <c r="M28" s="137"/>
-      <c r="N28" s="138"/>
-      <c r="O28" s="135"/>
-      <c r="P28" s="136"/>
-      <c r="Q28" s="134"/>
-      <c r="R28" s="139"/>
-      <c r="S28" s="138"/>
-      <c r="T28" s="135"/>
-      <c r="U28" s="136"/>
-      <c r="V28" s="134"/>
-      <c r="W28" s="139"/>
-      <c r="X28" s="138"/>
-      <c r="Y28" s="135"/>
-      <c r="Z28" s="136"/>
-      <c r="AA28" s="134"/>
-      <c r="AB28" s="139"/>
-      <c r="AC28" s="138"/>
-      <c r="AD28" s="135"/>
-      <c r="AE28" s="136"/>
-      <c r="AF28" s="134"/>
-      <c r="AG28" s="139"/>
-      <c r="AH28" s="138"/>
-      <c r="AI28" s="135"/>
-      <c r="AJ28" s="135"/>
-      <c r="AK28" s="136"/>
-      <c r="AL28" s="140"/>
-      <c r="AM28" s="138"/>
-      <c r="AN28" s="135"/>
-      <c r="AO28" s="135"/>
-      <c r="AP28" s="136"/>
-      <c r="AQ28" s="140"/>
+      <c r="E28" s="182"/>
+      <c r="F28" s="186"/>
+      <c r="G28" s="181"/>
+      <c r="H28" s="117"/>
+      <c r="I28" s="118"/>
+      <c r="J28" s="119"/>
+      <c r="K28" s="120"/>
+      <c r="L28" s="121"/>
+      <c r="M28" s="122"/>
+      <c r="N28" s="123"/>
+      <c r="O28" s="120"/>
+      <c r="P28" s="121"/>
+      <c r="Q28" s="119"/>
+      <c r="R28" s="124"/>
+      <c r="S28" s="123"/>
+      <c r="T28" s="120"/>
+      <c r="U28" s="121"/>
+      <c r="V28" s="119"/>
+      <c r="W28" s="124"/>
+      <c r="X28" s="123"/>
+      <c r="Y28" s="120"/>
+      <c r="Z28" s="121"/>
+      <c r="AA28" s="119"/>
+      <c r="AB28" s="124"/>
+      <c r="AC28" s="123"/>
+      <c r="AD28" s="120"/>
+      <c r="AE28" s="121"/>
+      <c r="AF28" s="119"/>
+      <c r="AG28" s="124"/>
+      <c r="AH28" s="123"/>
+      <c r="AI28" s="120"/>
+      <c r="AJ28" s="120"/>
+      <c r="AK28" s="121"/>
+      <c r="AL28" s="125"/>
+      <c r="AM28" s="123"/>
+      <c r="AN28" s="120"/>
+      <c r="AO28" s="120"/>
+      <c r="AP28" s="121"/>
+      <c r="AQ28" s="125"/>
     </row>
     <row r="29" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="40">
         <v>51</v>
       </c>
-      <c r="B29" s="54" t="s">
+      <c r="B29" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="159"/>
-      <c r="D29" s="164"/>
-      <c r="E29" s="115">
+      <c r="C29" s="137">
+        <v>5</v>
+      </c>
+      <c r="D29" s="137" t="str">
+        <f>IF(SUM(J29:AR29)=0," ",SUM(J29:AR29))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E29" s="104">
         <v>3</v>
       </c>
-      <c r="F29" s="124"/>
-      <c r="G29" s="122"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="81"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="95"/>
-      <c r="M29" s="96"/>
-      <c r="N29" s="81"/>
-      <c r="O29" s="81"/>
+      <c r="F29" s="110"/>
+      <c r="G29" s="177"/>
+      <c r="H29" s="171"/>
+      <c r="I29" s="80"/>
+      <c r="J29" s="80"/>
+      <c r="K29" s="172"/>
+      <c r="L29" s="86"/>
+      <c r="M29" s="87"/>
+      <c r="N29" s="80"/>
+      <c r="O29" s="80"/>
       <c r="P29" s="24"/>
       <c r="Q29" s="25"/>
       <c r="R29" s="26"/>
-      <c r="S29" s="81"/>
-      <c r="T29" s="81"/>
+      <c r="S29" s="80"/>
+      <c r="T29" s="80"/>
       <c r="U29" s="24"/>
       <c r="V29" s="25"/>
       <c r="W29" s="26"/>
-      <c r="X29" s="77"/>
-      <c r="Y29" s="77"/>
-      <c r="Z29" s="77"/>
-      <c r="AA29" s="77"/>
-      <c r="AB29" s="77"/>
-      <c r="AC29" s="77"/>
-      <c r="AD29" s="77"/>
-      <c r="AE29" s="77"/>
-      <c r="AF29" s="77"/>
-      <c r="AG29" s="77"/>
-      <c r="AH29" s="81"/>
-      <c r="AI29" s="81"/>
+      <c r="X29" s="76"/>
+      <c r="Y29" s="76"/>
+      <c r="Z29" s="76"/>
+      <c r="AA29" s="76"/>
+      <c r="AB29" s="76"/>
+      <c r="AC29" s="76"/>
+      <c r="AD29" s="76"/>
+      <c r="AE29" s="76"/>
+      <c r="AF29" s="76"/>
+      <c r="AG29" s="76"/>
+      <c r="AH29" s="80"/>
+      <c r="AI29" s="80"/>
       <c r="AJ29" s="25"/>
       <c r="AK29" s="25"/>
-      <c r="AL29" s="52"/>
-      <c r="AM29" s="81"/>
-      <c r="AN29" s="81"/>
+      <c r="AL29" s="51"/>
+      <c r="AM29" s="80"/>
+      <c r="AN29" s="80"/>
       <c r="AO29" s="25"/>
-      <c r="AP29" s="101" t="s">
-        <v>48</v>
-      </c>
-      <c r="AQ29" s="52"/>
+      <c r="AP29" s="92"/>
+      <c r="AQ29" s="51"/>
     </row>
     <row r="30" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="40">
         <v>52</v>
       </c>
-      <c r="B30" s="54"/>
-      <c r="C30" s="165"/>
-      <c r="D30" s="166" t="str">
-        <f>IF(SUM(I30:AB30)=0," ",SUM(I30:AB30))</f>
+      <c r="B30" s="53"/>
+      <c r="C30" s="137"/>
+      <c r="D30" s="137" t="str">
+        <f>IF(SUM(J30:AR30)=0," ",SUM(J30:AR30))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E30" s="118"/>
-      <c r="F30" s="126"/>
-      <c r="G30" s="122"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="81"/>
-      <c r="J30" s="81"/>
+      <c r="E30" s="107"/>
+      <c r="F30" s="112"/>
+      <c r="G30" s="179"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="80"/>
+      <c r="J30" s="80"/>
       <c r="K30" s="32"/>
-      <c r="L30" s="100"/>
-      <c r="M30" s="99"/>
-      <c r="N30" s="81"/>
-      <c r="O30" s="81"/>
+      <c r="L30" s="91"/>
+      <c r="M30" s="90"/>
+      <c r="N30" s="80"/>
+      <c r="O30" s="80"/>
       <c r="P30" s="32"/>
       <c r="Q30" s="37"/>
       <c r="R30" s="30"/>
-      <c r="S30" s="81"/>
-      <c r="T30" s="81"/>
+      <c r="S30" s="80"/>
+      <c r="T30" s="80"/>
       <c r="U30" s="32"/>
       <c r="V30" s="37"/>
       <c r="W30" s="30"/>
-      <c r="X30" s="76"/>
-      <c r="Y30" s="76"/>
-      <c r="Z30" s="76"/>
-      <c r="AA30" s="76"/>
-      <c r="AB30" s="76"/>
-      <c r="AC30" s="76"/>
-      <c r="AD30" s="76"/>
-      <c r="AE30" s="76"/>
-      <c r="AF30" s="76"/>
-      <c r="AG30" s="76"/>
-      <c r="AH30" s="81"/>
-      <c r="AI30" s="81"/>
+      <c r="X30" s="75"/>
+      <c r="Y30" s="75"/>
+      <c r="Z30" s="75"/>
+      <c r="AA30" s="75"/>
+      <c r="AB30" s="75"/>
+      <c r="AC30" s="75"/>
+      <c r="AD30" s="75"/>
+      <c r="AE30" s="75"/>
+      <c r="AF30" s="75"/>
+      <c r="AG30" s="75"/>
+      <c r="AH30" s="80"/>
+      <c r="AI30" s="80"/>
       <c r="AJ30" s="37"/>
       <c r="AK30" s="37"/>
-      <c r="AL30" s="46"/>
-      <c r="AM30" s="81"/>
-      <c r="AN30" s="81"/>
+      <c r="AL30" s="45"/>
+      <c r="AM30" s="80"/>
+      <c r="AN30" s="80"/>
       <c r="AO30" s="37"/>
       <c r="AP30" s="37"/>
-      <c r="AQ30" s="46"/>
+      <c r="AQ30" s="45"/>
     </row>
     <row r="31" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="142">
+      <c r="A31" s="127">
         <v>60</v>
       </c>
-      <c r="B31" s="141" t="s">
+      <c r="B31" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="157">
+      <c r="C31" s="183">
         <f>SUM(C32:C33)</f>
-        <v>0</v>
-      </c>
-      <c r="D31" s="158">
+        <v>1.25</v>
+      </c>
+      <c r="D31" s="136">
         <f>SUM(D32:D33)</f>
         <v>0</v>
       </c>
-      <c r="E31" s="129"/>
-      <c r="F31" s="130"/>
-      <c r="G31" s="143"/>
-      <c r="H31" s="132"/>
-      <c r="I31" s="133"/>
-      <c r="J31" s="134"/>
-      <c r="K31" s="135"/>
-      <c r="L31" s="136"/>
-      <c r="M31" s="137"/>
-      <c r="N31" s="138"/>
-      <c r="O31" s="135"/>
-      <c r="P31" s="136"/>
-      <c r="Q31" s="134"/>
-      <c r="R31" s="139"/>
-      <c r="S31" s="138"/>
-      <c r="T31" s="135"/>
-      <c r="U31" s="136"/>
-      <c r="V31" s="134"/>
-      <c r="W31" s="139"/>
-      <c r="X31" s="138"/>
-      <c r="Y31" s="135"/>
-      <c r="Z31" s="136"/>
-      <c r="AA31" s="134"/>
-      <c r="AB31" s="139"/>
-      <c r="AC31" s="138"/>
-      <c r="AD31" s="135"/>
-      <c r="AE31" s="136"/>
-      <c r="AF31" s="134"/>
-      <c r="AG31" s="139"/>
-      <c r="AH31" s="138"/>
-      <c r="AI31" s="135"/>
-      <c r="AJ31" s="135"/>
-      <c r="AK31" s="136"/>
-      <c r="AL31" s="140"/>
-      <c r="AM31" s="138"/>
-      <c r="AN31" s="135"/>
-      <c r="AO31" s="135"/>
-      <c r="AP31" s="136"/>
-      <c r="AQ31" s="140"/>
+      <c r="E31" s="115"/>
+      <c r="F31" s="185"/>
+      <c r="G31" s="181"/>
+      <c r="H31" s="117"/>
+      <c r="I31" s="118"/>
+      <c r="J31" s="119"/>
+      <c r="K31" s="120"/>
+      <c r="L31" s="121"/>
+      <c r="M31" s="122"/>
+      <c r="N31" s="123"/>
+      <c r="O31" s="120"/>
+      <c r="P31" s="121"/>
+      <c r="Q31" s="119"/>
+      <c r="R31" s="124"/>
+      <c r="S31" s="123"/>
+      <c r="T31" s="120"/>
+      <c r="U31" s="121"/>
+      <c r="V31" s="119"/>
+      <c r="W31" s="124"/>
+      <c r="X31" s="123"/>
+      <c r="Y31" s="120"/>
+      <c r="Z31" s="121"/>
+      <c r="AA31" s="119"/>
+      <c r="AB31" s="124"/>
+      <c r="AC31" s="123"/>
+      <c r="AD31" s="120"/>
+      <c r="AE31" s="121"/>
+      <c r="AF31" s="119"/>
+      <c r="AG31" s="124"/>
+      <c r="AH31" s="123"/>
+      <c r="AI31" s="120"/>
+      <c r="AJ31" s="120"/>
+      <c r="AK31" s="121"/>
+      <c r="AL31" s="125"/>
+      <c r="AM31" s="123"/>
+      <c r="AN31" s="120"/>
+      <c r="AO31" s="120"/>
+      <c r="AP31" s="121"/>
+      <c r="AQ31" s="125"/>
     </row>
     <row r="32" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="39">
         <v>61</v>
       </c>
-      <c r="B32" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="159"/>
-      <c r="D32" s="164" t="str">
-        <f>IF(SUM(I32:AB32)=0," ",SUM(I32:AB32))</f>
+      <c r="B32" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="137">
+        <v>1</v>
+      </c>
+      <c r="D32" s="137" t="str">
+        <f>IF(SUM(J32:AR32)=0," ",SUM(J32:AR32))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E32" s="115">
+      <c r="E32" s="104">
         <v>2</v>
       </c>
-      <c r="F32" s="124"/>
-      <c r="G32" s="122"/>
-      <c r="H32" s="60"/>
-      <c r="I32" s="81"/>
-      <c r="J32" s="81"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="169"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="80"/>
+      <c r="J32" s="80"/>
       <c r="K32" s="24"/>
-      <c r="L32" s="95"/>
-      <c r="M32" s="96"/>
-      <c r="N32" s="81"/>
-      <c r="O32" s="81"/>
+      <c r="L32" s="86"/>
+      <c r="M32" s="87"/>
+      <c r="N32" s="80"/>
+      <c r="O32" s="80"/>
       <c r="P32" s="24"/>
       <c r="Q32" s="25"/>
       <c r="R32" s="26"/>
-      <c r="S32" s="81"/>
-      <c r="T32" s="81"/>
+      <c r="S32" s="80"/>
+      <c r="T32" s="80"/>
       <c r="U32" s="24"/>
       <c r="V32" s="25"/>
       <c r="W32" s="26"/>
-      <c r="X32" s="74"/>
-      <c r="Y32" s="75"/>
-      <c r="Z32" s="75"/>
-      <c r="AA32" s="75"/>
-      <c r="AB32" s="75"/>
-      <c r="AC32" s="75"/>
-      <c r="AD32" s="75"/>
-      <c r="AE32" s="75"/>
-      <c r="AF32" s="75"/>
-      <c r="AG32" s="75"/>
-      <c r="AH32" s="81"/>
-      <c r="AI32" s="81"/>
+      <c r="X32" s="73"/>
+      <c r="Y32" s="74"/>
+      <c r="Z32" s="74"/>
+      <c r="AA32" s="74"/>
+      <c r="AB32" s="74"/>
+      <c r="AC32" s="74"/>
+      <c r="AD32" s="74"/>
+      <c r="AE32" s="74"/>
+      <c r="AF32" s="74"/>
+      <c r="AG32" s="74"/>
+      <c r="AH32" s="80"/>
+      <c r="AI32" s="80"/>
       <c r="AJ32" s="25"/>
       <c r="AK32" s="25"/>
-      <c r="AL32" s="53"/>
-      <c r="AM32" s="81"/>
-      <c r="AN32" s="81"/>
-      <c r="AO32" s="25"/>
-      <c r="AP32" s="25"/>
-      <c r="AQ32" s="53"/>
+      <c r="AL32" s="52"/>
+      <c r="AM32" s="80"/>
+      <c r="AN32" s="80"/>
+      <c r="AO32" s="92"/>
+      <c r="AP32" s="92"/>
+      <c r="AQ32" s="52"/>
     </row>
     <row r="33" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="38">
+      <c r="A33" s="165">
         <v>62</v>
       </c>
-      <c r="B33" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="161"/>
-      <c r="D33" s="160" t="str">
-        <f>IF(SUM(I33:AB33)=0," ",SUM(I33:AB33))</f>
+      <c r="B33" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="137">
+        <v>0.25</v>
+      </c>
+      <c r="D33" s="137" t="str">
+        <f>IF(SUM(J33:AR33)=0," ",SUM(J33:AR33))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E33" s="116">
+      <c r="E33" s="105">
         <v>1</v>
       </c>
-      <c r="F33" s="127"/>
-      <c r="G33" s="122"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="81"/>
-      <c r="J33" s="81"/>
+      <c r="F33" s="113"/>
+      <c r="G33" s="168"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="80"/>
+      <c r="J33" s="80"/>
       <c r="K33" s="27"/>
-      <c r="L33" s="97"/>
-      <c r="M33" s="96"/>
-      <c r="N33" s="81"/>
-      <c r="O33" s="81"/>
+      <c r="L33" s="88"/>
+      <c r="M33" s="87"/>
+      <c r="N33" s="80"/>
+      <c r="O33" s="80"/>
       <c r="P33" s="24"/>
       <c r="Q33" s="28"/>
       <c r="R33" s="29"/>
-      <c r="S33" s="81"/>
-      <c r="T33" s="81"/>
+      <c r="S33" s="80"/>
+      <c r="T33" s="80"/>
       <c r="U33" s="24"/>
       <c r="V33" s="28"/>
       <c r="W33" s="29"/>
-      <c r="X33" s="75"/>
-      <c r="Y33" s="75"/>
-      <c r="Z33" s="75"/>
-      <c r="AA33" s="75"/>
-      <c r="AB33" s="75"/>
-      <c r="AC33" s="75"/>
-      <c r="AD33" s="75"/>
-      <c r="AE33" s="75"/>
-      <c r="AF33" s="75"/>
-      <c r="AG33" s="75"/>
-      <c r="AH33" s="81"/>
-      <c r="AI33" s="81"/>
+      <c r="X33" s="74"/>
+      <c r="Y33" s="74"/>
+      <c r="Z33" s="74"/>
+      <c r="AA33" s="74"/>
+      <c r="AB33" s="74"/>
+      <c r="AC33" s="74"/>
+      <c r="AD33" s="74"/>
+      <c r="AE33" s="74"/>
+      <c r="AF33" s="74"/>
+      <c r="AG33" s="74"/>
+      <c r="AH33" s="80"/>
+      <c r="AI33" s="80"/>
       <c r="AJ33" s="28"/>
       <c r="AK33" s="28"/>
-      <c r="AL33" s="53"/>
-      <c r="AM33" s="81"/>
-      <c r="AN33" s="81"/>
+      <c r="AL33" s="52"/>
+      <c r="AM33" s="80"/>
+      <c r="AN33" s="80"/>
       <c r="AO33" s="28"/>
-      <c r="AP33" s="101" t="s">
-        <v>48</v>
-      </c>
-      <c r="AQ33" s="53"/>
+      <c r="AP33" s="92"/>
+      <c r="AQ33" s="52"/>
     </row>
     <row r="34" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="145"/>
-      <c r="B34" s="146" t="s">
+      <c r="A34" s="164"/>
+      <c r="B34" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="167">
+      <c r="C34" s="139">
         <f>SUM(C5+C11+C16+C24+C28+C31)</f>
-        <v>31</v>
-      </c>
-      <c r="D34" s="167">
+        <v>103.25</v>
+      </c>
+      <c r="D34" s="139">
         <f>SUM(D31+D28+D24+D16+D11+D5)</f>
-        <v>2</v>
-      </c>
-      <c r="E34" s="147"/>
-      <c r="F34" s="148"/>
-      <c r="G34" s="149"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="151">
-        <f t="shared" ref="I34:AB35" si="2">SUM(I5:I33)</f>
-        <v>0</v>
-      </c>
-      <c r="J34" s="152">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="153">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L34" s="153">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M34" s="153">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N34" s="153">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O34" s="152">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P34" s="153">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="152">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R34" s="153">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S34" s="153">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T34" s="152">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U34" s="153">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V34" s="152">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W34" s="153">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X34" s="153">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y34" s="152">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z34" s="153">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA34" s="152">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB34" s="153">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC34" s="153">
-        <f t="shared" ref="AC34:AL35" si="3">SUM(AC5:AC33)</f>
-        <v>0</v>
-      </c>
-      <c r="AD34" s="152">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AE34" s="153">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF34" s="152">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG34" s="153">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH34" s="153">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AI34" s="152">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AJ34" s="153">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AK34" s="152">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AL34" s="154">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AM34" s="153">
-        <f t="shared" ref="AM34:AQ35" si="4">SUM(AM5:AM33)</f>
-        <v>0</v>
-      </c>
-      <c r="AN34" s="152">
+        <v>14</v>
+      </c>
+      <c r="E34" s="130"/>
+      <c r="F34" s="131"/>
+      <c r="G34" s="197"/>
+      <c r="H34" s="196"/>
+      <c r="I34" s="132">
+        <f t="shared" ref="I34:AB34" si="4">SUM(I5:I33)</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="133">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AO34" s="153">
+      <c r="K34" s="134">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AP34" s="152">
+        <v>7</v>
+      </c>
+      <c r="L34" s="134">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AQ34" s="154">
+      <c r="M34" s="134">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="N34" s="134">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="133">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="134">
+        <f t="shared" si="4"/>
+        <v>6.5</v>
+      </c>
+      <c r="Q34" s="133">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="R34" s="134">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S34" s="134">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T34" s="133">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U34" s="134">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V34" s="133">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W34" s="134">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X34" s="134">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y34" s="133">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z34" s="134">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA34" s="133">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB34" s="134">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC34" s="134">
+        <f t="shared" ref="AC34:AL34" si="5">SUM(AC5:AC33)</f>
+        <v>0</v>
+      </c>
+      <c r="AD34" s="133">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE34" s="134">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AF34" s="133">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG34" s="134">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AH34" s="134">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI34" s="133">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="134">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AK34" s="133">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AL34" s="135">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AM34" s="134">
+        <f t="shared" ref="AM34:AQ34" si="6">SUM(AM5:AM33)</f>
+        <v>0</v>
+      </c>
+      <c r="AN34" s="133">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AO34" s="134">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AP34" s="133">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AQ34" s="135">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="102"/>
-      <c r="B35" s="103" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="168"/>
-      <c r="D35" s="169"/>
-      <c r="E35" s="119"/>
-      <c r="F35" s="128"/>
-      <c r="G35" s="123"/>
-      <c r="H35" s="104"/>
-      <c r="I35" s="105"/>
-      <c r="J35" s="105"/>
-      <c r="K35" s="106"/>
-      <c r="L35" s="107"/>
-      <c r="M35" s="108"/>
-      <c r="N35" s="105"/>
-      <c r="O35" s="105"/>
-      <c r="P35" s="106"/>
-      <c r="Q35" s="109"/>
-      <c r="R35" s="110"/>
-      <c r="S35" s="105"/>
-      <c r="T35" s="105"/>
-      <c r="U35" s="106"/>
-      <c r="V35" s="109"/>
-      <c r="W35" s="110"/>
-      <c r="X35" s="111"/>
-      <c r="Y35" s="111"/>
-      <c r="Z35" s="111"/>
-      <c r="AA35" s="111"/>
-      <c r="AB35" s="111"/>
-      <c r="AC35" s="111"/>
-      <c r="AD35" s="111"/>
-      <c r="AE35" s="111"/>
-      <c r="AF35" s="111"/>
-      <c r="AG35" s="111"/>
-      <c r="AH35" s="105"/>
-      <c r="AI35" s="105"/>
-      <c r="AJ35" s="109"/>
-      <c r="AK35" s="109"/>
-      <c r="AL35" s="112"/>
-      <c r="AM35" s="105"/>
-      <c r="AN35" s="105"/>
-      <c r="AO35" s="109"/>
-      <c r="AP35" s="109"/>
-      <c r="AQ35" s="113" t="s">
-        <v>48</v>
-      </c>
+      <c r="A35" s="163"/>
+      <c r="B35" s="93" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="140"/>
+      <c r="D35" s="141"/>
+      <c r="E35" s="108"/>
+      <c r="F35" s="114"/>
+      <c r="G35" s="174"/>
+      <c r="H35" s="173"/>
+      <c r="I35" s="94"/>
+      <c r="J35" s="94"/>
+      <c r="K35" s="95"/>
+      <c r="L35" s="96"/>
+      <c r="M35" s="97"/>
+      <c r="N35" s="94"/>
+      <c r="O35" s="94"/>
+      <c r="P35" s="95"/>
+      <c r="Q35" s="98"/>
+      <c r="R35" s="99"/>
+      <c r="S35" s="94"/>
+      <c r="T35" s="94"/>
+      <c r="U35" s="95"/>
+      <c r="V35" s="98"/>
+      <c r="W35" s="99"/>
+      <c r="X35" s="100"/>
+      <c r="Y35" s="100"/>
+      <c r="Z35" s="100"/>
+      <c r="AA35" s="100"/>
+      <c r="AB35" s="100"/>
+      <c r="AC35" s="100"/>
+      <c r="AD35" s="100"/>
+      <c r="AE35" s="100"/>
+      <c r="AF35" s="100"/>
+      <c r="AG35" s="100"/>
+      <c r="AH35" s="94"/>
+      <c r="AI35" s="94"/>
+      <c r="AJ35" s="98"/>
+      <c r="AK35" s="98"/>
+      <c r="AL35" s="101"/>
+      <c r="AM35" s="94"/>
+      <c r="AN35" s="94"/>
+      <c r="AO35" s="98"/>
+      <c r="AP35" s="98"/>
+      <c r="AQ35" s="102"/>
     </row>
     <row r="36" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C36" s="10"/>
@@ -5205,33 +5442,33 @@
       <c r="H36" s="10"/>
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
-      <c r="K36" s="82"/>
-      <c r="L36" s="83"/>
-      <c r="M36" s="70"/>
-      <c r="N36" s="70"/>
-      <c r="O36" s="70"/>
-      <c r="P36" s="80"/>
-      <c r="Q36" s="80"/>
-      <c r="R36" s="70"/>
-      <c r="S36" s="70"/>
-      <c r="T36" s="70"/>
-      <c r="U36" s="80"/>
-      <c r="V36" s="80"/>
-      <c r="W36" s="70"/>
-      <c r="X36" s="70"/>
-      <c r="Y36" s="70"/>
-      <c r="Z36" s="70"/>
-      <c r="AA36" s="70"/>
-      <c r="AB36" s="70"/>
-      <c r="AC36" s="70"/>
-      <c r="AD36" s="70"/>
-      <c r="AJ36" s="85"/>
-      <c r="AK36" s="85"/>
+      <c r="K36" s="81"/>
+      <c r="L36" s="82"/>
+      <c r="M36" s="69"/>
+      <c r="N36" s="69"/>
+      <c r="O36" s="69"/>
+      <c r="P36" s="79"/>
+      <c r="Q36" s="79"/>
+      <c r="R36" s="69"/>
+      <c r="S36" s="69"/>
+      <c r="T36" s="69"/>
+      <c r="U36" s="79"/>
+      <c r="V36" s="79"/>
+      <c r="W36" s="69"/>
+      <c r="X36" s="69"/>
+      <c r="Y36" s="69"/>
+      <c r="Z36" s="69"/>
+      <c r="AA36" s="69"/>
+      <c r="AB36" s="69"/>
+      <c r="AC36" s="69"/>
+      <c r="AD36" s="69"/>
+      <c r="AJ36" s="84"/>
+      <c r="AK36" s="84"/>
       <c r="AO36" s="14"/>
       <c r="AP36" s="14"/>
     </row>
     <row r="37" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="72"/>
+      <c r="A37" s="71"/>
       <c r="B37" s="10" t="s">
         <v>19</v>
       </c>
@@ -5243,36 +5480,36 @@
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
       <c r="J37" s="12"/>
-      <c r="K37" s="71"/>
-      <c r="L37" s="71"/>
-      <c r="M37" s="71"/>
-      <c r="N37" s="71"/>
-      <c r="O37" s="71"/>
-      <c r="P37" s="71"/>
-      <c r="Q37" s="71"/>
-      <c r="R37" s="71"/>
-      <c r="S37" s="71"/>
-      <c r="T37" s="71"/>
-      <c r="U37" s="71"/>
-      <c r="V37" s="71"/>
-      <c r="W37" s="71"/>
-      <c r="X37" s="71"/>
-      <c r="Y37" s="71"/>
-      <c r="Z37" s="84"/>
-      <c r="AA37" s="84"/>
-      <c r="AB37" s="84"/>
-      <c r="AC37" s="84"/>
-      <c r="AD37" s="84"/>
-      <c r="AE37" s="85"/>
-      <c r="AF37" s="85"/>
-      <c r="AG37" s="85"/>
-      <c r="AH37" s="85"/>
-      <c r="AI37" s="85"/>
+      <c r="K37" s="70"/>
+      <c r="L37" s="70"/>
+      <c r="M37" s="70"/>
+      <c r="N37" s="70"/>
+      <c r="O37" s="70"/>
+      <c r="P37" s="70"/>
+      <c r="Q37" s="70"/>
+      <c r="R37" s="70"/>
+      <c r="S37" s="70"/>
+      <c r="T37" s="70"/>
+      <c r="U37" s="70"/>
+      <c r="V37" s="70"/>
+      <c r="W37" s="70"/>
+      <c r="X37" s="70"/>
+      <c r="Y37" s="70"/>
+      <c r="Z37" s="83"/>
+      <c r="AA37" s="83"/>
+      <c r="AB37" s="83"/>
+      <c r="AC37" s="83"/>
+      <c r="AD37" s="83"/>
+      <c r="AE37" s="84"/>
+      <c r="AF37" s="84"/>
+      <c r="AG37" s="84"/>
+      <c r="AH37" s="84"/>
+      <c r="AI37" s="84"/>
     </row>
     <row r="38" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="73"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="10" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="13"/>
@@ -5282,37 +5519,37 @@
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
       <c r="J38" s="12"/>
-      <c r="K38" s="71"/>
-      <c r="L38" s="71"/>
-      <c r="M38" s="71"/>
-      <c r="N38" s="71"/>
-      <c r="O38" s="71"/>
-      <c r="P38" s="71"/>
-      <c r="Q38" s="71"/>
-      <c r="R38" s="71"/>
-      <c r="S38" s="71"/>
-      <c r="T38" s="71"/>
-      <c r="U38" s="71"/>
-      <c r="V38" s="71"/>
-      <c r="W38" s="71"/>
-      <c r="X38" s="71"/>
-      <c r="Y38" s="71"/>
-      <c r="Z38" s="71"/>
-      <c r="AA38" s="71"/>
-      <c r="AB38" s="71"/>
-      <c r="AC38" s="71"/>
-      <c r="AD38" s="71"/>
+      <c r="K38" s="70"/>
+      <c r="L38" s="70"/>
+      <c r="M38" s="70"/>
+      <c r="N38" s="70"/>
+      <c r="O38" s="70"/>
+      <c r="P38" s="70"/>
+      <c r="Q38" s="70"/>
+      <c r="R38" s="70"/>
+      <c r="S38" s="70"/>
+      <c r="T38" s="70"/>
+      <c r="U38" s="70"/>
+      <c r="V38" s="70"/>
+      <c r="W38" s="70"/>
+      <c r="X38" s="70"/>
+      <c r="Y38" s="70"/>
+      <c r="Z38" s="70"/>
+      <c r="AA38" s="70"/>
+      <c r="AB38" s="70"/>
+      <c r="AC38" s="70"/>
+      <c r="AD38" s="70"/>
     </row>
     <row r="39" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="94"/>
+      <c r="A39" s="85"/>
       <c r="B39" s="9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J39" s="5"/>
     </row>
     <row r="40" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="101" t="s">
-        <v>48</v>
+      <c r="A40" s="92" t="s">
+        <v>42</v>
       </c>
       <c r="B40" s="12"/>
       <c r="J40" s="5"/>
@@ -5329,6 +5566,444 @@
     </row>
     <row r="44" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J44" s="5"/>
+    </row>
+    <row r="129" spans="31:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AE129" s="5"/>
+      <c r="AF129" s="5"/>
+      <c r="AG129" s="5"/>
+      <c r="AH129" s="5"/>
+      <c r="AI129" s="5"/>
+      <c r="AJ129" s="5"/>
+      <c r="AK129" s="5"/>
+      <c r="AL129" s="5"/>
+      <c r="AM129" s="5"/>
+      <c r="AN129" s="5"/>
+    </row>
+    <row r="130" spans="31:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AE130" s="5"/>
+      <c r="AF130" s="5"/>
+      <c r="AG130" s="5"/>
+      <c r="AH130" s="5"/>
+      <c r="AI130" s="5"/>
+      <c r="AJ130" s="5"/>
+      <c r="AK130" s="5"/>
+      <c r="AL130" s="5"/>
+      <c r="AM130" s="5"/>
+      <c r="AN130" s="5"/>
+    </row>
+    <row r="131" spans="31:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AE131" s="5"/>
+      <c r="AF131" s="5"/>
+      <c r="AG131" s="5"/>
+      <c r="AH131" s="5"/>
+      <c r="AI131" s="5"/>
+      <c r="AJ131" s="5"/>
+      <c r="AK131" s="5"/>
+      <c r="AL131" s="5"/>
+      <c r="AM131" s="5"/>
+      <c r="AN131" s="5"/>
+    </row>
+    <row r="132" spans="31:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AE132" s="5"/>
+      <c r="AF132" s="5"/>
+      <c r="AG132" s="5"/>
+      <c r="AH132" s="5"/>
+      <c r="AI132" s="5"/>
+      <c r="AJ132" s="5"/>
+      <c r="AK132" s="5"/>
+      <c r="AL132" s="5"/>
+      <c r="AM132" s="5"/>
+      <c r="AN132" s="5"/>
+    </row>
+    <row r="133" spans="31:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AE133" s="5"/>
+      <c r="AF133" s="5"/>
+      <c r="AG133" s="5"/>
+      <c r="AH133" s="5"/>
+      <c r="AI133" s="5"/>
+      <c r="AJ133" s="5"/>
+      <c r="AK133" s="5"/>
+      <c r="AL133" s="5"/>
+      <c r="AM133" s="5"/>
+      <c r="AN133" s="5"/>
+    </row>
+    <row r="134" spans="31:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AE134" s="5"/>
+      <c r="AF134" s="5"/>
+      <c r="AG134" s="5"/>
+      <c r="AH134" s="5"/>
+      <c r="AI134" s="5"/>
+      <c r="AJ134" s="5"/>
+      <c r="AK134" s="5"/>
+      <c r="AL134" s="5"/>
+      <c r="AM134" s="5"/>
+      <c r="AN134" s="5"/>
+    </row>
+    <row r="135" spans="31:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AE135" s="5"/>
+      <c r="AF135" s="5"/>
+      <c r="AG135" s="5"/>
+      <c r="AH135" s="5"/>
+      <c r="AI135" s="5"/>
+      <c r="AJ135" s="5"/>
+      <c r="AK135" s="5"/>
+      <c r="AL135" s="5"/>
+      <c r="AM135" s="5"/>
+      <c r="AN135" s="5"/>
+    </row>
+    <row r="136" spans="31:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AE136" s="5"/>
+      <c r="AF136" s="5"/>
+      <c r="AG136" s="5"/>
+      <c r="AH136" s="5"/>
+      <c r="AI136" s="5"/>
+      <c r="AJ136" s="5"/>
+      <c r="AK136" s="5"/>
+      <c r="AL136" s="5"/>
+      <c r="AM136" s="5"/>
+      <c r="AN136" s="5"/>
+    </row>
+    <row r="137" spans="31:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AE137" s="5"/>
+      <c r="AF137" s="5"/>
+      <c r="AG137" s="5"/>
+      <c r="AH137" s="5"/>
+      <c r="AI137" s="5"/>
+      <c r="AJ137" s="5"/>
+      <c r="AK137" s="5"/>
+      <c r="AL137" s="5"/>
+      <c r="AM137" s="5"/>
+      <c r="AN137" s="5"/>
+    </row>
+    <row r="138" spans="31:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AE138" s="5"/>
+      <c r="AF138" s="5"/>
+      <c r="AG138" s="5"/>
+      <c r="AH138" s="5"/>
+      <c r="AI138" s="5"/>
+      <c r="AJ138" s="5"/>
+      <c r="AK138" s="5"/>
+      <c r="AL138" s="5"/>
+      <c r="AM138" s="5"/>
+      <c r="AN138" s="5"/>
+    </row>
+    <row r="139" spans="31:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AE139" s="5"/>
+      <c r="AF139" s="5"/>
+      <c r="AG139" s="5"/>
+      <c r="AH139" s="5"/>
+      <c r="AI139" s="5"/>
+      <c r="AJ139" s="5"/>
+      <c r="AK139" s="5"/>
+      <c r="AL139" s="5"/>
+      <c r="AM139" s="5"/>
+      <c r="AN139" s="5"/>
+    </row>
+    <row r="140" spans="31:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AE140" s="5"/>
+      <c r="AF140" s="5"/>
+      <c r="AG140" s="5"/>
+      <c r="AH140" s="5"/>
+      <c r="AI140" s="5"/>
+      <c r="AJ140" s="5"/>
+      <c r="AK140" s="5"/>
+      <c r="AL140" s="5"/>
+      <c r="AM140" s="5"/>
+      <c r="AN140" s="5"/>
+    </row>
+    <row r="141" spans="31:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AE141" s="5"/>
+      <c r="AF141" s="5"/>
+      <c r="AG141" s="5"/>
+      <c r="AH141" s="5"/>
+      <c r="AI141" s="5"/>
+      <c r="AJ141" s="5"/>
+      <c r="AK141" s="5"/>
+      <c r="AL141" s="5"/>
+      <c r="AM141" s="5"/>
+      <c r="AN141" s="5"/>
+    </row>
+    <row r="142" spans="31:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AE142" s="5"/>
+      <c r="AF142" s="5"/>
+      <c r="AG142" s="5"/>
+      <c r="AH142" s="5"/>
+      <c r="AI142" s="5"/>
+      <c r="AJ142" s="5"/>
+      <c r="AK142" s="5"/>
+      <c r="AL142" s="5"/>
+      <c r="AM142" s="5"/>
+      <c r="AN142" s="5"/>
+    </row>
+    <row r="143" spans="31:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AE143" s="5"/>
+      <c r="AF143" s="5"/>
+      <c r="AG143" s="5"/>
+      <c r="AH143" s="5"/>
+      <c r="AI143" s="5"/>
+      <c r="AJ143" s="5"/>
+      <c r="AK143" s="5"/>
+      <c r="AL143" s="5"/>
+      <c r="AM143" s="5"/>
+      <c r="AN143" s="5"/>
+    </row>
+    <row r="144" spans="31:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AE144" s="5"/>
+      <c r="AF144" s="5"/>
+      <c r="AG144" s="5"/>
+      <c r="AH144" s="5"/>
+      <c r="AI144" s="5"/>
+      <c r="AJ144" s="5"/>
+      <c r="AK144" s="5"/>
+      <c r="AL144" s="5"/>
+      <c r="AM144" s="5"/>
+      <c r="AN144" s="5"/>
+    </row>
+    <row r="145" spans="31:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AE145" s="5"/>
+      <c r="AF145" s="5"/>
+      <c r="AG145" s="5"/>
+      <c r="AH145" s="5"/>
+      <c r="AI145" s="5"/>
+      <c r="AJ145" s="5"/>
+      <c r="AK145" s="5"/>
+      <c r="AL145" s="5"/>
+      <c r="AM145" s="5"/>
+      <c r="AN145" s="5"/>
+    </row>
+    <row r="146" spans="31:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AE146" s="5"/>
+      <c r="AF146" s="5"/>
+      <c r="AG146" s="5"/>
+      <c r="AH146" s="5"/>
+      <c r="AI146" s="5"/>
+      <c r="AJ146" s="5"/>
+      <c r="AK146" s="5"/>
+      <c r="AL146" s="5"/>
+      <c r="AM146" s="5"/>
+      <c r="AN146" s="5"/>
+    </row>
+    <row r="147" spans="31:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AE147" s="5"/>
+      <c r="AF147" s="5"/>
+      <c r="AG147" s="5"/>
+      <c r="AH147" s="5"/>
+      <c r="AI147" s="5"/>
+      <c r="AJ147" s="5"/>
+      <c r="AK147" s="5"/>
+      <c r="AL147" s="5"/>
+      <c r="AM147" s="5"/>
+      <c r="AN147" s="5"/>
+    </row>
+    <row r="148" spans="31:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AE148" s="5"/>
+      <c r="AF148" s="5"/>
+      <c r="AG148" s="5"/>
+      <c r="AH148" s="5"/>
+      <c r="AI148" s="5"/>
+      <c r="AJ148" s="5"/>
+      <c r="AK148" s="5"/>
+      <c r="AL148" s="5"/>
+      <c r="AM148" s="5"/>
+      <c r="AN148" s="5"/>
+    </row>
+    <row r="149" spans="31:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AE149" s="5"/>
+      <c r="AF149" s="5"/>
+      <c r="AG149" s="5"/>
+      <c r="AH149" s="5"/>
+      <c r="AI149" s="5"/>
+      <c r="AJ149" s="5"/>
+      <c r="AK149" s="5"/>
+      <c r="AL149" s="5"/>
+      <c r="AM149" s="5"/>
+      <c r="AN149" s="5"/>
+    </row>
+    <row r="150" spans="31:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AE150" s="5"/>
+      <c r="AF150" s="5"/>
+      <c r="AG150" s="5"/>
+      <c r="AH150" s="5"/>
+      <c r="AI150" s="5"/>
+      <c r="AJ150" s="5"/>
+      <c r="AK150" s="5"/>
+      <c r="AL150" s="5"/>
+      <c r="AM150" s="5"/>
+      <c r="AN150" s="5"/>
+    </row>
+    <row r="151" spans="31:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AE151" s="5"/>
+      <c r="AF151" s="5"/>
+      <c r="AG151" s="5"/>
+      <c r="AH151" s="5"/>
+      <c r="AI151" s="5"/>
+      <c r="AJ151" s="5"/>
+      <c r="AK151" s="5"/>
+      <c r="AL151" s="5"/>
+      <c r="AM151" s="5"/>
+      <c r="AN151" s="5"/>
+    </row>
+    <row r="152" spans="31:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AE152" s="5"/>
+      <c r="AF152" s="5"/>
+      <c r="AG152" s="5"/>
+      <c r="AH152" s="5"/>
+      <c r="AI152" s="5"/>
+      <c r="AJ152" s="5"/>
+      <c r="AK152" s="5"/>
+      <c r="AL152" s="5"/>
+      <c r="AM152" s="5"/>
+      <c r="AN152" s="5"/>
+    </row>
+    <row r="153" spans="31:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AE153" s="5"/>
+      <c r="AF153" s="5"/>
+      <c r="AG153" s="5"/>
+      <c r="AH153" s="5"/>
+      <c r="AI153" s="5"/>
+      <c r="AJ153" s="5"/>
+      <c r="AK153" s="5"/>
+      <c r="AL153" s="5"/>
+      <c r="AM153" s="5"/>
+      <c r="AN153" s="5"/>
+    </row>
+    <row r="154" spans="31:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AE154" s="5"/>
+      <c r="AF154" s="5"/>
+      <c r="AG154" s="5"/>
+      <c r="AH154" s="5"/>
+      <c r="AI154" s="5"/>
+      <c r="AJ154" s="5"/>
+      <c r="AK154" s="5"/>
+      <c r="AL154" s="5"/>
+      <c r="AM154" s="5"/>
+      <c r="AN154" s="5"/>
+    </row>
+    <row r="155" spans="31:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AE155" s="5"/>
+      <c r="AF155" s="5"/>
+      <c r="AG155" s="5"/>
+      <c r="AH155" s="5"/>
+      <c r="AI155" s="5"/>
+      <c r="AJ155" s="5"/>
+      <c r="AK155" s="5"/>
+      <c r="AL155" s="5"/>
+      <c r="AM155" s="5"/>
+      <c r="AN155" s="5"/>
+    </row>
+    <row r="156" spans="31:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AE156" s="5"/>
+      <c r="AF156" s="5"/>
+      <c r="AG156" s="5"/>
+      <c r="AH156" s="5"/>
+      <c r="AI156" s="5"/>
+      <c r="AJ156" s="5"/>
+      <c r="AK156" s="5"/>
+      <c r="AL156" s="5"/>
+      <c r="AM156" s="5"/>
+      <c r="AN156" s="5"/>
+    </row>
+    <row r="157" spans="31:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AE157" s="5"/>
+      <c r="AF157" s="5"/>
+      <c r="AG157" s="5"/>
+      <c r="AH157" s="5"/>
+      <c r="AI157" s="5"/>
+      <c r="AJ157" s="5"/>
+      <c r="AK157" s="5"/>
+      <c r="AL157" s="5"/>
+      <c r="AM157" s="5"/>
+      <c r="AN157" s="5"/>
+    </row>
+    <row r="158" spans="31:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AE158" s="5"/>
+      <c r="AF158" s="5"/>
+      <c r="AG158" s="5"/>
+      <c r="AH158" s="5"/>
+      <c r="AI158" s="5"/>
+      <c r="AJ158" s="5"/>
+      <c r="AK158" s="5"/>
+      <c r="AL158" s="5"/>
+      <c r="AM158" s="5"/>
+      <c r="AN158" s="5"/>
+    </row>
+    <row r="159" spans="31:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AE159" s="5"/>
+      <c r="AF159" s="5"/>
+      <c r="AG159" s="5"/>
+      <c r="AH159" s="5"/>
+      <c r="AI159" s="5"/>
+      <c r="AJ159" s="5"/>
+      <c r="AK159" s="5"/>
+      <c r="AL159" s="5"/>
+      <c r="AM159" s="5"/>
+      <c r="AN159" s="5"/>
+    </row>
+    <row r="160" spans="31:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AE160" s="5"/>
+      <c r="AF160" s="5"/>
+      <c r="AG160" s="5"/>
+      <c r="AH160" s="5"/>
+      <c r="AI160" s="5"/>
+      <c r="AJ160" s="5"/>
+      <c r="AK160" s="5"/>
+      <c r="AL160" s="5"/>
+      <c r="AM160" s="5"/>
+      <c r="AN160" s="5"/>
+    </row>
+    <row r="161" spans="18:57" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AE161" s="5"/>
+      <c r="AF161" s="5"/>
+      <c r="AG161" s="5"/>
+      <c r="AH161" s="5"/>
+      <c r="AI161" s="5"/>
+      <c r="AJ161" s="5"/>
+      <c r="AK161" s="5"/>
+      <c r="AL161" s="5"/>
+      <c r="AM161" s="5"/>
+      <c r="AN161" s="5"/>
+    </row>
+    <row r="162" spans="18:57" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="R162" s="10"/>
+      <c r="S162" s="11"/>
+      <c r="T162" s="10"/>
+      <c r="U162" s="10"/>
+      <c r="V162" s="10"/>
+      <c r="W162" s="10"/>
+      <c r="X162" s="10"/>
+      <c r="Y162" s="10"/>
+      <c r="Z162" s="81"/>
+      <c r="AA162" s="82"/>
+      <c r="AB162" s="69"/>
+      <c r="AC162" s="69"/>
+      <c r="AD162" s="69"/>
+      <c r="AE162" s="79"/>
+      <c r="AF162" s="79"/>
+      <c r="AG162" s="69"/>
+      <c r="AH162" s="69"/>
+      <c r="AI162" s="69"/>
+      <c r="AJ162" s="79"/>
+      <c r="AK162" s="79"/>
+      <c r="AL162" s="69"/>
+      <c r="AM162" s="69"/>
+      <c r="AN162" s="69"/>
+      <c r="AO162" s="69"/>
+      <c r="AP162" s="69"/>
+      <c r="AQ162" s="69"/>
+      <c r="AR162" s="69"/>
+      <c r="AS162" s="69"/>
+      <c r="AT162" s="4"/>
+      <c r="AU162" s="4"/>
+      <c r="AV162" s="4"/>
+      <c r="AW162" s="4"/>
+      <c r="AX162" s="4"/>
+      <c r="AY162" s="84"/>
+      <c r="AZ162" s="84"/>
+      <c r="BA162" s="4"/>
+      <c r="BB162" s="4"/>
+      <c r="BC162" s="4"/>
+      <c r="BD162" s="14"/>
+      <c r="BE162" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5360,37 +6035,37 @@
   </sheetPr>
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.58203125" style="68" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.75" style="66" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.58203125" style="67" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.75" style="65" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="89"/>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
+      <c r="A1" s="153"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="153"/>
+      <c r="L1" s="153"/>
+      <c r="M1" s="153"/>
+      <c r="N1" s="153"/>
     </row>
     <row r="2" spans="1:14" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -5405,309 +6080,309 @@
       <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="68" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="67">
+      <c r="A4" s="66">
         <f>Zeitplanung!I$4</f>
         <v>43073</v>
       </c>
-      <c r="B4" s="65">
+      <c r="B4" s="64">
         <f>Zeitplanung!I34</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="67">
+      <c r="A5" s="66">
         <f>Zeitplanung!J$4</f>
         <v>43074</v>
       </c>
-      <c r="B5" s="65">
+      <c r="B5" s="64">
         <f>Zeitplanung!J34</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="67">
+      <c r="A6" s="66">
         <f>Zeitplanung!K$4</f>
         <v>43075</v>
       </c>
-      <c r="B6" s="65">
+      <c r="B6" s="64">
         <f>Zeitplanung!K34</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="67">
+      <c r="A7" s="66">
         <f>Zeitplanung!L$4</f>
         <v>43076</v>
       </c>
-      <c r="B7" s="65">
+      <c r="B7" s="64">
         <f>Zeitplanung!L34</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="67">
+      <c r="A8" s="66">
         <f>Zeitplanung!M$4</f>
         <v>43077</v>
       </c>
-      <c r="B8" s="65">
+      <c r="B8" s="64">
         <f>Zeitplanung!M34</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="67">
+      <c r="A9" s="66">
         <f>Zeitplanung!N$4</f>
         <v>43080</v>
       </c>
-      <c r="B9" s="65">
+      <c r="B9" s="64">
         <f>Zeitplanung!N34</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="67">
+      <c r="A10" s="66">
         <f>Zeitplanung!O$4</f>
         <v>43081</v>
       </c>
-      <c r="B10" s="65">
+      <c r="B10" s="64">
         <f>Zeitplanung!O34</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="67">
+      <c r="A11" s="66">
         <f>Zeitplanung!P$4</f>
         <v>43082</v>
       </c>
-      <c r="B11" s="65">
+      <c r="B11" s="64">
         <f>Zeitplanung!P34</f>
-        <v>0</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="67">
+      <c r="A12" s="66">
         <f>Zeitplanung!Q$4</f>
         <v>43083</v>
       </c>
-      <c r="B12" s="65">
+      <c r="B12" s="64">
         <f>Zeitplanung!Q34</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="67">
+      <c r="A13" s="66">
         <f>Zeitplanung!R$4</f>
         <v>43084</v>
       </c>
-      <c r="B13" s="65">
+      <c r="B13" s="64">
         <f>Zeitplanung!R34</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="67">
+      <c r="A14" s="66">
         <f>Zeitplanung!S$4</f>
         <v>43087</v>
       </c>
-      <c r="B14" s="65">
+      <c r="B14" s="64">
         <f>Zeitplanung!S34</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="67">
+      <c r="A15" s="66">
         <f>Zeitplanung!T$4</f>
         <v>43088</v>
       </c>
-      <c r="B15" s="65">
+      <c r="B15" s="64">
         <f>Zeitplanung!T34</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="67">
+      <c r="A16" s="66">
         <f>Zeitplanung!U$4</f>
         <v>43089</v>
       </c>
-      <c r="B16" s="65">
+      <c r="B16" s="64">
         <f>Zeitplanung!U34</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="67">
+      <c r="A17" s="66">
         <f>Zeitplanung!V$4</f>
         <v>43090</v>
       </c>
-      <c r="B17" s="65">
+      <c r="B17" s="64">
         <f>Zeitplanung!V34</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="67">
+      <c r="A18" s="66">
         <f>Zeitplanung!W$4</f>
         <v>43091</v>
       </c>
-      <c r="B18" s="65">
+      <c r="B18" s="64">
         <f>Zeitplanung!W34</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="67">
+      <c r="A19" s="66">
         <f>Zeitplanung!X$4</f>
         <v>43094</v>
       </c>
-      <c r="B19" s="65">
+      <c r="B19" s="64">
         <f>Zeitplanung!X34</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="67">
+      <c r="A20" s="66">
         <f>Zeitplanung!Y$4</f>
         <v>43095</v>
       </c>
-      <c r="B20" s="65">
+      <c r="B20" s="64">
         <f>Zeitplanung!Y34</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="67">
+      <c r="A21" s="66">
         <f>Zeitplanung!Z$4</f>
         <v>43096</v>
       </c>
-      <c r="B21" s="65">
+      <c r="B21" s="64">
         <f>Zeitplanung!Z34</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="67">
+      <c r="A22" s="66">
         <f>Zeitplanung!AA$4</f>
         <v>43097</v>
       </c>
-      <c r="B22" s="65">
+      <c r="B22" s="64">
         <f>Zeitplanung!AA34</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="67">
+      <c r="A23" s="66">
         <f>Zeitplanung!AB$4</f>
         <v>43098</v>
       </c>
-      <c r="B23" s="65">
+      <c r="B23" s="64">
         <f>Zeitplanung!AB34</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="67">
+      <c r="A24" s="66">
         <f>Zeitplanung!AC$4</f>
         <v>43101</v>
       </c>
-      <c r="B24" s="65">
+      <c r="B24" s="64">
         <f>Zeitplanung!AC34</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="67">
+      <c r="A25" s="66">
         <f>Zeitplanung!AD$4</f>
         <v>43102</v>
       </c>
-      <c r="B25" s="65">
+      <c r="B25" s="64">
         <f>Zeitplanung!AD34</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="67">
+      <c r="A26" s="66">
         <f>Zeitplanung!AE$4</f>
         <v>43103</v>
       </c>
-      <c r="B26" s="65">
+      <c r="B26" s="64">
         <f>Zeitplanung!AE34</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="67">
+      <c r="A27" s="66">
         <f>Zeitplanung!AF$4</f>
         <v>43104</v>
       </c>
-      <c r="B27" s="65">
+      <c r="B27" s="64">
         <f>Zeitplanung!AF34</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="67">
+      <c r="A28" s="66">
         <f>Zeitplanung!AG$4</f>
         <v>43105</v>
       </c>
-      <c r="B28" s="65">
+      <c r="B28" s="64">
         <f>Zeitplanung!AG34</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="67">
+      <c r="A29" s="66">
         <f>Zeitplanung!AH$4</f>
         <v>43108</v>
       </c>
-      <c r="B29" s="65">
+      <c r="B29" s="64">
         <f>Zeitplanung!AH34</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="67">
+      <c r="A30" s="66">
         <f>Zeitplanung!AI$4</f>
         <v>43109</v>
       </c>
-      <c r="B30" s="65">
+      <c r="B30" s="64">
         <f>Zeitplanung!AI34</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="67">
+      <c r="A31" s="66">
         <f>Zeitplanung!AJ$4</f>
         <v>43110</v>
       </c>
-      <c r="B31" s="65">
+      <c r="B31" s="64">
         <f>Zeitplanung!AJ34</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="67">
+      <c r="A32" s="66">
         <f>Zeitplanung!AK$4</f>
         <v>43111</v>
       </c>
-      <c r="B32" s="65">
+      <c r="B32" s="64">
         <f>Zeitplanung!AK34</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="67">
+      <c r="A33" s="66">
         <f>Zeitplanung!AL$4</f>
         <v>43112</v>
       </c>
-      <c r="B33" s="65">
+      <c r="B33" s="64">
         <f>Zeitplanung!AL34</f>
         <v>0</v>
       </c>
@@ -5715,10 +6390,10 @@
     <row r="34" spans="1:4" ht="15.5" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="36" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="90" t="s">
+      <c r="A36" s="154" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="91"/>
+      <c r="B36" s="155"/>
       <c r="C36" s="3" t="s">
         <v>23</v>
       </c>
@@ -5727,85 +6402,85 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="87" t="s">
+      <c r="A37" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="88"/>
-      <c r="C37" s="65">
+      <c r="B37" s="152"/>
+      <c r="C37" s="64">
         <f>Zeitplanung!C5</f>
-        <v>25</v>
-      </c>
-      <c r="D37" s="65">
+        <v>18</v>
+      </c>
+      <c r="D37" s="64">
         <f>Zeitplanung!D5</f>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="92" t="s">
+      <c r="A38" s="156" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="93"/>
-      <c r="C38" s="65">
+      <c r="B38" s="157"/>
+      <c r="C38" s="64">
         <f>Zeitplanung!C11</f>
+        <v>8</v>
+      </c>
+      <c r="D38" s="64">
+        <f>Zeitplanung!D11</f>
         <v>6</v>
       </c>
-      <c r="D38" s="65">
-        <f>Zeitplanung!D11</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="39" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="87" t="s">
+      <c r="A39" s="151" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="88"/>
-      <c r="C39" s="65">
+      <c r="B39" s="152"/>
+      <c r="C39" s="64">
         <f>Zeitplanung!C16</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="65">
+        <v>56</v>
+      </c>
+      <c r="D39" s="64">
         <f>Zeitplanung!D16</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="92" t="s">
+      <c r="A40" s="156" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="93"/>
-      <c r="C40" s="65">
+      <c r="B40" s="157"/>
+      <c r="C40" s="64">
         <f>Zeitplanung!C24</f>
-        <v>0</v>
-      </c>
-      <c r="D40" s="65">
+        <v>15</v>
+      </c>
+      <c r="D40" s="64">
         <f>Zeitplanung!D24</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="87" t="s">
+      <c r="A41" s="151" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="88"/>
-      <c r="C41" s="65">
+      <c r="B41" s="152"/>
+      <c r="C41" s="64">
         <f>Zeitplanung!C28</f>
-        <v>0</v>
-      </c>
-      <c r="D41" s="65">
+        <v>5</v>
+      </c>
+      <c r="D41" s="64">
         <f>Zeitplanung!D28</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="87" t="s">
+      <c r="A42" s="151" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="88"/>
-      <c r="C42" s="65">
+      <c r="B42" s="152"/>
+      <c r="C42" s="64">
         <f>Zeitplanung!C31</f>
-        <v>0</v>
-      </c>
-      <c r="D42" s="65">
+        <v>1.25</v>
+      </c>
+      <c r="D42" s="64">
         <f>Zeitplanung!D31</f>
         <v>0</v>
       </c>

--- a/doc/Zeitplanung-1.xlsx
+++ b/doc/Zeitplanung-1.xlsx
@@ -559,7 +559,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="91">
+  <borders count="90">
     <border>
       <left/>
       <right/>
@@ -1618,36 +1618,6 @@
       <left style="hair">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
       <right style="hair">
         <color indexed="64"/>
       </right>
@@ -1709,6 +1679,19 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1727,7 +1710,7 @@
     <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2160,6 +2143,94 @@
     <xf numFmtId="0" fontId="14" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="2" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="62" xfId="2" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="82" xfId="2" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="84" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="68" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="13" borderId="11" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="21" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="11" borderId="8" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="11" borderId="65" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="13" borderId="11" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="11" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="83" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="41" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="11" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="41" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="11" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="88" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2172,6 +2243,12 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="13" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2192,122 +2269,34 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="2" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="23" fillId="13" borderId="41" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="62" xfId="2" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="82" xfId="2" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="11" borderId="84" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="11" borderId="85" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="11" borderId="12" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="86" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="68" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="11" borderId="68" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="13" borderId="11" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="21" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="11" borderId="67" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="11" borderId="8" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="11" borderId="65" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="13" borderId="11" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="11" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="83" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="41" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="11" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="41" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="11" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="90" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="11" borderId="5" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="70" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="13" borderId="83" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="67" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="11" borderId="67" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="11" borderId="8" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="11" borderId="5" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="11" borderId="65" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="11" borderId="12" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="11" borderId="89" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="11" borderId="30" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2365,7 +2354,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2613,11 +2601,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="323719280"/>
-        <c:axId val="323719672"/>
+        <c:axId val="312268696"/>
+        <c:axId val="312274968"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="323719280"/>
+        <c:axId val="312268696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2627,14 +2615,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="323719672"/>
+        <c:crossAx val="312274968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="323719672"/>
+        <c:axId val="312274968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2645,14 +2633,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="323719280"/>
+        <c:crossAx val="312268696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2855,11 +2842,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="323720064"/>
-        <c:axId val="323721632"/>
+        <c:axId val="312270656"/>
+        <c:axId val="312269872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="323720064"/>
+        <c:axId val="312270656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2869,7 +2856,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="323721632"/>
+        <c:crossAx val="312269872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2877,7 +2864,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="323721632"/>
+        <c:axId val="312269872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2888,14 +2875,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="323720064"/>
+        <c:crossAx val="312270656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3331,7 +3317,7 @@
   <dimension ref="A1:BE162"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3340,9 +3326,11 @@
     <col min="2" max="2" width="44.25" style="5" customWidth="1"/>
     <col min="3" max="3" width="4.58203125" style="5" customWidth="1"/>
     <col min="4" max="4" width="3.83203125" style="15" customWidth="1"/>
-    <col min="5" max="7" width="3.83203125" style="5" customWidth="1"/>
-    <col min="8" max="9" width="3.83203125" style="5" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="3.83203125" style="16" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="3.83203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="5" customWidth="1"/>
+    <col min="8" max="8" width="3.6640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="3.83203125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="3" style="16" customWidth="1"/>
     <col min="11" max="30" width="3.25" style="5" customWidth="1"/>
     <col min="31" max="35" width="3.25" style="4" customWidth="1"/>
     <col min="36" max="40" width="3.08203125" style="4" customWidth="1"/>
@@ -3353,38 +3341,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="26" x14ac:dyDescent="0.35">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="179" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="149"/>
-      <c r="M1" s="149"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="149"/>
-      <c r="P1" s="149"/>
-      <c r="Q1" s="149"/>
-      <c r="R1" s="149"/>
-      <c r="S1" s="149"/>
-      <c r="T1" s="149"/>
-      <c r="U1" s="149"/>
-      <c r="V1" s="149"/>
-      <c r="W1" s="149"/>
-      <c r="X1" s="149"/>
-      <c r="Y1" s="149"/>
-      <c r="Z1" s="149"/>
-      <c r="AA1" s="149"/>
-      <c r="AB1" s="149"/>
-      <c r="AC1" s="149"/>
-      <c r="AD1" s="149"/>
+      <c r="B1" s="179"/>
+      <c r="C1" s="179"/>
+      <c r="D1" s="179"/>
+      <c r="E1" s="179"/>
+      <c r="F1" s="179"/>
+      <c r="G1" s="179"/>
+      <c r="H1" s="179"/>
+      <c r="I1" s="179"/>
+      <c r="J1" s="179"/>
+      <c r="K1" s="179"/>
+      <c r="L1" s="179"/>
+      <c r="M1" s="179"/>
+      <c r="N1" s="179"/>
+      <c r="O1" s="179"/>
+      <c r="P1" s="179"/>
+      <c r="Q1" s="179"/>
+      <c r="R1" s="179"/>
+      <c r="S1" s="179"/>
+      <c r="T1" s="179"/>
+      <c r="U1" s="179"/>
+      <c r="V1" s="179"/>
+      <c r="W1" s="179"/>
+      <c r="X1" s="179"/>
+      <c r="Y1" s="179"/>
+      <c r="Z1" s="179"/>
+      <c r="AA1" s="179"/>
+      <c r="AB1" s="179"/>
+      <c r="AC1" s="179"/>
+      <c r="AD1" s="179"/>
     </row>
     <row r="2" spans="1:44" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6"/>
@@ -3400,74 +3388,74 @@
     </row>
     <row r="3" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="142"/>
-      <c r="B3" s="192"/>
-      <c r="C3" s="190" t="s">
+      <c r="B3" s="173"/>
+      <c r="C3" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="191"/>
+      <c r="D3" s="181"/>
       <c r="E3" s="143"/>
       <c r="F3" s="144"/>
       <c r="G3" s="144"/>
       <c r="H3" s="145"/>
-      <c r="I3" s="147" t="s">
+      <c r="I3" s="177" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="147"/>
-      <c r="K3" s="147"/>
-      <c r="L3" s="147"/>
-      <c r="M3" s="150"/>
-      <c r="N3" s="146" t="s">
+      <c r="J3" s="177"/>
+      <c r="K3" s="177"/>
+      <c r="L3" s="177"/>
+      <c r="M3" s="182"/>
+      <c r="N3" s="176" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="147"/>
-      <c r="P3" s="147"/>
-      <c r="Q3" s="147"/>
-      <c r="R3" s="147"/>
-      <c r="S3" s="146" t="s">
+      <c r="O3" s="177"/>
+      <c r="P3" s="177"/>
+      <c r="Q3" s="177"/>
+      <c r="R3" s="177"/>
+      <c r="S3" s="176" t="s">
         <v>27</v>
       </c>
-      <c r="T3" s="147"/>
-      <c r="U3" s="147"/>
-      <c r="V3" s="147"/>
-      <c r="W3" s="147"/>
-      <c r="X3" s="146" t="s">
+      <c r="T3" s="177"/>
+      <c r="U3" s="177"/>
+      <c r="V3" s="177"/>
+      <c r="W3" s="177"/>
+      <c r="X3" s="176" t="s">
         <v>28</v>
       </c>
-      <c r="Y3" s="147"/>
-      <c r="Z3" s="147"/>
-      <c r="AA3" s="147"/>
-      <c r="AB3" s="147"/>
-      <c r="AC3" s="146" t="s">
+      <c r="Y3" s="177"/>
+      <c r="Z3" s="177"/>
+      <c r="AA3" s="177"/>
+      <c r="AB3" s="177"/>
+      <c r="AC3" s="176" t="s">
         <v>33</v>
       </c>
-      <c r="AD3" s="147"/>
-      <c r="AE3" s="147"/>
-      <c r="AF3" s="147"/>
-      <c r="AG3" s="147"/>
-      <c r="AH3" s="146" t="s">
+      <c r="AD3" s="177"/>
+      <c r="AE3" s="177"/>
+      <c r="AF3" s="177"/>
+      <c r="AG3" s="177"/>
+      <c r="AH3" s="176" t="s">
         <v>34</v>
       </c>
-      <c r="AI3" s="147"/>
-      <c r="AJ3" s="147"/>
-      <c r="AK3" s="147"/>
-      <c r="AL3" s="148"/>
-      <c r="AM3" s="146" t="s">
+      <c r="AI3" s="177"/>
+      <c r="AJ3" s="177"/>
+      <c r="AK3" s="177"/>
+      <c r="AL3" s="178"/>
+      <c r="AM3" s="176" t="s">
         <v>39</v>
       </c>
-      <c r="AN3" s="147"/>
-      <c r="AO3" s="147"/>
-      <c r="AP3" s="147"/>
-      <c r="AQ3" s="148"/>
+      <c r="AN3" s="177"/>
+      <c r="AO3" s="177"/>
+      <c r="AP3" s="177"/>
+      <c r="AQ3" s="178"/>
     </row>
     <row r="4" spans="1:44" ht="90.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="188"/>
-      <c r="C4" s="189" t="s">
+      <c r="B4" s="171"/>
+      <c r="C4" s="172" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="189" t="s">
+      <c r="D4" s="172" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="103" t="s">
@@ -3476,7 +3464,7 @@
       <c r="F4" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="176" t="s">
+      <c r="G4" s="160" t="s">
         <v>18</v>
       </c>
       <c r="H4" s="54" t="s">
@@ -3628,7 +3616,7 @@
       <c r="B5" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="183">
+      <c r="C5" s="166">
         <f>SUM(C6:C10)</f>
         <v>18</v>
       </c>
@@ -3636,9 +3624,9 @@
         <f>SUM(D6:D10)</f>
         <v>8</v>
       </c>
-      <c r="E5" s="182"/>
+      <c r="E5" s="165"/>
       <c r="F5" s="116"/>
-      <c r="G5" s="175"/>
+      <c r="G5" s="159"/>
       <c r="H5" s="117"/>
       <c r="I5" s="118"/>
       <c r="J5" s="119"/>
@@ -3694,7 +3682,9 @@
         <v>1</v>
       </c>
       <c r="F6" s="110"/>
-      <c r="G6" s="177"/>
+      <c r="G6" s="193">
+        <v>43075</v>
+      </c>
       <c r="H6" s="55"/>
       <c r="I6" s="80"/>
       <c r="J6" s="80"/>
@@ -3705,7 +3695,7 @@
       <c r="M6" s="87"/>
       <c r="N6" s="80"/>
       <c r="O6" s="80"/>
-      <c r="P6" s="158"/>
+      <c r="P6" s="146"/>
       <c r="Q6" s="25"/>
       <c r="R6" s="26"/>
       <c r="S6" s="80"/>
@@ -3752,7 +3742,9 @@
         <v>1</v>
       </c>
       <c r="F7" s="110"/>
-      <c r="G7" s="178"/>
+      <c r="G7" s="194">
+        <v>43082</v>
+      </c>
       <c r="H7" s="56"/>
       <c r="I7" s="80"/>
       <c r="J7" s="80"/>
@@ -3810,7 +3802,9 @@
         <v>1</v>
       </c>
       <c r="F8" s="110"/>
-      <c r="G8" s="195"/>
+      <c r="G8" s="195">
+        <v>43119</v>
+      </c>
       <c r="H8" s="56"/>
       <c r="I8" s="80"/>
       <c r="J8" s="80"/>
@@ -3841,13 +3835,13 @@
       <c r="AI8" s="80"/>
       <c r="AJ8" s="28"/>
       <c r="AK8" s="23"/>
-      <c r="AL8" s="166"/>
-      <c r="AM8" s="162"/>
+      <c r="AL8" s="154"/>
+      <c r="AM8" s="150"/>
       <c r="AN8" s="80"/>
       <c r="AO8" s="28"/>
       <c r="AP8" s="23"/>
-      <c r="AQ8" s="166"/>
-      <c r="AR8" s="161"/>
+      <c r="AQ8" s="154"/>
+      <c r="AR8" s="149"/>
     </row>
     <row r="9" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="38">
@@ -3867,7 +3861,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="110"/>
-      <c r="G9" s="178"/>
+      <c r="G9" s="161"/>
       <c r="H9" s="56"/>
       <c r="I9" s="80"/>
       <c r="J9" s="80"/>
@@ -3926,8 +3920,10 @@
       <c r="E10" s="106">
         <v>1</v>
       </c>
-      <c r="F10" s="194"/>
-      <c r="G10" s="179"/>
+      <c r="F10" s="175"/>
+      <c r="G10" s="196">
+        <v>43116</v>
+      </c>
       <c r="H10" s="56"/>
       <c r="I10" s="80"/>
       <c r="J10" s="80"/>
@@ -3961,7 +3957,7 @@
       <c r="AL10" s="46"/>
       <c r="AM10" s="80"/>
       <c r="AN10" s="80"/>
-      <c r="AO10" s="167"/>
+      <c r="AO10" s="155"/>
       <c r="AP10" s="35"/>
       <c r="AQ10" s="46"/>
     </row>
@@ -3972,7 +3968,7 @@
       <c r="B11" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="184">
+      <c r="C11" s="167">
         <f>SUM(C12:C15)</f>
         <v>8</v>
       </c>
@@ -3980,13 +3976,13 @@
         <f>SUM(D12:D15)</f>
         <v>6</v>
       </c>
-      <c r="E11" s="182"/>
-      <c r="F11" s="186"/>
+      <c r="E11" s="165"/>
+      <c r="F11" s="169"/>
       <c r="G11" s="128"/>
       <c r="H11" s="117"/>
       <c r="I11" s="118"/>
       <c r="J11" s="119"/>
-      <c r="K11" s="193"/>
+      <c r="K11" s="174"/>
       <c r="L11" s="121"/>
       <c r="M11" s="122"/>
       <c r="N11" s="123"/>
@@ -4038,7 +4034,9 @@
         <v>1</v>
       </c>
       <c r="F12" s="110"/>
-      <c r="G12" s="177"/>
+      <c r="G12" s="193">
+        <v>43082</v>
+      </c>
       <c r="H12" s="56"/>
       <c r="I12" s="80"/>
       <c r="J12" s="80"/>
@@ -4096,7 +4094,9 @@
       </c>
       <c r="E13" s="104"/>
       <c r="F13" s="110"/>
-      <c r="G13" s="178"/>
+      <c r="G13" s="194">
+        <v>43091</v>
+      </c>
       <c r="H13" s="56"/>
       <c r="I13" s="80"/>
       <c r="J13" s="80"/>
@@ -4146,7 +4146,7 @@
       </c>
       <c r="E14" s="104"/>
       <c r="F14" s="110"/>
-      <c r="G14" s="178"/>
+      <c r="G14" s="161"/>
       <c r="H14" s="56"/>
       <c r="I14" s="80"/>
       <c r="J14" s="80"/>
@@ -4196,7 +4196,7 @@
       </c>
       <c r="E15" s="104"/>
       <c r="F15" s="110"/>
-      <c r="G15" s="179"/>
+      <c r="G15" s="162"/>
       <c r="H15" s="56"/>
       <c r="I15" s="80"/>
       <c r="J15" s="80"/>
@@ -4241,17 +4241,17 @@
       <c r="B16" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="183">
+      <c r="C16" s="166">
         <f>SUM(C17:C23)</f>
         <v>56</v>
       </c>
-      <c r="D16" s="183">
+      <c r="D16" s="166">
         <f>SUM(D17:D23)</f>
         <v>0</v>
       </c>
       <c r="E16" s="115"/>
-      <c r="F16" s="185"/>
-      <c r="G16" s="181"/>
+      <c r="F16" s="168"/>
+      <c r="G16" s="164"/>
       <c r="H16" s="117"/>
       <c r="I16" s="118"/>
       <c r="J16" s="119"/>
@@ -4307,7 +4307,9 @@
         <v>1</v>
       </c>
       <c r="F17" s="110"/>
-      <c r="G17" s="177"/>
+      <c r="G17" s="193">
+        <v>43090</v>
+      </c>
       <c r="H17" s="56"/>
       <c r="I17" s="80"/>
       <c r="J17" s="80"/>
@@ -4323,7 +4325,7 @@
       <c r="T17" s="80"/>
       <c r="U17" s="92"/>
       <c r="V17" s="92"/>
-      <c r="W17" s="158"/>
+      <c r="W17" s="146"/>
       <c r="X17" s="76"/>
       <c r="Y17" s="76"/>
       <c r="Z17" s="76"/>
@@ -4363,7 +4365,9 @@
         <v>1</v>
       </c>
       <c r="F18" s="110"/>
-      <c r="G18" s="178"/>
+      <c r="G18" s="194">
+        <v>43111</v>
+      </c>
       <c r="H18" s="56"/>
       <c r="I18" s="80"/>
       <c r="J18" s="80"/>
@@ -4419,7 +4423,9 @@
         <v>1</v>
       </c>
       <c r="F19" s="110"/>
-      <c r="G19" s="178"/>
+      <c r="G19" s="194">
+        <v>43094</v>
+      </c>
       <c r="H19" s="56"/>
       <c r="I19" s="80"/>
       <c r="J19" s="80"/>
@@ -4475,7 +4481,9 @@
         <v>1</v>
       </c>
       <c r="F20" s="110"/>
-      <c r="G20" s="178"/>
+      <c r="G20" s="194">
+        <v>43112</v>
+      </c>
       <c r="H20" s="56"/>
       <c r="I20" s="80"/>
       <c r="J20" s="80"/>
@@ -4491,7 +4499,7 @@
       <c r="T20" s="80"/>
       <c r="U20" s="92"/>
       <c r="V20" s="92"/>
-      <c r="W20" s="158"/>
+      <c r="W20" s="146"/>
       <c r="X20" s="76"/>
       <c r="Y20" s="76"/>
       <c r="Z20" s="76"/>
@@ -4506,10 +4514,10 @@
       <c r="AI20" s="80"/>
       <c r="AJ20" s="92"/>
       <c r="AK20" s="92"/>
-      <c r="AL20" s="160"/>
-      <c r="AM20" s="162"/>
+      <c r="AL20" s="148"/>
+      <c r="AM20" s="150"/>
       <c r="AN20" s="80"/>
-      <c r="AO20" s="158"/>
+      <c r="AO20" s="146"/>
       <c r="AP20" s="36"/>
       <c r="AQ20" s="48"/>
     </row>
@@ -4530,8 +4538,10 @@
       <c r="E21" s="104">
         <v>1</v>
       </c>
-      <c r="F21" s="180"/>
-      <c r="G21" s="170"/>
+      <c r="F21" s="163"/>
+      <c r="G21" s="197">
+        <v>43112</v>
+      </c>
       <c r="H21" s="56"/>
       <c r="I21" s="80"/>
       <c r="J21" s="80"/>
@@ -4560,7 +4570,7 @@
       <c r="AG21" s="76"/>
       <c r="AH21" s="80"/>
       <c r="AI21" s="80"/>
-      <c r="AJ21" s="158"/>
+      <c r="AJ21" s="146"/>
       <c r="AK21" s="36"/>
       <c r="AL21" s="48"/>
       <c r="AM21" s="80"/>
@@ -4585,7 +4595,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="110"/>
-      <c r="G22" s="178"/>
+      <c r="G22" s="161"/>
       <c r="H22" s="56"/>
       <c r="I22" s="80"/>
       <c r="J22" s="80"/>
@@ -4639,7 +4649,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="110"/>
-      <c r="G23" s="179"/>
+      <c r="G23" s="162"/>
       <c r="H23" s="56"/>
       <c r="I23" s="80"/>
       <c r="J23" s="80"/>
@@ -4684,17 +4694,17 @@
       <c r="B24" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="183">
+      <c r="C24" s="166">
         <f>SUM(C25:C27)</f>
         <v>15</v>
       </c>
-      <c r="D24" s="183">
+      <c r="D24" s="166">
         <f>SUM(D25:D27)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="182"/>
+      <c r="E24" s="165"/>
       <c r="F24" s="116"/>
-      <c r="G24" s="181"/>
+      <c r="G24" s="164"/>
       <c r="H24" s="117"/>
       <c r="I24" s="118"/>
       <c r="J24" s="119"/>
@@ -4750,7 +4760,9 @@
         <v>1</v>
       </c>
       <c r="F25" s="110"/>
-      <c r="G25" s="177"/>
+      <c r="G25" s="193">
+        <v>43083</v>
+      </c>
       <c r="H25" s="57"/>
       <c r="I25" s="80"/>
       <c r="J25" s="80"/>
@@ -4806,7 +4818,9 @@
         <v>1</v>
       </c>
       <c r="F26" s="110"/>
-      <c r="G26" s="178"/>
+      <c r="G26" s="194">
+        <v>43117</v>
+      </c>
       <c r="H26" s="57"/>
       <c r="I26" s="80"/>
       <c r="J26" s="80"/>
@@ -4835,10 +4849,10 @@
       <c r="AG26" s="76"/>
       <c r="AH26" s="80"/>
       <c r="AI26" s="80"/>
-      <c r="AJ26" s="159"/>
+      <c r="AJ26" s="147"/>
       <c r="AK26" s="92"/>
-      <c r="AL26" s="160"/>
-      <c r="AM26" s="162"/>
+      <c r="AL26" s="148"/>
+      <c r="AM26" s="150"/>
       <c r="AN26" s="80"/>
       <c r="AO26" s="92"/>
       <c r="AP26" s="28"/>
@@ -4862,7 +4876,9 @@
         <v>1</v>
       </c>
       <c r="F27" s="111"/>
-      <c r="G27" s="179"/>
+      <c r="G27" s="196">
+        <v>43117</v>
+      </c>
       <c r="H27" s="57"/>
       <c r="I27" s="80"/>
       <c r="J27" s="80"/>
@@ -4907,17 +4923,17 @@
       <c r="B28" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="187">
+      <c r="C28" s="170">
         <f>SUM(C29:C30)</f>
         <v>5</v>
       </c>
-      <c r="D28" s="183">
+      <c r="D28" s="166">
         <f>SUM(D29:D30)</f>
         <v>0</v>
       </c>
-      <c r="E28" s="182"/>
-      <c r="F28" s="186"/>
-      <c r="G28" s="181"/>
+      <c r="E28" s="165"/>
+      <c r="F28" s="169"/>
+      <c r="G28" s="164"/>
       <c r="H28" s="117"/>
       <c r="I28" s="118"/>
       <c r="J28" s="119"/>
@@ -4973,11 +4989,13 @@
         <v>3</v>
       </c>
       <c r="F29" s="110"/>
-      <c r="G29" s="177"/>
-      <c r="H29" s="171"/>
+      <c r="G29" s="193">
+        <v>43118</v>
+      </c>
+      <c r="H29" s="156"/>
       <c r="I29" s="80"/>
       <c r="J29" s="80"/>
-      <c r="K29" s="172"/>
+      <c r="K29" s="157"/>
       <c r="L29" s="86"/>
       <c r="M29" s="87"/>
       <c r="N29" s="80"/>
@@ -5023,7 +5041,7 @@
       </c>
       <c r="E30" s="107"/>
       <c r="F30" s="112"/>
-      <c r="G30" s="179"/>
+      <c r="G30" s="162"/>
       <c r="H30" s="56"/>
       <c r="I30" s="80"/>
       <c r="J30" s="80"/>
@@ -5068,7 +5086,7 @@
       <c r="B31" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="183">
+      <c r="C31" s="166">
         <f>SUM(C32:C33)</f>
         <v>1.25</v>
       </c>
@@ -5077,8 +5095,8 @@
         <v>0</v>
       </c>
       <c r="E31" s="115"/>
-      <c r="F31" s="185"/>
-      <c r="G31" s="181"/>
+      <c r="F31" s="168"/>
+      <c r="G31" s="164"/>
       <c r="H31" s="117"/>
       <c r="I31" s="118"/>
       <c r="J31" s="119"/>
@@ -5133,8 +5151,10 @@
       <c r="E32" s="104">
         <v>2</v>
       </c>
-      <c r="F32" s="110"/>
-      <c r="G32" s="169"/>
+      <c r="F32" s="192"/>
+      <c r="G32" s="198">
+        <v>43118</v>
+      </c>
       <c r="H32" s="59"/>
       <c r="I32" s="80"/>
       <c r="J32" s="80"/>
@@ -5173,7 +5193,7 @@
       <c r="AQ32" s="52"/>
     </row>
     <row r="33" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="165">
+      <c r="A33" s="153">
         <v>62</v>
       </c>
       <c r="B33" s="50" t="s">
@@ -5190,7 +5210,9 @@
         <v>1</v>
       </c>
       <c r="F33" s="113"/>
-      <c r="G33" s="168"/>
+      <c r="G33" s="196">
+        <v>43118</v>
+      </c>
       <c r="H33" s="58"/>
       <c r="I33" s="80"/>
       <c r="J33" s="80"/>
@@ -5229,7 +5251,7 @@
       <c r="AQ33" s="52"/>
     </row>
     <row r="34" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="164"/>
+      <c r="A34" s="152"/>
       <c r="B34" s="129" t="s">
         <v>6</v>
       </c>
@@ -5243,8 +5265,8 @@
       </c>
       <c r="E34" s="130"/>
       <c r="F34" s="131"/>
-      <c r="G34" s="197"/>
-      <c r="H34" s="196"/>
+      <c r="G34" s="190"/>
+      <c r="H34" s="191"/>
       <c r="I34" s="132">
         <f t="shared" ref="I34:AB34" si="4">SUM(I5:I33)</f>
         <v>0</v>
@@ -5387,16 +5409,20 @@
       </c>
     </row>
     <row r="35" spans="1:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="163"/>
+      <c r="A35" s="151"/>
       <c r="B35" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="140"/>
+      <c r="C35" s="140">
+        <v>3</v>
+      </c>
       <c r="D35" s="141"/>
       <c r="E35" s="108"/>
       <c r="F35" s="114"/>
-      <c r="G35" s="174"/>
-      <c r="H35" s="173"/>
+      <c r="G35" s="199">
+        <v>43119</v>
+      </c>
+      <c r="H35" s="158"/>
       <c r="I35" s="94"/>
       <c r="J35" s="94"/>
       <c r="K35" s="95"/>
@@ -6048,20 +6074,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="153"/>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
-      <c r="K1" s="153"/>
-      <c r="L1" s="153"/>
-      <c r="M1" s="153"/>
-      <c r="N1" s="153"/>
+      <c r="A1" s="185"/>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="185"/>
+      <c r="K1" s="185"/>
+      <c r="L1" s="185"/>
+      <c r="M1" s="185"/>
+      <c r="N1" s="185"/>
     </row>
     <row r="2" spans="1:14" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="63"/>
@@ -6390,10 +6416,10 @@
     <row r="34" spans="1:4" ht="15.5" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="36" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="154" t="s">
+      <c r="A36" s="186" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="155"/>
+      <c r="B36" s="187"/>
       <c r="C36" s="3" t="s">
         <v>23</v>
       </c>
@@ -6402,10 +6428,10 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="151" t="s">
+      <c r="A37" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="152"/>
+      <c r="B37" s="184"/>
       <c r="C37" s="64">
         <f>Zeitplanung!C5</f>
         <v>18</v>
@@ -6416,10 +6442,10 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="156" t="s">
+      <c r="A38" s="188" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="157"/>
+      <c r="B38" s="189"/>
       <c r="C38" s="64">
         <f>Zeitplanung!C11</f>
         <v>8</v>
@@ -6430,10 +6456,10 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="151" t="s">
+      <c r="A39" s="183" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="152"/>
+      <c r="B39" s="184"/>
       <c r="C39" s="64">
         <f>Zeitplanung!C16</f>
         <v>56</v>
@@ -6444,10 +6470,10 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="156" t="s">
+      <c r="A40" s="188" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="157"/>
+      <c r="B40" s="189"/>
       <c r="C40" s="64">
         <f>Zeitplanung!C24</f>
         <v>15</v>
@@ -6458,10 +6484,10 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="151" t="s">
+      <c r="A41" s="183" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="152"/>
+      <c r="B41" s="184"/>
       <c r="C41" s="64">
         <f>Zeitplanung!C28</f>
         <v>5</v>
@@ -6472,10 +6498,10 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="151" t="s">
+      <c r="A42" s="183" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="152"/>
+      <c r="B42" s="184"/>
       <c r="C42" s="64">
         <f>Zeitplanung!C31</f>
         <v>1.25</v>

--- a/doc/Zeitplanung-1.xlsx
+++ b/doc/Zeitplanung-1.xlsx
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
   <si>
     <t>Nr.</t>
   </si>
@@ -252,9 +252,6 @@
     <t>Anforderungsanalyse</t>
   </si>
   <si>
-    <t>Anforderung #06</t>
-  </si>
-  <si>
     <t>Administration, Planung, Dokumentation</t>
   </si>
   <si>
@@ -274,9 +271,6 @@
   </si>
   <si>
     <t xml:space="preserve">Dokumentation </t>
-  </si>
-  <si>
-    <t>Anforderung #07</t>
   </si>
   <si>
     <t>KW 7</t>
@@ -319,6 +313,9 @@
   </si>
   <si>
     <t>Webseite                    #06</t>
+  </si>
+  <si>
+    <t>Gearbeitete Zeit</t>
   </si>
 </sst>
 </file>
@@ -483,7 +480,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -558,6 +555,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="90">
     <border>
@@ -1448,6 +1451,19 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
       <right style="hair">
         <color indexed="64"/>
       </right>
@@ -1461,235 +1477,222 @@
     </border>
     <border>
       <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="hair">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
       <top style="hair">
         <color indexed="64"/>
       </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1710,7 +1713,7 @@
     <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="222">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1936,9 +1939,6 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1987,31 +1987,31 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="73" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="73" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="74" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="68" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="68" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="75" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="75" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="76" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="68" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="68" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="77" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="78" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="76" xfId="2" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="42" xfId="5" applyBorder="1" applyAlignment="1">
@@ -2047,7 +2047,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="74" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="72" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="13" borderId="24" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2125,12 +2125,6 @@
     <xf numFmtId="0" fontId="24" fillId="13" borderId="69" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="72" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="73" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="13" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2153,28 +2147,28 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="62" xfId="2" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="82" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="80" xfId="2" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="84" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="82" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="68" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2204,9 +2198,6 @@
     <xf numFmtId="0" fontId="24" fillId="13" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="83" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="13" borderId="41" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2222,13 +2213,121 @@
     <xf numFmtId="0" fontId="24" fillId="10" borderId="11" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="88" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="86" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="13" borderId="41" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="67" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="11" borderId="67" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="11" borderId="8" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="11" borderId="5" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="11" borderId="65" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="11" borderId="12" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="11" borderId="87" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="11" borderId="30" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="65" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="67" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="27" xfId="2" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="69" xfId="2" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="67" xfId="2" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="2" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="2" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="14" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="67" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="8" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="65" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="72" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="30" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2243,10 +2342,10 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="13" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2269,36 +2368,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="23" fillId="13" borderId="41" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="67" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="11" borderId="67" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="11" borderId="8" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="11" borderId="5" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="11" borderId="65" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="11" borderId="12" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="11" borderId="89" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="11" borderId="30" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="60 % - Akzent1" xfId="7" builtinId="32"/>
@@ -2515,13 +2584,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.5</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.5</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -2601,11 +2670,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="312268696"/>
-        <c:axId val="312274968"/>
+        <c:axId val="307626080"/>
+        <c:axId val="307625296"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="312268696"/>
+        <c:axId val="307626080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2615,14 +2684,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="312274968"/>
+        <c:crossAx val="307625296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="312274968"/>
+        <c:axId val="307625296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2633,7 +2702,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="312268696"/>
+        <c:crossAx val="307626080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2739,10 +2808,10 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5</c:v>
@@ -2807,16 +2876,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2842,11 +2911,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="312270656"/>
-        <c:axId val="312269872"/>
+        <c:axId val="307621376"/>
+        <c:axId val="307624512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="312270656"/>
+        <c:axId val="307621376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2856,7 +2925,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="312269872"/>
+        <c:crossAx val="307624512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2864,7 +2933,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="312269872"/>
+        <c:axId val="307624512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2875,7 +2944,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="312270656"/>
+        <c:crossAx val="307621376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3316,8 +3385,8 @@
   </sheetPr>
   <dimension ref="A1:BE162"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3341,38 +3410,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="26" x14ac:dyDescent="0.35">
-      <c r="A1" s="179" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="179"/>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="179"/>
-      <c r="F1" s="179"/>
-      <c r="G1" s="179"/>
-      <c r="H1" s="179"/>
-      <c r="I1" s="179"/>
-      <c r="J1" s="179"/>
-      <c r="K1" s="179"/>
-      <c r="L1" s="179"/>
-      <c r="M1" s="179"/>
-      <c r="N1" s="179"/>
-      <c r="O1" s="179"/>
-      <c r="P1" s="179"/>
-      <c r="Q1" s="179"/>
-      <c r="R1" s="179"/>
-      <c r="S1" s="179"/>
-      <c r="T1" s="179"/>
-      <c r="U1" s="179"/>
-      <c r="V1" s="179"/>
-      <c r="W1" s="179"/>
-      <c r="X1" s="179"/>
-      <c r="Y1" s="179"/>
-      <c r="Z1" s="179"/>
-      <c r="AA1" s="179"/>
-      <c r="AB1" s="179"/>
-      <c r="AC1" s="179"/>
-      <c r="AD1" s="179"/>
+      <c r="A1" s="211" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="211"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="211"/>
+      <c r="E1" s="211"/>
+      <c r="F1" s="211"/>
+      <c r="G1" s="211"/>
+      <c r="H1" s="211"/>
+      <c r="I1" s="211"/>
+      <c r="J1" s="211"/>
+      <c r="K1" s="211"/>
+      <c r="L1" s="211"/>
+      <c r="M1" s="211"/>
+      <c r="N1" s="211"/>
+      <c r="O1" s="211"/>
+      <c r="P1" s="211"/>
+      <c r="Q1" s="211"/>
+      <c r="R1" s="211"/>
+      <c r="S1" s="211"/>
+      <c r="T1" s="211"/>
+      <c r="U1" s="211"/>
+      <c r="V1" s="211"/>
+      <c r="W1" s="211"/>
+      <c r="X1" s="211"/>
+      <c r="Y1" s="211"/>
+      <c r="Z1" s="211"/>
+      <c r="AA1" s="211"/>
+      <c r="AB1" s="211"/>
+      <c r="AC1" s="211"/>
+      <c r="AD1" s="211"/>
     </row>
     <row r="2" spans="1:44" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6"/>
@@ -3387,84 +3456,84 @@
       <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="142"/>
-      <c r="B3" s="173"/>
-      <c r="C3" s="180" t="s">
+      <c r="A3" s="139"/>
+      <c r="B3" s="169"/>
+      <c r="C3" s="212" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="181"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="177" t="s">
+      <c r="D3" s="213"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="209" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="177"/>
-      <c r="K3" s="177"/>
-      <c r="L3" s="177"/>
-      <c r="M3" s="182"/>
-      <c r="N3" s="176" t="s">
+      <c r="J3" s="209"/>
+      <c r="K3" s="209"/>
+      <c r="L3" s="209"/>
+      <c r="M3" s="214"/>
+      <c r="N3" s="208" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="177"/>
-      <c r="P3" s="177"/>
-      <c r="Q3" s="177"/>
-      <c r="R3" s="177"/>
-      <c r="S3" s="176" t="s">
+      <c r="O3" s="209"/>
+      <c r="P3" s="209"/>
+      <c r="Q3" s="209"/>
+      <c r="R3" s="209"/>
+      <c r="S3" s="208" t="s">
         <v>27</v>
       </c>
-      <c r="T3" s="177"/>
-      <c r="U3" s="177"/>
-      <c r="V3" s="177"/>
-      <c r="W3" s="177"/>
-      <c r="X3" s="176" t="s">
+      <c r="T3" s="209"/>
+      <c r="U3" s="209"/>
+      <c r="V3" s="209"/>
+      <c r="W3" s="209"/>
+      <c r="X3" s="208" t="s">
         <v>28</v>
       </c>
-      <c r="Y3" s="177"/>
-      <c r="Z3" s="177"/>
-      <c r="AA3" s="177"/>
-      <c r="AB3" s="177"/>
-      <c r="AC3" s="176" t="s">
+      <c r="Y3" s="209"/>
+      <c r="Z3" s="209"/>
+      <c r="AA3" s="209"/>
+      <c r="AB3" s="209"/>
+      <c r="AC3" s="208" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD3" s="209"/>
+      <c r="AE3" s="209"/>
+      <c r="AF3" s="209"/>
+      <c r="AG3" s="209"/>
+      <c r="AH3" s="208" t="s">
         <v>33</v>
       </c>
-      <c r="AD3" s="177"/>
-      <c r="AE3" s="177"/>
-      <c r="AF3" s="177"/>
-      <c r="AG3" s="177"/>
-      <c r="AH3" s="176" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI3" s="177"/>
-      <c r="AJ3" s="177"/>
-      <c r="AK3" s="177"/>
-      <c r="AL3" s="178"/>
-      <c r="AM3" s="176" t="s">
-        <v>39</v>
-      </c>
-      <c r="AN3" s="177"/>
-      <c r="AO3" s="177"/>
-      <c r="AP3" s="177"/>
-      <c r="AQ3" s="178"/>
+      <c r="AI3" s="209"/>
+      <c r="AJ3" s="209"/>
+      <c r="AK3" s="209"/>
+      <c r="AL3" s="210"/>
+      <c r="AM3" s="208" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN3" s="209"/>
+      <c r="AO3" s="209"/>
+      <c r="AP3" s="209"/>
+      <c r="AQ3" s="210"/>
     </row>
     <row r="4" spans="1:44" ht="90.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="171"/>
-      <c r="C4" s="172" t="s">
+      <c r="B4" s="167"/>
+      <c r="C4" s="168" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="172" t="s">
+      <c r="D4" s="168" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="103" t="s">
+      <c r="E4" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="109" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="160" t="s">
+      <c r="F4" s="108" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="157" t="s">
         <v>18</v>
       </c>
       <c r="H4" s="54" t="s">
@@ -3600,7 +3669,7 @@
         <f>AN4+1</f>
         <v>43117</v>
       </c>
-      <c r="AP4" s="22">
+      <c r="AP4" s="201">
         <f>AO4+1</f>
         <v>43118</v>
       </c>
@@ -3613,56 +3682,56 @@
       <c r="A5" s="60">
         <v>10</v>
       </c>
-      <c r="B5" s="126" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="166">
+      <c r="B5" s="125" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="163">
         <f>SUM(C6:C10)</f>
         <v>18</v>
       </c>
-      <c r="D5" s="136">
+      <c r="D5" s="135">
         <f>SUM(D6:D10)</f>
-        <v>8</v>
-      </c>
-      <c r="E5" s="165"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="159"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="119"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="121"/>
-      <c r="M5" s="122"/>
-      <c r="N5" s="123"/>
-      <c r="O5" s="120"/>
-      <c r="P5" s="121"/>
-      <c r="Q5" s="119"/>
-      <c r="R5" s="124"/>
-      <c r="S5" s="123"/>
-      <c r="T5" s="120"/>
-      <c r="U5" s="121"/>
-      <c r="V5" s="119"/>
-      <c r="W5" s="124"/>
-      <c r="X5" s="123"/>
-      <c r="Y5" s="120"/>
-      <c r="Z5" s="121"/>
-      <c r="AA5" s="119"/>
-      <c r="AB5" s="124"/>
-      <c r="AC5" s="123"/>
-      <c r="AD5" s="120"/>
-      <c r="AE5" s="121"/>
-      <c r="AF5" s="119"/>
-      <c r="AG5" s="124"/>
-      <c r="AH5" s="123"/>
-      <c r="AI5" s="120"/>
-      <c r="AJ5" s="120"/>
-      <c r="AK5" s="121"/>
-      <c r="AL5" s="125"/>
-      <c r="AM5" s="123"/>
-      <c r="AN5" s="120"/>
-      <c r="AO5" s="120"/>
-      <c r="AP5" s="121"/>
-      <c r="AQ5" s="125"/>
+        <v>9</v>
+      </c>
+      <c r="E5" s="162"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="156"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="118"/>
+      <c r="K5" s="119"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="121"/>
+      <c r="N5" s="122"/>
+      <c r="O5" s="119"/>
+      <c r="P5" s="120"/>
+      <c r="Q5" s="118"/>
+      <c r="R5" s="123"/>
+      <c r="S5" s="122"/>
+      <c r="T5" s="119"/>
+      <c r="U5" s="120"/>
+      <c r="V5" s="118"/>
+      <c r="W5" s="123"/>
+      <c r="X5" s="122"/>
+      <c r="Y5" s="119"/>
+      <c r="Z5" s="120"/>
+      <c r="AA5" s="118"/>
+      <c r="AB5" s="123"/>
+      <c r="AC5" s="122"/>
+      <c r="AD5" s="119"/>
+      <c r="AE5" s="120"/>
+      <c r="AF5" s="118"/>
+      <c r="AG5" s="123"/>
+      <c r="AH5" s="122"/>
+      <c r="AI5" s="119"/>
+      <c r="AJ5" s="119"/>
+      <c r="AK5" s="120"/>
+      <c r="AL5" s="124"/>
+      <c r="AM5" s="122"/>
+      <c r="AN5" s="119"/>
+      <c r="AO5" s="119"/>
+      <c r="AP5" s="120"/>
+      <c r="AQ5" s="124"/>
     </row>
     <row r="6" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="38">
@@ -3671,35 +3740,33 @@
       <c r="B6" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="137">
+      <c r="C6" s="202">
         <v>2</v>
       </c>
-      <c r="D6" s="137">
+      <c r="D6" s="203">
         <f>IF(SUM(J6:AR6)=0," ",SUM(J6:AR6))</f>
         <v>3</v>
       </c>
-      <c r="E6" s="104">
+      <c r="E6" s="103">
         <v>1</v>
       </c>
-      <c r="F6" s="110"/>
-      <c r="G6" s="193">
-        <v>43075</v>
-      </c>
+      <c r="F6" s="109"/>
+      <c r="G6" s="175"/>
       <c r="H6" s="55"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="92">
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="91">
         <v>3</v>
       </c>
-      <c r="L6" s="86"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="80"/>
-      <c r="O6" s="80"/>
-      <c r="P6" s="146"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="79"/>
+      <c r="P6" s="143"/>
       <c r="Q6" s="25"/>
       <c r="R6" s="26"/>
-      <c r="S6" s="80"/>
-      <c r="T6" s="80"/>
+      <c r="S6" s="79"/>
+      <c r="T6" s="79"/>
       <c r="U6" s="24"/>
       <c r="V6" s="25"/>
       <c r="W6" s="26"/>
@@ -3713,13 +3780,13 @@
       <c r="AE6" s="76"/>
       <c r="AF6" s="76"/>
       <c r="AG6" s="76"/>
-      <c r="AH6" s="80"/>
-      <c r="AI6" s="80"/>
+      <c r="AH6" s="79"/>
+      <c r="AI6" s="79"/>
       <c r="AJ6" s="25"/>
       <c r="AK6" s="25"/>
       <c r="AL6" s="43"/>
-      <c r="AM6" s="80"/>
-      <c r="AN6" s="80"/>
+      <c r="AM6" s="79"/>
+      <c r="AN6" s="79"/>
       <c r="AO6" s="25"/>
       <c r="AP6" s="25"/>
       <c r="AQ6" s="43"/>
@@ -3729,37 +3796,35 @@
         <v>12</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="137">
+        <v>34</v>
+      </c>
+      <c r="C7" s="202">
         <v>3</v>
       </c>
-      <c r="D7" s="137">
+      <c r="D7" s="204">
         <f>IF(SUM(J7:AR7)=0," ",SUM(J7:AR7))</f>
         <v>4</v>
       </c>
-      <c r="E7" s="105">
+      <c r="E7" s="104">
         <v>1</v>
       </c>
-      <c r="F7" s="110"/>
-      <c r="G7" s="194">
-        <v>43082</v>
-      </c>
+      <c r="F7" s="109"/>
+      <c r="G7" s="176"/>
       <c r="H7" s="56"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
       <c r="K7" s="27"/>
-      <c r="L7" s="88"/>
-      <c r="M7" s="87"/>
-      <c r="N7" s="80"/>
-      <c r="O7" s="80"/>
-      <c r="P7" s="92">
+      <c r="L7" s="87"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="79"/>
+      <c r="O7" s="79"/>
+      <c r="P7" s="91">
         <v>4</v>
       </c>
       <c r="Q7" s="28"/>
       <c r="R7" s="29"/>
-      <c r="S7" s="80"/>
-      <c r="T7" s="80"/>
+      <c r="S7" s="79"/>
+      <c r="T7" s="79"/>
       <c r="U7" s="24"/>
       <c r="V7" s="28"/>
       <c r="W7" s="29"/>
@@ -3773,13 +3838,13 @@
       <c r="AE7" s="74"/>
       <c r="AF7" s="74"/>
       <c r="AG7" s="74"/>
-      <c r="AH7" s="80"/>
-      <c r="AI7" s="80"/>
+      <c r="AH7" s="79"/>
+      <c r="AI7" s="79"/>
       <c r="AJ7" s="28"/>
       <c r="AK7" s="28"/>
       <c r="AL7" s="45"/>
-      <c r="AM7" s="80"/>
-      <c r="AN7" s="80"/>
+      <c r="AM7" s="79"/>
+      <c r="AN7" s="79"/>
       <c r="AO7" s="28"/>
       <c r="AP7" s="28"/>
       <c r="AQ7" s="45"/>
@@ -3789,39 +3854,39 @@
         <v>13</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="137">
+        <v>35</v>
+      </c>
+      <c r="C8" s="204">
         <v>6</v>
       </c>
-      <c r="D8" s="137" t="str">
+      <c r="D8" s="136">
         <f t="shared" ref="D8:D10" si="0">IF(SUM(J8:AR8)=0," ",SUM(J8:AR8))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E8" s="105">
         <v>1</v>
       </c>
-      <c r="F8" s="110"/>
-      <c r="G8" s="195">
-        <v>43119</v>
-      </c>
+      <c r="E8" s="104">
+        <v>1</v>
+      </c>
+      <c r="F8" s="109"/>
+      <c r="G8" s="177"/>
       <c r="H8" s="56"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="80"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
       <c r="K8" s="27"/>
-      <c r="L8" s="88"/>
-      <c r="M8" s="87"/>
-      <c r="N8" s="80"/>
-      <c r="O8" s="80"/>
+      <c r="L8" s="87"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="79"/>
+      <c r="O8" s="79"/>
       <c r="P8" s="24"/>
       <c r="Q8" s="28"/>
-      <c r="R8" s="92"/>
-      <c r="S8" s="80"/>
-      <c r="T8" s="80"/>
+      <c r="R8" s="145">
+        <v>1</v>
+      </c>
+      <c r="S8" s="182"/>
+      <c r="T8" s="79"/>
       <c r="U8" s="24"/>
-      <c r="V8" s="92"/>
-      <c r="W8" s="92"/>
-      <c r="X8" s="74"/>
+      <c r="V8" s="91"/>
+      <c r="W8" s="145"/>
+      <c r="X8" s="185"/>
       <c r="Y8" s="74"/>
       <c r="Z8" s="74"/>
       <c r="AA8" s="74"/>
@@ -3831,17 +3896,17 @@
       <c r="AE8" s="74"/>
       <c r="AF8" s="74"/>
       <c r="AG8" s="74"/>
-      <c r="AH8" s="80"/>
-      <c r="AI8" s="80"/>
+      <c r="AH8" s="79"/>
+      <c r="AI8" s="79"/>
       <c r="AJ8" s="28"/>
       <c r="AK8" s="23"/>
-      <c r="AL8" s="154"/>
-      <c r="AM8" s="150"/>
-      <c r="AN8" s="80"/>
+      <c r="AL8" s="151"/>
+      <c r="AM8" s="147"/>
+      <c r="AN8" s="79"/>
       <c r="AO8" s="28"/>
       <c r="AP8" s="23"/>
-      <c r="AQ8" s="154"/>
-      <c r="AR8" s="149"/>
+      <c r="AQ8" s="151"/>
+      <c r="AR8" s="146"/>
     </row>
     <row r="9" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="38">
@@ -3850,55 +3915,55 @@
       <c r="B9" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="137">
+      <c r="C9" s="204">
         <v>2</v>
       </c>
-      <c r="D9" s="137">
+      <c r="D9" s="136">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E9" s="105">
+      <c r="E9" s="104">
         <v>1</v>
       </c>
-      <c r="F9" s="110"/>
-      <c r="G9" s="161"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="158"/>
       <c r="H9" s="56"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
       <c r="K9" s="27"/>
-      <c r="L9" s="88"/>
-      <c r="M9" s="87"/>
-      <c r="N9" s="80"/>
-      <c r="O9" s="80"/>
-      <c r="P9" s="92">
+      <c r="L9" s="87"/>
+      <c r="M9" s="86"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="79"/>
+      <c r="P9" s="91">
         <v>0.5</v>
       </c>
-      <c r="Q9" s="92">
+      <c r="Q9" s="91">
         <v>0.5</v>
       </c>
       <c r="R9" s="29"/>
-      <c r="S9" s="80"/>
-      <c r="T9" s="80"/>
+      <c r="S9" s="79"/>
+      <c r="T9" s="79"/>
       <c r="U9" s="24"/>
       <c r="V9" s="28"/>
-      <c r="W9" s="29"/>
-      <c r="X9" s="78"/>
-      <c r="Y9" s="78"/>
-      <c r="Z9" s="78"/>
-      <c r="AA9" s="78"/>
-      <c r="AB9" s="78"/>
-      <c r="AC9" s="78"/>
-      <c r="AD9" s="78"/>
-      <c r="AE9" s="78"/>
-      <c r="AF9" s="78"/>
+      <c r="W9" s="145"/>
+      <c r="X9" s="77"/>
+      <c r="Y9" s="77"/>
+      <c r="Z9" s="77"/>
+      <c r="AA9" s="77"/>
+      <c r="AB9" s="77"/>
+      <c r="AC9" s="77"/>
+      <c r="AD9" s="77"/>
+      <c r="AE9" s="77"/>
+      <c r="AF9" s="77"/>
       <c r="AG9" s="74"/>
-      <c r="AH9" s="80"/>
-      <c r="AI9" s="80"/>
+      <c r="AH9" s="79"/>
+      <c r="AI9" s="79"/>
       <c r="AJ9" s="28"/>
       <c r="AK9" s="23"/>
       <c r="AL9" s="46"/>
-      <c r="AM9" s="80"/>
-      <c r="AN9" s="80"/>
+      <c r="AM9" s="79"/>
+      <c r="AN9" s="79"/>
       <c r="AO9" s="28"/>
       <c r="AP9" s="23"/>
       <c r="AQ9" s="46"/>
@@ -3908,113 +3973,111 @@
         <v>15</v>
       </c>
       <c r="B10" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="137">
+        <v>36</v>
+      </c>
+      <c r="C10" s="205">
         <v>5</v>
       </c>
-      <c r="D10" s="137" t="str">
+      <c r="D10" s="136" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E10" s="106">
+      <c r="E10" s="105">
         <v>1</v>
       </c>
-      <c r="F10" s="175"/>
-      <c r="G10" s="196">
-        <v>43116</v>
-      </c>
+      <c r="F10" s="171"/>
+      <c r="G10" s="178"/>
       <c r="H10" s="56"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
       <c r="K10" s="31"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="90"/>
-      <c r="N10" s="80"/>
-      <c r="O10" s="80"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="89"/>
+      <c r="N10" s="79"/>
+      <c r="O10" s="79"/>
       <c r="P10" s="32"/>
       <c r="Q10" s="33"/>
-      <c r="R10" s="92"/>
-      <c r="S10" s="80"/>
-      <c r="T10" s="80"/>
+      <c r="R10" s="199"/>
+      <c r="S10" s="184"/>
+      <c r="T10" s="79"/>
       <c r="U10" s="32"/>
       <c r="V10" s="33"/>
       <c r="W10" s="34"/>
-      <c r="X10" s="78"/>
-      <c r="Y10" s="78"/>
-      <c r="Z10" s="78"/>
-      <c r="AA10" s="78"/>
-      <c r="AB10" s="78"/>
-      <c r="AC10" s="78"/>
-      <c r="AD10" s="78"/>
-      <c r="AE10" s="78"/>
-      <c r="AF10" s="78"/>
-      <c r="AG10" s="78"/>
-      <c r="AH10" s="80"/>
-      <c r="AI10" s="80"/>
-      <c r="AJ10" s="92"/>
+      <c r="X10" s="77"/>
+      <c r="Y10" s="77"/>
+      <c r="Z10" s="77"/>
+      <c r="AA10" s="77"/>
+      <c r="AB10" s="77"/>
+      <c r="AC10" s="77"/>
+      <c r="AD10" s="77"/>
+      <c r="AE10" s="77"/>
+      <c r="AF10" s="77"/>
+      <c r="AG10" s="77"/>
+      <c r="AH10" s="79"/>
+      <c r="AI10" s="79"/>
+      <c r="AJ10" s="91"/>
       <c r="AK10" s="35"/>
       <c r="AL10" s="46"/>
-      <c r="AM10" s="80"/>
-      <c r="AN10" s="80"/>
-      <c r="AO10" s="155"/>
+      <c r="AM10" s="79"/>
+      <c r="AN10" s="79"/>
+      <c r="AO10" s="152"/>
       <c r="AP10" s="35"/>
       <c r="AQ10" s="46"/>
     </row>
     <row r="11" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="127">
+      <c r="A11" s="126">
         <v>20</v>
       </c>
-      <c r="B11" s="126" t="s">
+      <c r="B11" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="167">
+      <c r="C11" s="166">
         <f>SUM(C12:C15)</f>
         <v>8</v>
       </c>
-      <c r="D11" s="136">
+      <c r="D11" s="163">
         <f>SUM(D12:D15)</f>
         <v>6</v>
       </c>
-      <c r="E11" s="165"/>
-      <c r="F11" s="169"/>
-      <c r="G11" s="128"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="119"/>
-      <c r="K11" s="174"/>
-      <c r="L11" s="121"/>
-      <c r="M11" s="122"/>
-      <c r="N11" s="123"/>
-      <c r="O11" s="120"/>
-      <c r="P11" s="121"/>
-      <c r="Q11" s="119"/>
-      <c r="R11" s="124"/>
-      <c r="S11" s="123"/>
-      <c r="T11" s="120"/>
-      <c r="U11" s="121"/>
-      <c r="V11" s="119"/>
-      <c r="W11" s="124"/>
-      <c r="X11" s="123"/>
-      <c r="Y11" s="120"/>
-      <c r="Z11" s="121"/>
-      <c r="AA11" s="119"/>
-      <c r="AB11" s="124"/>
-      <c r="AC11" s="123"/>
-      <c r="AD11" s="120"/>
-      <c r="AE11" s="121"/>
-      <c r="AF11" s="119"/>
-      <c r="AG11" s="124"/>
-      <c r="AH11" s="123"/>
-      <c r="AI11" s="120"/>
-      <c r="AJ11" s="120"/>
-      <c r="AK11" s="121"/>
-      <c r="AL11" s="125"/>
-      <c r="AM11" s="123"/>
-      <c r="AN11" s="120"/>
-      <c r="AO11" s="120"/>
-      <c r="AP11" s="121"/>
-      <c r="AQ11" s="125"/>
+      <c r="E11" s="162"/>
+      <c r="F11" s="165"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="116"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="118"/>
+      <c r="K11" s="170"/>
+      <c r="L11" s="120"/>
+      <c r="M11" s="121"/>
+      <c r="N11" s="122"/>
+      <c r="O11" s="119"/>
+      <c r="P11" s="120"/>
+      <c r="Q11" s="118"/>
+      <c r="R11" s="123"/>
+      <c r="S11" s="122"/>
+      <c r="T11" s="119"/>
+      <c r="U11" s="120"/>
+      <c r="V11" s="118"/>
+      <c r="W11" s="123"/>
+      <c r="X11" s="122"/>
+      <c r="Y11" s="122"/>
+      <c r="Z11" s="116"/>
+      <c r="AA11" s="122"/>
+      <c r="AB11" s="116"/>
+      <c r="AC11" s="122"/>
+      <c r="AD11" s="116"/>
+      <c r="AE11" s="116"/>
+      <c r="AF11" s="116"/>
+      <c r="AG11" s="121"/>
+      <c r="AH11" s="122"/>
+      <c r="AI11" s="119"/>
+      <c r="AJ11" s="119"/>
+      <c r="AK11" s="120"/>
+      <c r="AL11" s="124"/>
+      <c r="AM11" s="122"/>
+      <c r="AN11" s="119"/>
+      <c r="AO11" s="119"/>
+      <c r="AP11" s="120"/>
+      <c r="AQ11" s="124"/>
     </row>
     <row r="12" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="39">
@@ -4023,57 +4086,55 @@
       <c r="B12" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="137">
+      <c r="C12" s="202">
         <v>5</v>
       </c>
-      <c r="D12" s="137">
+      <c r="D12" s="203">
         <f>IF(SUM(J12:AR12)=0," ",SUM(J12:AR12))</f>
         <v>6</v>
       </c>
-      <c r="E12" s="104">
+      <c r="E12" s="103">
         <v>1</v>
       </c>
-      <c r="F12" s="110"/>
-      <c r="G12" s="193">
-        <v>43082</v>
-      </c>
+      <c r="F12" s="109"/>
+      <c r="G12" s="175"/>
       <c r="H12" s="56"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="80"/>
-      <c r="K12" s="92">
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="91">
         <v>4</v>
       </c>
-      <c r="L12" s="86"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="80"/>
-      <c r="O12" s="80"/>
-      <c r="P12" s="92">
+      <c r="L12" s="85"/>
+      <c r="M12" s="86"/>
+      <c r="N12" s="79"/>
+      <c r="O12" s="79"/>
+      <c r="P12" s="91">
         <v>2</v>
       </c>
       <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="80"/>
-      <c r="T12" s="80"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="183"/>
+      <c r="T12" s="79"/>
       <c r="U12" s="24"/>
       <c r="V12" s="25"/>
-      <c r="W12" s="25"/>
-      <c r="X12" s="77"/>
-      <c r="Y12" s="77"/>
-      <c r="Z12" s="77"/>
-      <c r="AA12" s="77"/>
-      <c r="AB12" s="77"/>
-      <c r="AC12" s="77"/>
-      <c r="AD12" s="77"/>
-      <c r="AE12" s="77"/>
-      <c r="AF12" s="77"/>
-      <c r="AG12" s="77"/>
-      <c r="AH12" s="80"/>
-      <c r="AI12" s="80"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="200"/>
+      <c r="Y12" s="191"/>
+      <c r="Z12" s="191"/>
+      <c r="AA12" s="191"/>
+      <c r="AB12" s="191"/>
+      <c r="AC12" s="191"/>
+      <c r="AD12" s="191"/>
+      <c r="AE12" s="191"/>
+      <c r="AF12" s="191"/>
+      <c r="AG12" s="200"/>
+      <c r="AH12" s="79"/>
+      <c r="AI12" s="79"/>
       <c r="AJ12" s="25"/>
       <c r="AK12" s="36"/>
       <c r="AL12" s="48"/>
-      <c r="AM12" s="80"/>
-      <c r="AN12" s="80"/>
+      <c r="AM12" s="79"/>
+      <c r="AN12" s="79"/>
       <c r="AO12" s="25"/>
       <c r="AP12" s="36"/>
       <c r="AQ12" s="48"/>
@@ -4083,53 +4144,51 @@
         <v>22</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="137">
+        <v>45</v>
+      </c>
+      <c r="C13" s="204">
         <v>3</v>
       </c>
-      <c r="D13" s="137" t="str">
+      <c r="D13" s="136" t="str">
         <f t="shared" ref="D13:D15" si="1">IF(SUM(J13:AR13)=0," ",SUM(J13:AR13))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E13" s="104"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="194">
-        <v>43091</v>
-      </c>
+      <c r="E13" s="103"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="176"/>
       <c r="H13" s="56"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="80"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
       <c r="K13" s="27"/>
-      <c r="L13" s="86"/>
-      <c r="M13" s="87"/>
-      <c r="N13" s="80"/>
-      <c r="O13" s="80"/>
+      <c r="L13" s="85"/>
+      <c r="M13" s="86"/>
+      <c r="N13" s="79"/>
+      <c r="O13" s="79"/>
       <c r="P13" s="24"/>
       <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="80"/>
-      <c r="T13" s="80"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="182"/>
+      <c r="T13" s="79"/>
       <c r="U13" s="24"/>
       <c r="V13" s="25"/>
-      <c r="W13" s="92"/>
-      <c r="X13" s="77"/>
-      <c r="Y13" s="77"/>
-      <c r="Z13" s="77"/>
-      <c r="AA13" s="77"/>
-      <c r="AB13" s="77"/>
-      <c r="AC13" s="77"/>
-      <c r="AD13" s="77"/>
-      <c r="AE13" s="77"/>
-      <c r="AF13" s="77"/>
-      <c r="AG13" s="77"/>
-      <c r="AH13" s="80"/>
-      <c r="AI13" s="80"/>
+      <c r="W13" s="145"/>
+      <c r="X13" s="195"/>
+      <c r="Y13" s="196"/>
+      <c r="Z13" s="195"/>
+      <c r="AA13" s="196"/>
+      <c r="AB13" s="196"/>
+      <c r="AC13" s="196"/>
+      <c r="AD13" s="195"/>
+      <c r="AE13" s="197"/>
+      <c r="AF13" s="196"/>
+      <c r="AG13" s="195"/>
+      <c r="AH13" s="79"/>
+      <c r="AI13" s="79"/>
       <c r="AJ13" s="25"/>
       <c r="AK13" s="36"/>
       <c r="AL13" s="48"/>
-      <c r="AM13" s="80"/>
-      <c r="AN13" s="80"/>
+      <c r="AM13" s="79"/>
+      <c r="AN13" s="79"/>
       <c r="AO13" s="25"/>
       <c r="AP13" s="36"/>
       <c r="AQ13" s="48"/>
@@ -4139,47 +4198,47 @@
         <v>23</v>
       </c>
       <c r="B14" s="42"/>
-      <c r="C14" s="137"/>
-      <c r="D14" s="137" t="str">
+      <c r="C14" s="204"/>
+      <c r="D14" s="136" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E14" s="104"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="161"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="158"/>
       <c r="H14" s="56"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="80"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
       <c r="K14" s="27"/>
-      <c r="L14" s="86"/>
-      <c r="M14" s="87"/>
-      <c r="N14" s="80"/>
-      <c r="O14" s="80"/>
+      <c r="L14" s="85"/>
+      <c r="M14" s="86"/>
+      <c r="N14" s="79"/>
+      <c r="O14" s="79"/>
       <c r="P14" s="24"/>
       <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="80"/>
-      <c r="T14" s="80"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="182"/>
+      <c r="T14" s="79"/>
       <c r="U14" s="24"/>
       <c r="V14" s="25"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="77"/>
-      <c r="Y14" s="77"/>
-      <c r="Z14" s="77"/>
-      <c r="AA14" s="77"/>
-      <c r="AB14" s="77"/>
-      <c r="AC14" s="77"/>
-      <c r="AD14" s="77"/>
-      <c r="AE14" s="77"/>
-      <c r="AF14" s="77"/>
-      <c r="AG14" s="77"/>
-      <c r="AH14" s="80"/>
-      <c r="AI14" s="80"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="195"/>
+      <c r="Y14" s="195"/>
+      <c r="Z14" s="194"/>
+      <c r="AA14" s="195"/>
+      <c r="AB14" s="197"/>
+      <c r="AC14" s="196"/>
+      <c r="AD14" s="195"/>
+      <c r="AE14" s="197"/>
+      <c r="AF14" s="196"/>
+      <c r="AG14" s="196"/>
+      <c r="AH14" s="182"/>
+      <c r="AI14" s="79"/>
       <c r="AJ14" s="25"/>
       <c r="AK14" s="36"/>
       <c r="AL14" s="48"/>
-      <c r="AM14" s="80"/>
-      <c r="AN14" s="80"/>
+      <c r="AM14" s="79"/>
+      <c r="AN14" s="79"/>
       <c r="AO14" s="25"/>
       <c r="AP14" s="36"/>
       <c r="AQ14" s="48"/>
@@ -4189,144 +4248,142 @@
         <v>24</v>
       </c>
       <c r="B15" s="42"/>
-      <c r="C15" s="137"/>
-      <c r="D15" s="137" t="str">
+      <c r="C15" s="202"/>
+      <c r="D15" s="205" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E15" s="104"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="162"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="159"/>
       <c r="H15" s="56"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
       <c r="K15" s="27"/>
-      <c r="L15" s="86"/>
-      <c r="M15" s="87"/>
-      <c r="N15" s="80"/>
-      <c r="O15" s="80"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="86"/>
+      <c r="N15" s="79"/>
+      <c r="O15" s="79"/>
       <c r="P15" s="24"/>
       <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="80"/>
-      <c r="T15" s="80"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="184"/>
+      <c r="T15" s="79"/>
       <c r="U15" s="24"/>
       <c r="V15" s="25"/>
-      <c r="W15" s="25"/>
-      <c r="X15" s="77"/>
-      <c r="Y15" s="77"/>
-      <c r="Z15" s="77"/>
-      <c r="AA15" s="77"/>
-      <c r="AB15" s="77"/>
-      <c r="AC15" s="77"/>
-      <c r="AD15" s="77"/>
-      <c r="AE15" s="77"/>
-      <c r="AF15" s="77"/>
-      <c r="AG15" s="77"/>
-      <c r="AH15" s="80"/>
-      <c r="AI15" s="80"/>
+      <c r="W15" s="36"/>
+      <c r="X15" s="193"/>
+      <c r="Y15" s="192"/>
+      <c r="Z15" s="193"/>
+      <c r="AA15" s="192"/>
+      <c r="AB15" s="192"/>
+      <c r="AC15" s="192"/>
+      <c r="AD15" s="193"/>
+      <c r="AE15" s="197"/>
+      <c r="AF15" s="192"/>
+      <c r="AG15" s="192"/>
+      <c r="AH15" s="184"/>
+      <c r="AI15" s="79"/>
       <c r="AJ15" s="25"/>
       <c r="AK15" s="36"/>
       <c r="AL15" s="48"/>
-      <c r="AM15" s="80"/>
-      <c r="AN15" s="80"/>
+      <c r="AM15" s="79"/>
+      <c r="AN15" s="79"/>
       <c r="AO15" s="25"/>
       <c r="AP15" s="36"/>
       <c r="AQ15" s="48"/>
     </row>
     <row r="16" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="127">
+      <c r="A16" s="126">
         <v>30</v>
       </c>
-      <c r="B16" s="126" t="s">
+      <c r="B16" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="166">
+      <c r="C16" s="163">
         <f>SUM(C17:C23)</f>
-        <v>56</v>
-      </c>
-      <c r="D16" s="166">
+        <v>62</v>
+      </c>
+      <c r="D16" s="163">
         <f>SUM(D17:D23)</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="115"/>
-      <c r="F16" s="168"/>
-      <c r="G16" s="164"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="118"/>
-      <c r="J16" s="119"/>
-      <c r="K16" s="120"/>
-      <c r="L16" s="121"/>
-      <c r="M16" s="122"/>
-      <c r="N16" s="123"/>
-      <c r="O16" s="120"/>
-      <c r="P16" s="121"/>
-      <c r="Q16" s="119"/>
-      <c r="R16" s="124"/>
-      <c r="S16" s="123"/>
-      <c r="T16" s="120"/>
-      <c r="U16" s="121"/>
-      <c r="V16" s="119"/>
-      <c r="W16" s="124"/>
-      <c r="X16" s="123"/>
-      <c r="Y16" s="120"/>
-      <c r="Z16" s="121"/>
-      <c r="AA16" s="119"/>
-      <c r="AB16" s="124"/>
-      <c r="AC16" s="123"/>
-      <c r="AD16" s="120"/>
-      <c r="AE16" s="121"/>
-      <c r="AF16" s="119"/>
-      <c r="AG16" s="124"/>
-      <c r="AH16" s="123"/>
-      <c r="AI16" s="120"/>
-      <c r="AJ16" s="120"/>
-      <c r="AK16" s="121"/>
-      <c r="AL16" s="125"/>
-      <c r="AM16" s="123"/>
-      <c r="AN16" s="120"/>
-      <c r="AO16" s="120"/>
-      <c r="AP16" s="121"/>
-      <c r="AQ16" s="125"/>
+        <v>7.5</v>
+      </c>
+      <c r="E16" s="114"/>
+      <c r="F16" s="164"/>
+      <c r="G16" s="161"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="118"/>
+      <c r="K16" s="119"/>
+      <c r="L16" s="120"/>
+      <c r="M16" s="121"/>
+      <c r="N16" s="122"/>
+      <c r="O16" s="119"/>
+      <c r="P16" s="120"/>
+      <c r="Q16" s="118"/>
+      <c r="R16" s="123"/>
+      <c r="S16" s="122"/>
+      <c r="T16" s="119"/>
+      <c r="U16" s="120"/>
+      <c r="V16" s="118"/>
+      <c r="W16" s="123"/>
+      <c r="X16" s="122"/>
+      <c r="Y16" s="116"/>
+      <c r="Z16" s="118"/>
+      <c r="AA16" s="116"/>
+      <c r="AB16" s="121"/>
+      <c r="AC16" s="122"/>
+      <c r="AD16" s="116"/>
+      <c r="AE16" s="116"/>
+      <c r="AF16" s="121"/>
+      <c r="AG16" s="121"/>
+      <c r="AH16" s="122"/>
+      <c r="AI16" s="119"/>
+      <c r="AJ16" s="119"/>
+      <c r="AK16" s="120"/>
+      <c r="AL16" s="124"/>
+      <c r="AM16" s="122"/>
+      <c r="AN16" s="119"/>
+      <c r="AO16" s="119"/>
+      <c r="AP16" s="120"/>
+      <c r="AQ16" s="124"/>
     </row>
     <row r="17" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="39">
         <v>31</v>
       </c>
       <c r="B17" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="138">
+        <v>46</v>
+      </c>
+      <c r="C17" s="137">
         <v>2</v>
       </c>
-      <c r="D17" s="138" t="str">
+      <c r="D17" s="203" t="str">
         <f>IF(SUM(I17:AQ17)=0," ",SUM(I17:AQ17))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E17" s="104">
+      <c r="E17" s="103">
         <v>1</v>
       </c>
-      <c r="F17" s="110"/>
-      <c r="G17" s="193">
-        <v>43090</v>
-      </c>
+      <c r="F17" s="109"/>
+      <c r="G17" s="175"/>
       <c r="H17" s="56"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="80"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
       <c r="K17" s="24"/>
-      <c r="L17" s="86"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="80"/>
-      <c r="O17" s="80"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="86"/>
+      <c r="N17" s="79"/>
+      <c r="O17" s="79"/>
       <c r="P17" s="24"/>
       <c r="Q17" s="25"/>
       <c r="R17" s="26"/>
-      <c r="S17" s="80"/>
-      <c r="T17" s="80"/>
-      <c r="U17" s="92"/>
-      <c r="V17" s="92"/>
-      <c r="W17" s="146"/>
-      <c r="X17" s="76"/>
+      <c r="S17" s="79"/>
+      <c r="T17" s="79"/>
+      <c r="U17" s="91"/>
+      <c r="V17" s="91"/>
+      <c r="W17" s="199"/>
+      <c r="X17" s="187"/>
       <c r="Y17" s="76"/>
       <c r="Z17" s="76"/>
       <c r="AA17" s="76"/>
@@ -4335,14 +4392,14 @@
       <c r="AD17" s="76"/>
       <c r="AE17" s="76"/>
       <c r="AF17" s="76"/>
-      <c r="AG17" s="92"/>
-      <c r="AH17" s="80"/>
-      <c r="AI17" s="80"/>
-      <c r="AJ17" s="92"/>
+      <c r="AG17" s="145"/>
+      <c r="AH17" s="183"/>
+      <c r="AI17" s="79"/>
+      <c r="AJ17" s="91"/>
       <c r="AK17" s="36"/>
       <c r="AL17" s="48"/>
-      <c r="AM17" s="80"/>
-      <c r="AN17" s="80"/>
+      <c r="AM17" s="79"/>
+      <c r="AN17" s="79"/>
       <c r="AO17" s="25"/>
       <c r="AP17" s="36"/>
       <c r="AQ17" s="48"/>
@@ -4352,55 +4409,59 @@
         <v>32</v>
       </c>
       <c r="B18" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="138">
+        <v>48</v>
+      </c>
+      <c r="C18" s="137">
+        <v>9</v>
+      </c>
+      <c r="D18" s="204">
+        <f t="shared" ref="D18:D23" si="2">IF(SUM(I18:AQ18)=0," ",SUM(I18:AQ18))</f>
+        <v>5</v>
+      </c>
+      <c r="E18" s="103">
+        <v>1</v>
+      </c>
+      <c r="F18" s="109"/>
+      <c r="G18" s="175">
+        <v>43110</v>
+      </c>
+      <c r="H18" s="56"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="85"/>
+      <c r="M18" s="86"/>
+      <c r="N18" s="79"/>
+      <c r="O18" s="79"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="91">
         <v>3</v>
       </c>
-      <c r="D18" s="138" t="str">
-        <f t="shared" ref="D18:D23" si="2">IF(SUM(I18:AQ18)=0," ",SUM(I18:AQ18))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E18" s="104">
-        <v>1</v>
-      </c>
-      <c r="F18" s="110"/>
-      <c r="G18" s="194">
-        <v>43111</v>
-      </c>
-      <c r="H18" s="56"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="80"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="86"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="80"/>
-      <c r="O18" s="80"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="80"/>
-      <c r="T18" s="80"/>
-      <c r="U18" s="24"/>
+      <c r="R18" s="145">
+        <v>2</v>
+      </c>
+      <c r="S18" s="182"/>
+      <c r="T18" s="79"/>
+      <c r="U18" s="91"/>
       <c r="V18" s="25"/>
       <c r="W18" s="26"/>
       <c r="X18" s="76"/>
-      <c r="Y18" s="92"/>
-      <c r="Z18" s="76"/>
+      <c r="Y18" s="198"/>
+      <c r="Z18" s="185"/>
       <c r="AA18" s="76"/>
-      <c r="AB18" s="92"/>
-      <c r="AC18" s="76"/>
+      <c r="AB18" s="188"/>
+      <c r="AC18" s="185"/>
       <c r="AD18" s="76"/>
-      <c r="AE18" s="92"/>
-      <c r="AF18" s="76"/>
+      <c r="AE18" s="188"/>
+      <c r="AF18" s="185"/>
       <c r="AG18" s="76"/>
-      <c r="AH18" s="80"/>
-      <c r="AI18" s="80"/>
-      <c r="AJ18" s="92"/>
-      <c r="AK18" s="92"/>
+      <c r="AH18" s="79"/>
+      <c r="AI18" s="79"/>
+      <c r="AJ18" s="143"/>
+      <c r="AK18" s="143"/>
       <c r="AL18" s="48"/>
-      <c r="AM18" s="80"/>
-      <c r="AN18" s="80"/>
+      <c r="AM18" s="79"/>
+      <c r="AN18" s="79"/>
       <c r="AO18" s="25"/>
       <c r="AP18" s="36"/>
       <c r="AQ18" s="48"/>
@@ -4410,41 +4471,39 @@
         <v>33</v>
       </c>
       <c r="B19" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="138">
+        <v>47</v>
+      </c>
+      <c r="C19" s="137">
         <v>1</v>
       </c>
-      <c r="D19" s="138" t="str">
+      <c r="D19" s="204" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E19" s="104">
+      <c r="E19" s="103">
         <v>1</v>
       </c>
-      <c r="F19" s="110"/>
-      <c r="G19" s="194">
-        <v>43094</v>
-      </c>
+      <c r="F19" s="109"/>
+      <c r="G19" s="176"/>
       <c r="H19" s="56"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="80"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="79"/>
       <c r="K19" s="24"/>
-      <c r="L19" s="86"/>
-      <c r="M19" s="87"/>
-      <c r="N19" s="80"/>
-      <c r="O19" s="80"/>
+      <c r="L19" s="85"/>
+      <c r="M19" s="86"/>
+      <c r="N19" s="79"/>
+      <c r="O19" s="79"/>
       <c r="P19" s="24"/>
       <c r="Q19" s="25"/>
       <c r="R19" s="26"/>
-      <c r="S19" s="80"/>
-      <c r="T19" s="80"/>
+      <c r="S19" s="79"/>
+      <c r="T19" s="79"/>
       <c r="U19" s="24"/>
       <c r="V19" s="25"/>
       <c r="W19" s="26"/>
-      <c r="X19" s="92"/>
-      <c r="Y19" s="76"/>
-      <c r="Z19" s="76"/>
+      <c r="X19" s="198"/>
+      <c r="Y19" s="186"/>
+      <c r="Z19" s="185"/>
       <c r="AA19" s="76"/>
       <c r="AB19" s="76"/>
       <c r="AC19" s="76"/>
@@ -4452,13 +4511,13 @@
       <c r="AE19" s="76"/>
       <c r="AF19" s="76"/>
       <c r="AG19" s="76"/>
-      <c r="AH19" s="80"/>
-      <c r="AI19" s="80"/>
+      <c r="AH19" s="79"/>
+      <c r="AI19" s="79"/>
       <c r="AJ19" s="25"/>
       <c r="AK19" s="36"/>
       <c r="AL19" s="48"/>
-      <c r="AM19" s="80"/>
-      <c r="AN19" s="80"/>
+      <c r="AM19" s="79"/>
+      <c r="AN19" s="79"/>
       <c r="AO19" s="25"/>
       <c r="AP19" s="36"/>
       <c r="AQ19" s="48"/>
@@ -4468,56 +4527,56 @@
         <v>34</v>
       </c>
       <c r="B20" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="138">
+        <v>49</v>
+      </c>
+      <c r="C20" s="204">
         <v>45</v>
       </c>
-      <c r="D20" s="138" t="str">
+      <c r="D20" s="202">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E20" s="104">
+        <v>2</v>
+      </c>
+      <c r="E20" s="103">
         <v>1</v>
       </c>
-      <c r="F20" s="110"/>
-      <c r="G20" s="194">
-        <v>43112</v>
-      </c>
+      <c r="F20" s="109"/>
+      <c r="G20" s="176"/>
       <c r="H20" s="56"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="80"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="79"/>
       <c r="K20" s="24"/>
-      <c r="L20" s="86"/>
-      <c r="M20" s="87"/>
-      <c r="N20" s="80"/>
-      <c r="O20" s="80"/>
+      <c r="L20" s="85"/>
+      <c r="M20" s="86"/>
+      <c r="N20" s="79"/>
+      <c r="O20" s="79"/>
       <c r="P20" s="24"/>
-      <c r="Q20" s="92"/>
-      <c r="R20" s="92"/>
-      <c r="S20" s="80"/>
-      <c r="T20" s="80"/>
-      <c r="U20" s="92"/>
-      <c r="V20" s="92"/>
-      <c r="W20" s="146"/>
-      <c r="X20" s="76"/>
-      <c r="Y20" s="76"/>
-      <c r="Z20" s="76"/>
-      <c r="AA20" s="76"/>
-      <c r="AB20" s="76"/>
+      <c r="Q20" s="143"/>
+      <c r="R20" s="145">
+        <v>2</v>
+      </c>
+      <c r="S20" s="182"/>
+      <c r="T20" s="79"/>
+      <c r="U20" s="143"/>
+      <c r="V20" s="143"/>
+      <c r="W20" s="199"/>
+      <c r="X20" s="185"/>
+      <c r="Y20" s="189"/>
+      <c r="Z20" s="185"/>
+      <c r="AA20" s="198"/>
+      <c r="AB20" s="185"/>
       <c r="AC20" s="76"/>
       <c r="AD20" s="76"/>
       <c r="AE20" s="76"/>
-      <c r="AF20" s="76"/>
+      <c r="AF20" s="91"/>
       <c r="AG20" s="76"/>
-      <c r="AH20" s="80"/>
-      <c r="AI20" s="80"/>
-      <c r="AJ20" s="92"/>
-      <c r="AK20" s="92"/>
-      <c r="AL20" s="148"/>
-      <c r="AM20" s="150"/>
-      <c r="AN20" s="80"/>
-      <c r="AO20" s="146"/>
+      <c r="AH20" s="79"/>
+      <c r="AI20" s="79"/>
+      <c r="AJ20" s="91"/>
+      <c r="AK20" s="91"/>
+      <c r="AL20" s="145"/>
+      <c r="AM20" s="147"/>
+      <c r="AN20" s="79"/>
+      <c r="AO20" s="143"/>
       <c r="AP20" s="36"/>
       <c r="AQ20" s="48"/>
     </row>
@@ -4526,55 +4585,57 @@
         <v>35</v>
       </c>
       <c r="B21" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="138">
+        <v>50</v>
+      </c>
+      <c r="C21" s="137">
         <v>5</v>
       </c>
-      <c r="D21" s="138" t="str">
+      <c r="D21" s="204">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E21" s="104">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="103">
         <v>1</v>
       </c>
-      <c r="F21" s="163"/>
-      <c r="G21" s="197">
-        <v>43112</v>
+      <c r="F21" s="160"/>
+      <c r="G21" s="179">
+        <v>43091</v>
       </c>
       <c r="H21" s="56"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="80"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="79"/>
       <c r="K21" s="24"/>
-      <c r="L21" s="86"/>
-      <c r="M21" s="87"/>
-      <c r="N21" s="80"/>
-      <c r="O21" s="80"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="86"/>
+      <c r="N21" s="79"/>
+      <c r="O21" s="79"/>
       <c r="P21" s="24"/>
       <c r="Q21" s="25"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="80"/>
-      <c r="T21" s="80"/>
+      <c r="R21" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="S21" s="79"/>
+      <c r="T21" s="79"/>
       <c r="U21" s="24"/>
       <c r="V21" s="25"/>
-      <c r="W21" s="92"/>
-      <c r="X21" s="76"/>
-      <c r="Y21" s="76"/>
-      <c r="Z21" s="76"/>
-      <c r="AA21" s="76"/>
-      <c r="AB21" s="76"/>
+      <c r="W21" s="145"/>
+      <c r="X21" s="185"/>
+      <c r="Y21" s="190"/>
+      <c r="Z21" s="185"/>
+      <c r="AA21" s="188"/>
+      <c r="AB21" s="185"/>
       <c r="AC21" s="76"/>
       <c r="AD21" s="76"/>
       <c r="AE21" s="76"/>
       <c r="AF21" s="76"/>
       <c r="AG21" s="76"/>
-      <c r="AH21" s="80"/>
-      <c r="AI21" s="80"/>
-      <c r="AJ21" s="146"/>
+      <c r="AH21" s="79"/>
+      <c r="AI21" s="79"/>
+      <c r="AJ21" s="143"/>
       <c r="AK21" s="36"/>
       <c r="AL21" s="48"/>
-      <c r="AM21" s="80"/>
-      <c r="AN21" s="80"/>
+      <c r="AM21" s="79"/>
+      <c r="AN21" s="79"/>
       <c r="AO21" s="25"/>
       <c r="AP21" s="36"/>
       <c r="AQ21" s="48"/>
@@ -4583,32 +4644,28 @@
       <c r="A22" s="39">
         <v>36</v>
       </c>
-      <c r="B22" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="138"/>
-      <c r="D22" s="138" t="str">
+      <c r="B22" s="49"/>
+      <c r="C22" s="204"/>
+      <c r="D22" s="202" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E22" s="104">
-        <v>1</v>
-      </c>
-      <c r="F22" s="110"/>
-      <c r="G22" s="161"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="158"/>
       <c r="H22" s="56"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="80"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="79"/>
       <c r="K22" s="24"/>
-      <c r="L22" s="86"/>
-      <c r="M22" s="87"/>
-      <c r="N22" s="80"/>
-      <c r="O22" s="80"/>
+      <c r="L22" s="85"/>
+      <c r="M22" s="86"/>
+      <c r="N22" s="79"/>
+      <c r="O22" s="79"/>
       <c r="P22" s="24"/>
       <c r="Q22" s="25"/>
       <c r="R22" s="26"/>
-      <c r="S22" s="80"/>
-      <c r="T22" s="80"/>
+      <c r="S22" s="79"/>
+      <c r="T22" s="79"/>
       <c r="U22" s="24"/>
       <c r="V22" s="25"/>
       <c r="W22" s="26"/>
@@ -4622,13 +4679,13 @@
       <c r="AE22" s="76"/>
       <c r="AF22" s="76"/>
       <c r="AG22" s="76"/>
-      <c r="AH22" s="80"/>
-      <c r="AI22" s="80"/>
+      <c r="AH22" s="79"/>
+      <c r="AI22" s="79"/>
       <c r="AJ22" s="25"/>
       <c r="AK22" s="36"/>
       <c r="AL22" s="48"/>
-      <c r="AM22" s="80"/>
-      <c r="AN22" s="80"/>
+      <c r="AM22" s="79"/>
+      <c r="AN22" s="79"/>
       <c r="AO22" s="25"/>
       <c r="AP22" s="36"/>
       <c r="AQ22" s="48"/>
@@ -4637,32 +4694,28 @@
       <c r="A23" s="39">
         <v>37</v>
       </c>
-      <c r="B23" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="138"/>
-      <c r="D23" s="138" t="str">
+      <c r="B23" s="49"/>
+      <c r="C23" s="137"/>
+      <c r="D23" s="205" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E23" s="105">
-        <v>1</v>
-      </c>
-      <c r="F23" s="110"/>
-      <c r="G23" s="162"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="159"/>
       <c r="H23" s="56"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="80"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="79"/>
       <c r="K23" s="27"/>
-      <c r="L23" s="88"/>
-      <c r="M23" s="87"/>
-      <c r="N23" s="80"/>
-      <c r="O23" s="80"/>
+      <c r="L23" s="87"/>
+      <c r="M23" s="86"/>
+      <c r="N23" s="79"/>
+      <c r="O23" s="79"/>
       <c r="P23" s="24"/>
       <c r="Q23" s="28"/>
       <c r="R23" s="29"/>
-      <c r="S23" s="80"/>
-      <c r="T23" s="80"/>
+      <c r="S23" s="79"/>
+      <c r="T23" s="79"/>
       <c r="U23" s="24"/>
       <c r="V23" s="28"/>
       <c r="W23" s="29"/>
@@ -4676,71 +4729,71 @@
       <c r="AE23" s="76"/>
       <c r="AF23" s="76"/>
       <c r="AG23" s="76"/>
-      <c r="AH23" s="80"/>
-      <c r="AI23" s="80"/>
+      <c r="AH23" s="79"/>
+      <c r="AI23" s="79"/>
       <c r="AJ23" s="28"/>
       <c r="AK23" s="23"/>
       <c r="AL23" s="46"/>
-      <c r="AM23" s="80"/>
-      <c r="AN23" s="80"/>
+      <c r="AM23" s="79"/>
+      <c r="AN23" s="79"/>
       <c r="AO23" s="28"/>
       <c r="AP23" s="23"/>
       <c r="AQ23" s="46"/>
     </row>
     <row r="24" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="127">
+      <c r="A24" s="126">
         <v>40</v>
       </c>
-      <c r="B24" s="126" t="s">
+      <c r="B24" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="166">
+      <c r="C24" s="163">
         <f>SUM(C25:C27)</f>
-        <v>15</v>
-      </c>
-      <c r="D24" s="166">
+        <v>21</v>
+      </c>
+      <c r="D24" s="163">
         <f>SUM(D25:D27)</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="165"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="164"/>
-      <c r="H24" s="117"/>
-      <c r="I24" s="118"/>
-      <c r="J24" s="119"/>
-      <c r="K24" s="120"/>
-      <c r="L24" s="121"/>
-      <c r="M24" s="122"/>
-      <c r="N24" s="123"/>
-      <c r="O24" s="120"/>
-      <c r="P24" s="121"/>
-      <c r="Q24" s="119"/>
-      <c r="R24" s="124"/>
-      <c r="S24" s="123"/>
-      <c r="T24" s="120"/>
-      <c r="U24" s="121"/>
-      <c r="V24" s="119"/>
-      <c r="W24" s="124"/>
-      <c r="X24" s="123"/>
-      <c r="Y24" s="120"/>
-      <c r="Z24" s="121"/>
-      <c r="AA24" s="119"/>
-      <c r="AB24" s="124"/>
-      <c r="AC24" s="123"/>
-      <c r="AD24" s="120"/>
-      <c r="AE24" s="121"/>
-      <c r="AF24" s="119"/>
-      <c r="AG24" s="124"/>
-      <c r="AH24" s="123"/>
-      <c r="AI24" s="120"/>
-      <c r="AJ24" s="120"/>
-      <c r="AK24" s="121"/>
-      <c r="AL24" s="125"/>
-      <c r="AM24" s="123"/>
-      <c r="AN24" s="120"/>
-      <c r="AO24" s="120"/>
-      <c r="AP24" s="121"/>
-      <c r="AQ24" s="125"/>
+        <v>6.5</v>
+      </c>
+      <c r="E24" s="162"/>
+      <c r="F24" s="115"/>
+      <c r="G24" s="161"/>
+      <c r="H24" s="116"/>
+      <c r="I24" s="117"/>
+      <c r="J24" s="118"/>
+      <c r="K24" s="119"/>
+      <c r="L24" s="120"/>
+      <c r="M24" s="121"/>
+      <c r="N24" s="122"/>
+      <c r="O24" s="119"/>
+      <c r="P24" s="120"/>
+      <c r="Q24" s="118"/>
+      <c r="R24" s="123"/>
+      <c r="S24" s="122"/>
+      <c r="T24" s="119"/>
+      <c r="U24" s="120"/>
+      <c r="V24" s="118"/>
+      <c r="W24" s="123"/>
+      <c r="X24" s="122"/>
+      <c r="Y24" s="116"/>
+      <c r="Z24" s="118"/>
+      <c r="AA24" s="122"/>
+      <c r="AB24" s="116"/>
+      <c r="AC24" s="116"/>
+      <c r="AD24" s="118"/>
+      <c r="AE24" s="116"/>
+      <c r="AF24" s="118"/>
+      <c r="AG24" s="116"/>
+      <c r="AH24" s="122"/>
+      <c r="AI24" s="119"/>
+      <c r="AJ24" s="119"/>
+      <c r="AK24" s="120"/>
+      <c r="AL24" s="124"/>
+      <c r="AM24" s="122"/>
+      <c r="AN24" s="119"/>
+      <c r="AO24" s="119"/>
+      <c r="AP24" s="120"/>
+      <c r="AQ24" s="124"/>
     </row>
     <row r="25" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="39">
@@ -4749,33 +4802,33 @@
       <c r="B25" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="137">
+      <c r="C25" s="202">
         <v>1</v>
       </c>
-      <c r="D25" s="137" t="str">
+      <c r="D25" s="203">
         <f>IF(SUM(J25:AR25)=0," ",SUM(J25:AR25))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E25" s="104">
         <v>1</v>
       </c>
-      <c r="F25" s="110"/>
-      <c r="G25" s="193">
-        <v>43083</v>
-      </c>
+      <c r="E25" s="103">
+        <v>1</v>
+      </c>
+      <c r="F25" s="109"/>
+      <c r="G25" s="175"/>
       <c r="H25" s="57"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="80"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="79"/>
       <c r="K25" s="24"/>
-      <c r="L25" s="86"/>
-      <c r="M25" s="87"/>
-      <c r="N25" s="80"/>
-      <c r="O25" s="80"/>
+      <c r="L25" s="85"/>
+      <c r="M25" s="86"/>
+      <c r="N25" s="79"/>
+      <c r="O25" s="79"/>
       <c r="P25" s="24"/>
-      <c r="Q25" s="92"/>
+      <c r="Q25" s="91">
+        <v>1</v>
+      </c>
       <c r="R25" s="26"/>
-      <c r="S25" s="80"/>
-      <c r="T25" s="80"/>
+      <c r="S25" s="79"/>
+      <c r="T25" s="79"/>
       <c r="U25" s="24"/>
       <c r="V25" s="25"/>
       <c r="W25" s="26"/>
@@ -4783,19 +4836,19 @@
       <c r="Y25" s="76"/>
       <c r="Z25" s="76"/>
       <c r="AA25" s="76"/>
-      <c r="AB25" s="76"/>
+      <c r="AB25" s="187"/>
       <c r="AC25" s="76"/>
       <c r="AD25" s="76"/>
       <c r="AE25" s="76"/>
       <c r="AF25" s="76"/>
       <c r="AG25" s="76"/>
-      <c r="AH25" s="80"/>
-      <c r="AI25" s="80"/>
+      <c r="AH25" s="79"/>
+      <c r="AI25" s="79"/>
       <c r="AJ25" s="25"/>
       <c r="AK25" s="25"/>
       <c r="AL25" s="51"/>
-      <c r="AM25" s="80"/>
-      <c r="AN25" s="80"/>
+      <c r="AM25" s="79"/>
+      <c r="AN25" s="79"/>
       <c r="AO25" s="25"/>
       <c r="AP25" s="25"/>
       <c r="AQ25" s="51"/>
@@ -4807,37 +4860,41 @@
       <c r="B26" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="137">
-        <v>6</v>
-      </c>
-      <c r="D26" s="137" t="str">
+      <c r="C26" s="202">
+        <v>12</v>
+      </c>
+      <c r="D26" s="204">
         <f>IF(SUM(I26:AQ26)=0," ",SUM(I26:AQ26))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E26" s="104">
+        <v>5</v>
+      </c>
+      <c r="E26" s="103">
         <v>1</v>
       </c>
-      <c r="F26" s="110"/>
-      <c r="G26" s="194">
-        <v>43117</v>
-      </c>
+      <c r="F26" s="109"/>
+      <c r="G26" s="176"/>
       <c r="H26" s="57"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="80"/>
+      <c r="I26" s="79"/>
+      <c r="J26" s="79"/>
       <c r="K26" s="24"/>
-      <c r="L26" s="86"/>
-      <c r="M26" s="87"/>
-      <c r="N26" s="80"/>
-      <c r="O26" s="80"/>
-      <c r="P26" s="92"/>
-      <c r="Q26" s="92"/>
-      <c r="R26" s="92"/>
-      <c r="S26" s="80"/>
-      <c r="T26" s="80"/>
-      <c r="U26" s="92"/>
-      <c r="V26" s="92"/>
-      <c r="W26" s="92"/>
-      <c r="X26" s="76"/>
+      <c r="L26" s="85"/>
+      <c r="M26" s="86"/>
+      <c r="N26" s="79"/>
+      <c r="O26" s="79"/>
+      <c r="P26" s="91">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="91">
+        <v>3</v>
+      </c>
+      <c r="R26" s="145">
+        <v>1</v>
+      </c>
+      <c r="S26" s="182"/>
+      <c r="T26" s="79"/>
+      <c r="U26" s="91"/>
+      <c r="V26" s="91"/>
+      <c r="W26" s="145"/>
+      <c r="X26" s="185"/>
       <c r="Y26" s="76"/>
       <c r="Z26" s="76"/>
       <c r="AA26" s="76"/>
@@ -4847,14 +4904,14 @@
       <c r="AE26" s="76"/>
       <c r="AF26" s="76"/>
       <c r="AG26" s="76"/>
-      <c r="AH26" s="80"/>
-      <c r="AI26" s="80"/>
-      <c r="AJ26" s="147"/>
-      <c r="AK26" s="92"/>
-      <c r="AL26" s="148"/>
-      <c r="AM26" s="150"/>
-      <c r="AN26" s="80"/>
-      <c r="AO26" s="92"/>
+      <c r="AH26" s="79"/>
+      <c r="AI26" s="79"/>
+      <c r="AJ26" s="144"/>
+      <c r="AK26" s="91"/>
+      <c r="AL26" s="145"/>
+      <c r="AM26" s="147"/>
+      <c r="AN26" s="79"/>
+      <c r="AO26" s="91"/>
       <c r="AP26" s="28"/>
       <c r="AQ26" s="52"/>
     </row>
@@ -4865,35 +4922,35 @@
       <c r="B27" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="137">
+      <c r="C27" s="205">
         <v>8</v>
       </c>
-      <c r="D27" s="137" t="str">
+      <c r="D27" s="136">
         <f t="shared" ref="D27" si="3">IF(SUM(J27:AR27)=0," ",SUM(J27:AR27))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E27" s="107">
+        <v>0.5</v>
+      </c>
+      <c r="E27" s="106">
         <v>1</v>
       </c>
-      <c r="F27" s="111"/>
-      <c r="G27" s="196">
-        <v>43117</v>
-      </c>
+      <c r="F27" s="110"/>
+      <c r="G27" s="178"/>
       <c r="H27" s="57"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="80"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="79"/>
       <c r="K27" s="27"/>
-      <c r="L27" s="88"/>
-      <c r="M27" s="90"/>
-      <c r="N27" s="80"/>
-      <c r="O27" s="80"/>
+      <c r="L27" s="87"/>
+      <c r="M27" s="89"/>
+      <c r="N27" s="79"/>
+      <c r="O27" s="79"/>
       <c r="P27" s="27"/>
       <c r="Q27" s="37"/>
-      <c r="R27" s="92"/>
-      <c r="S27" s="80"/>
-      <c r="T27" s="80"/>
+      <c r="R27" s="145">
+        <v>0.5</v>
+      </c>
+      <c r="S27" s="184"/>
+      <c r="T27" s="79"/>
       <c r="U27" s="27"/>
-      <c r="V27" s="92"/>
+      <c r="V27" s="91"/>
       <c r="W27" s="30"/>
       <c r="X27" s="76"/>
       <c r="Y27" s="76"/>
@@ -4905,71 +4962,71 @@
       <c r="AE27" s="76"/>
       <c r="AF27" s="76"/>
       <c r="AG27" s="76"/>
-      <c r="AH27" s="80"/>
-      <c r="AI27" s="80"/>
+      <c r="AH27" s="79"/>
+      <c r="AI27" s="79"/>
       <c r="AJ27" s="25"/>
-      <c r="AK27" s="92"/>
+      <c r="AK27" s="91"/>
       <c r="AL27" s="45"/>
-      <c r="AM27" s="80"/>
-      <c r="AN27" s="80"/>
-      <c r="AO27" s="92"/>
+      <c r="AM27" s="79"/>
+      <c r="AN27" s="79"/>
+      <c r="AO27" s="91"/>
       <c r="AP27" s="25"/>
       <c r="AQ27" s="45"/>
     </row>
     <row r="28" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="127">
+      <c r="A28" s="126">
         <v>50</v>
       </c>
-      <c r="B28" s="126" t="s">
+      <c r="B28" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="170">
+      <c r="C28" s="166">
         <f>SUM(C29:C30)</f>
         <v>5</v>
       </c>
-      <c r="D28" s="166">
+      <c r="D28" s="163">
         <f>SUM(D29:D30)</f>
         <v>0</v>
       </c>
-      <c r="E28" s="165"/>
-      <c r="F28" s="169"/>
-      <c r="G28" s="164"/>
-      <c r="H28" s="117"/>
-      <c r="I28" s="118"/>
-      <c r="J28" s="119"/>
-      <c r="K28" s="120"/>
-      <c r="L28" s="121"/>
-      <c r="M28" s="122"/>
-      <c r="N28" s="123"/>
-      <c r="O28" s="120"/>
-      <c r="P28" s="121"/>
-      <c r="Q28" s="119"/>
-      <c r="R28" s="124"/>
-      <c r="S28" s="123"/>
-      <c r="T28" s="120"/>
-      <c r="U28" s="121"/>
-      <c r="V28" s="119"/>
-      <c r="W28" s="124"/>
-      <c r="X28" s="123"/>
-      <c r="Y28" s="120"/>
-      <c r="Z28" s="121"/>
-      <c r="AA28" s="119"/>
-      <c r="AB28" s="124"/>
-      <c r="AC28" s="123"/>
-      <c r="AD28" s="120"/>
-      <c r="AE28" s="121"/>
-      <c r="AF28" s="119"/>
-      <c r="AG28" s="124"/>
-      <c r="AH28" s="123"/>
-      <c r="AI28" s="120"/>
-      <c r="AJ28" s="120"/>
-      <c r="AK28" s="121"/>
-      <c r="AL28" s="125"/>
-      <c r="AM28" s="123"/>
-      <c r="AN28" s="120"/>
-      <c r="AO28" s="120"/>
-      <c r="AP28" s="121"/>
-      <c r="AQ28" s="125"/>
+      <c r="E28" s="162"/>
+      <c r="F28" s="165"/>
+      <c r="G28" s="161"/>
+      <c r="H28" s="116"/>
+      <c r="I28" s="117"/>
+      <c r="J28" s="118"/>
+      <c r="K28" s="119"/>
+      <c r="L28" s="120"/>
+      <c r="M28" s="121"/>
+      <c r="N28" s="122"/>
+      <c r="O28" s="119"/>
+      <c r="P28" s="120"/>
+      <c r="Q28" s="118"/>
+      <c r="R28" s="123"/>
+      <c r="S28" s="122"/>
+      <c r="T28" s="119"/>
+      <c r="U28" s="120"/>
+      <c r="V28" s="118"/>
+      <c r="W28" s="123"/>
+      <c r="X28" s="122"/>
+      <c r="Y28" s="122"/>
+      <c r="Z28" s="122"/>
+      <c r="AA28" s="116"/>
+      <c r="AB28" s="121"/>
+      <c r="AC28" s="122"/>
+      <c r="AD28" s="116"/>
+      <c r="AE28" s="116"/>
+      <c r="AF28" s="118"/>
+      <c r="AG28" s="116"/>
+      <c r="AH28" s="122"/>
+      <c r="AI28" s="119"/>
+      <c r="AJ28" s="119"/>
+      <c r="AK28" s="120"/>
+      <c r="AL28" s="124"/>
+      <c r="AM28" s="122"/>
+      <c r="AN28" s="119"/>
+      <c r="AO28" s="119"/>
+      <c r="AP28" s="120"/>
+      <c r="AQ28" s="124"/>
     </row>
     <row r="29" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="40">
@@ -4978,33 +5035,31 @@
       <c r="B29" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="137">
+      <c r="C29" s="202">
         <v>5</v>
       </c>
-      <c r="D29" s="137" t="str">
+      <c r="D29" s="203" t="str">
         <f>IF(SUM(J29:AR29)=0," ",SUM(J29:AR29))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E29" s="104">
+      <c r="E29" s="103">
         <v>3</v>
       </c>
-      <c r="F29" s="110"/>
-      <c r="G29" s="193">
-        <v>43118</v>
-      </c>
-      <c r="H29" s="156"/>
-      <c r="I29" s="80"/>
-      <c r="J29" s="80"/>
-      <c r="K29" s="157"/>
-      <c r="L29" s="86"/>
-      <c r="M29" s="87"/>
-      <c r="N29" s="80"/>
-      <c r="O29" s="80"/>
+      <c r="F29" s="109"/>
+      <c r="G29" s="175"/>
+      <c r="H29" s="153"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="79"/>
+      <c r="K29" s="154"/>
+      <c r="L29" s="85"/>
+      <c r="M29" s="86"/>
+      <c r="N29" s="79"/>
+      <c r="O29" s="79"/>
       <c r="P29" s="24"/>
       <c r="Q29" s="25"/>
       <c r="R29" s="26"/>
-      <c r="S29" s="80"/>
-      <c r="T29" s="80"/>
+      <c r="S29" s="79"/>
+      <c r="T29" s="79"/>
       <c r="U29" s="24"/>
       <c r="V29" s="25"/>
       <c r="W29" s="26"/>
@@ -5018,15 +5073,15 @@
       <c r="AE29" s="76"/>
       <c r="AF29" s="76"/>
       <c r="AG29" s="76"/>
-      <c r="AH29" s="80"/>
-      <c r="AI29" s="80"/>
+      <c r="AH29" s="79"/>
+      <c r="AI29" s="79"/>
       <c r="AJ29" s="25"/>
       <c r="AK29" s="25"/>
       <c r="AL29" s="51"/>
-      <c r="AM29" s="80"/>
-      <c r="AN29" s="80"/>
+      <c r="AM29" s="79"/>
+      <c r="AN29" s="79"/>
       <c r="AO29" s="25"/>
-      <c r="AP29" s="92"/>
+      <c r="AP29" s="91"/>
       <c r="AQ29" s="51"/>
     </row>
     <row r="30" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -5034,27 +5089,27 @@
         <v>52</v>
       </c>
       <c r="B30" s="53"/>
-      <c r="C30" s="137"/>
-      <c r="D30" s="137" t="str">
+      <c r="C30" s="202"/>
+      <c r="D30" s="205" t="str">
         <f>IF(SUM(J30:AR30)=0," ",SUM(J30:AR30))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E30" s="107"/>
-      <c r="F30" s="112"/>
-      <c r="G30" s="162"/>
+      <c r="E30" s="106"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="159"/>
       <c r="H30" s="56"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="80"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="79"/>
       <c r="K30" s="32"/>
-      <c r="L30" s="91"/>
-      <c r="M30" s="90"/>
-      <c r="N30" s="80"/>
-      <c r="O30" s="80"/>
+      <c r="L30" s="90"/>
+      <c r="M30" s="89"/>
+      <c r="N30" s="79"/>
+      <c r="O30" s="79"/>
       <c r="P30" s="32"/>
       <c r="Q30" s="37"/>
       <c r="R30" s="30"/>
-      <c r="S30" s="80"/>
-      <c r="T30" s="80"/>
+      <c r="S30" s="79"/>
+      <c r="T30" s="79"/>
       <c r="U30" s="32"/>
       <c r="V30" s="37"/>
       <c r="W30" s="30"/>
@@ -5068,111 +5123,109 @@
       <c r="AE30" s="75"/>
       <c r="AF30" s="75"/>
       <c r="AG30" s="75"/>
-      <c r="AH30" s="80"/>
-      <c r="AI30" s="80"/>
+      <c r="AH30" s="184"/>
+      <c r="AI30" s="79"/>
       <c r="AJ30" s="37"/>
       <c r="AK30" s="37"/>
       <c r="AL30" s="45"/>
-      <c r="AM30" s="80"/>
-      <c r="AN30" s="80"/>
+      <c r="AM30" s="79"/>
+      <c r="AN30" s="79"/>
       <c r="AO30" s="37"/>
       <c r="AP30" s="37"/>
       <c r="AQ30" s="45"/>
     </row>
     <row r="31" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="127">
+      <c r="A31" s="126">
         <v>60</v>
       </c>
-      <c r="B31" s="126" t="s">
+      <c r="B31" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="166">
+      <c r="C31" s="163">
         <f>SUM(C32:C33)</f>
         <v>1.25</v>
       </c>
-      <c r="D31" s="136">
+      <c r="D31" s="135">
         <f>SUM(D32:D33)</f>
         <v>0</v>
       </c>
-      <c r="E31" s="115"/>
-      <c r="F31" s="168"/>
-      <c r="G31" s="164"/>
-      <c r="H31" s="117"/>
-      <c r="I31" s="118"/>
-      <c r="J31" s="119"/>
-      <c r="K31" s="120"/>
-      <c r="L31" s="121"/>
-      <c r="M31" s="122"/>
-      <c r="N31" s="123"/>
-      <c r="O31" s="120"/>
-      <c r="P31" s="121"/>
-      <c r="Q31" s="119"/>
-      <c r="R31" s="124"/>
-      <c r="S31" s="123"/>
-      <c r="T31" s="120"/>
-      <c r="U31" s="121"/>
-      <c r="V31" s="119"/>
-      <c r="W31" s="124"/>
-      <c r="X31" s="123"/>
-      <c r="Y31" s="120"/>
-      <c r="Z31" s="121"/>
-      <c r="AA31" s="119"/>
-      <c r="AB31" s="124"/>
-      <c r="AC31" s="123"/>
-      <c r="AD31" s="120"/>
-      <c r="AE31" s="121"/>
-      <c r="AF31" s="119"/>
-      <c r="AG31" s="124"/>
-      <c r="AH31" s="123"/>
-      <c r="AI31" s="120"/>
-      <c r="AJ31" s="120"/>
-      <c r="AK31" s="121"/>
-      <c r="AL31" s="125"/>
-      <c r="AM31" s="123"/>
-      <c r="AN31" s="120"/>
-      <c r="AO31" s="120"/>
-      <c r="AP31" s="121"/>
-      <c r="AQ31" s="125"/>
+      <c r="E31" s="114"/>
+      <c r="F31" s="164"/>
+      <c r="G31" s="161"/>
+      <c r="H31" s="116"/>
+      <c r="I31" s="117"/>
+      <c r="J31" s="118"/>
+      <c r="K31" s="119"/>
+      <c r="L31" s="120"/>
+      <c r="M31" s="121"/>
+      <c r="N31" s="122"/>
+      <c r="O31" s="119"/>
+      <c r="P31" s="120"/>
+      <c r="Q31" s="118"/>
+      <c r="R31" s="123"/>
+      <c r="S31" s="122"/>
+      <c r="T31" s="119"/>
+      <c r="U31" s="120"/>
+      <c r="V31" s="118"/>
+      <c r="W31" s="123"/>
+      <c r="X31" s="122"/>
+      <c r="Y31" s="122"/>
+      <c r="Z31" s="122"/>
+      <c r="AA31" s="116"/>
+      <c r="AB31" s="121"/>
+      <c r="AC31" s="116"/>
+      <c r="AD31" s="118"/>
+      <c r="AE31" s="122"/>
+      <c r="AF31" s="116"/>
+      <c r="AG31" s="121"/>
+      <c r="AH31" s="122"/>
+      <c r="AI31" s="119"/>
+      <c r="AJ31" s="119"/>
+      <c r="AK31" s="120"/>
+      <c r="AL31" s="124"/>
+      <c r="AM31" s="122"/>
+      <c r="AN31" s="119"/>
+      <c r="AO31" s="119"/>
+      <c r="AP31" s="120"/>
+      <c r="AQ31" s="124"/>
     </row>
     <row r="32" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="39">
         <v>61</v>
       </c>
       <c r="B32" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="137">
+        <v>31</v>
+      </c>
+      <c r="C32" s="203">
         <v>1</v>
       </c>
-      <c r="D32" s="137" t="str">
+      <c r="D32" s="136" t="str">
         <f>IF(SUM(J32:AR32)=0," ",SUM(J32:AR32))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E32" s="104">
+      <c r="E32" s="103">
         <v>2</v>
       </c>
-      <c r="F32" s="192"/>
-      <c r="G32" s="198">
-        <v>43118</v>
-      </c>
+      <c r="F32" s="174"/>
+      <c r="G32" s="180"/>
       <c r="H32" s="59"/>
-      <c r="I32" s="80"/>
-      <c r="J32" s="80"/>
+      <c r="I32" s="79"/>
+      <c r="J32" s="79"/>
       <c r="K32" s="24"/>
-      <c r="L32" s="86"/>
-      <c r="M32" s="87"/>
-      <c r="N32" s="80"/>
-      <c r="O32" s="80"/>
+      <c r="L32" s="85"/>
+      <c r="M32" s="86"/>
+      <c r="N32" s="79"/>
+      <c r="O32" s="79"/>
       <c r="P32" s="24"/>
       <c r="Q32" s="25"/>
       <c r="R32" s="26"/>
-      <c r="S32" s="80"/>
-      <c r="T32" s="80"/>
+      <c r="S32" s="79"/>
+      <c r="T32" s="79"/>
       <c r="U32" s="24"/>
       <c r="V32" s="25"/>
       <c r="W32" s="26"/>
       <c r="X32" s="73"/>
-      <c r="Y32" s="74"/>
+      <c r="Y32" s="187"/>
       <c r="Z32" s="74"/>
       <c r="AA32" s="74"/>
       <c r="AB32" s="74"/>
@@ -5181,55 +5234,53 @@
       <c r="AE32" s="74"/>
       <c r="AF32" s="74"/>
       <c r="AG32" s="74"/>
-      <c r="AH32" s="80"/>
-      <c r="AI32" s="80"/>
+      <c r="AH32" s="79"/>
+      <c r="AI32" s="79"/>
       <c r="AJ32" s="25"/>
       <c r="AK32" s="25"/>
       <c r="AL32" s="52"/>
-      <c r="AM32" s="80"/>
-      <c r="AN32" s="80"/>
-      <c r="AO32" s="92"/>
-      <c r="AP32" s="92"/>
+      <c r="AM32" s="79"/>
+      <c r="AN32" s="79"/>
+      <c r="AO32" s="91"/>
+      <c r="AP32" s="91"/>
       <c r="AQ32" s="52"/>
     </row>
     <row r="33" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="153">
+      <c r="A33" s="150">
         <v>62</v>
       </c>
       <c r="B33" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="137">
+        <v>42</v>
+      </c>
+      <c r="C33" s="205">
         <v>0.25</v>
       </c>
-      <c r="D33" s="137" t="str">
+      <c r="D33" s="136" t="str">
         <f>IF(SUM(J33:AR33)=0," ",SUM(J33:AR33))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E33" s="105">
+      <c r="E33" s="104">
         <v>1</v>
       </c>
-      <c r="F33" s="113"/>
-      <c r="G33" s="196">
-        <v>43118</v>
-      </c>
+      <c r="F33" s="112"/>
+      <c r="G33" s="178"/>
       <c r="H33" s="58"/>
-      <c r="I33" s="80"/>
-      <c r="J33" s="80"/>
+      <c r="I33" s="79"/>
+      <c r="J33" s="79"/>
       <c r="K33" s="27"/>
-      <c r="L33" s="88"/>
-      <c r="M33" s="87"/>
-      <c r="N33" s="80"/>
-      <c r="O33" s="80"/>
+      <c r="L33" s="87"/>
+      <c r="M33" s="86"/>
+      <c r="N33" s="79"/>
+      <c r="O33" s="79"/>
       <c r="P33" s="24"/>
       <c r="Q33" s="28"/>
       <c r="R33" s="29"/>
-      <c r="S33" s="80"/>
-      <c r="T33" s="80"/>
+      <c r="S33" s="79"/>
+      <c r="T33" s="79"/>
       <c r="U33" s="24"/>
       <c r="V33" s="28"/>
       <c r="W33" s="29"/>
-      <c r="X33" s="74"/>
+      <c r="X33" s="186"/>
       <c r="Y33" s="74"/>
       <c r="Z33" s="74"/>
       <c r="AA33" s="74"/>
@@ -5239,225 +5290,223 @@
       <c r="AE33" s="74"/>
       <c r="AF33" s="74"/>
       <c r="AG33" s="74"/>
-      <c r="AH33" s="80"/>
-      <c r="AI33" s="80"/>
+      <c r="AH33" s="79"/>
+      <c r="AI33" s="79"/>
       <c r="AJ33" s="28"/>
       <c r="AK33" s="28"/>
       <c r="AL33" s="52"/>
-      <c r="AM33" s="80"/>
-      <c r="AN33" s="80"/>
+      <c r="AM33" s="79"/>
+      <c r="AN33" s="79"/>
       <c r="AO33" s="28"/>
-      <c r="AP33" s="92"/>
+      <c r="AP33" s="91"/>
       <c r="AQ33" s="52"/>
     </row>
     <row r="34" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="152"/>
-      <c r="B34" s="129" t="s">
+      <c r="A34" s="149"/>
+      <c r="B34" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="139">
+      <c r="C34" s="138">
         <f>SUM(C5+C11+C16+C24+C28+C31)</f>
-        <v>103.25</v>
-      </c>
-      <c r="D34" s="139">
+        <v>115.25</v>
+      </c>
+      <c r="D34" s="138">
         <f>SUM(D31+D28+D24+D16+D11+D5)</f>
-        <v>14</v>
-      </c>
-      <c r="E34" s="130"/>
-      <c r="F34" s="131"/>
-      <c r="G34" s="190"/>
-      <c r="H34" s="191"/>
-      <c r="I34" s="132">
+        <v>29</v>
+      </c>
+      <c r="E34" s="129"/>
+      <c r="F34" s="130"/>
+      <c r="G34" s="172"/>
+      <c r="H34" s="173"/>
+      <c r="I34" s="131">
         <f t="shared" ref="I34:AB34" si="4">SUM(I5:I33)</f>
         <v>0</v>
       </c>
-      <c r="J34" s="133">
+      <c r="J34" s="132">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K34" s="134">
+      <c r="K34" s="133">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="L34" s="134">
+      <c r="L34" s="133">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M34" s="134">
+      <c r="M34" s="133">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N34" s="134">
+      <c r="N34" s="133">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O34" s="133">
+      <c r="O34" s="132">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P34" s="134">
+      <c r="P34" s="133">
         <f t="shared" si="4"/>
-        <v>6.5</v>
-      </c>
-      <c r="Q34" s="133">
+        <v>7.5</v>
+      </c>
+      <c r="Q34" s="132">
         <f t="shared" si="4"/>
-        <v>0.5</v>
-      </c>
-      <c r="R34" s="134">
+        <v>7.5</v>
+      </c>
+      <c r="R34" s="133">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="S34" s="133">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S34" s="134">
+      <c r="T34" s="132">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T34" s="133">
+      <c r="U34" s="133">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U34" s="134">
+      <c r="V34" s="132">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V34" s="133">
+      <c r="W34" s="133">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W34" s="134">
+      <c r="X34" s="133">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="X34" s="134">
+      <c r="Y34" s="132">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Y34" s="133">
+      <c r="Z34" s="133">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Z34" s="134">
+      <c r="AA34" s="132">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AA34" s="133">
+      <c r="AB34" s="133">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB34" s="134">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC34" s="134">
+      <c r="AC34" s="133">
         <f t="shared" ref="AC34:AL34" si="5">SUM(AC5:AC33)</f>
         <v>0</v>
       </c>
-      <c r="AD34" s="133">
+      <c r="AD34" s="132">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AE34" s="134">
+      <c r="AE34" s="133">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AF34" s="133">
+      <c r="AF34" s="132">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AG34" s="134">
+      <c r="AG34" s="133">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AH34" s="134">
+      <c r="AH34" s="133">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AI34" s="133">
+      <c r="AI34" s="132">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AJ34" s="134">
+      <c r="AJ34" s="133">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AK34" s="133">
+      <c r="AK34" s="132">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AL34" s="135">
+      <c r="AL34" s="134">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AM34" s="134">
+      <c r="AM34" s="133">
         <f t="shared" ref="AM34:AQ34" si="6">SUM(AM5:AM33)</f>
         <v>0</v>
       </c>
-      <c r="AN34" s="133">
+      <c r="AN34" s="132">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AO34" s="134">
+      <c r="AO34" s="133">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AP34" s="133">
+      <c r="AP34" s="132">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AQ34" s="135">
+      <c r="AQ34" s="134">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="151"/>
-      <c r="B35" s="93" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="140">
+      <c r="A35" s="148"/>
+      <c r="B35" s="92" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="207">
         <v>3</v>
       </c>
-      <c r="D35" s="141"/>
-      <c r="E35" s="108"/>
-      <c r="F35" s="114"/>
-      <c r="G35" s="199">
-        <v>43119</v>
-      </c>
-      <c r="H35" s="158"/>
-      <c r="I35" s="94"/>
-      <c r="J35" s="94"/>
-      <c r="K35" s="95"/>
-      <c r="L35" s="96"/>
-      <c r="M35" s="97"/>
-      <c r="N35" s="94"/>
-      <c r="O35" s="94"/>
-      <c r="P35" s="95"/>
-      <c r="Q35" s="98"/>
-      <c r="R35" s="99"/>
-      <c r="S35" s="94"/>
-      <c r="T35" s="94"/>
-      <c r="U35" s="95"/>
-      <c r="V35" s="98"/>
-      <c r="W35" s="99"/>
-      <c r="X35" s="100"/>
-      <c r="Y35" s="100"/>
-      <c r="Z35" s="100"/>
-      <c r="AA35" s="100"/>
-      <c r="AB35" s="100"/>
-      <c r="AC35" s="100"/>
-      <c r="AD35" s="100"/>
-      <c r="AE35" s="100"/>
-      <c r="AF35" s="100"/>
-      <c r="AG35" s="100"/>
-      <c r="AH35" s="94"/>
-      <c r="AI35" s="94"/>
-      <c r="AJ35" s="98"/>
-      <c r="AK35" s="98"/>
-      <c r="AL35" s="101"/>
-      <c r="AM35" s="94"/>
-      <c r="AN35" s="94"/>
-      <c r="AO35" s="98"/>
-      <c r="AP35" s="98"/>
-      <c r="AQ35" s="102"/>
+      <c r="D35" s="206"/>
+      <c r="E35" s="107"/>
+      <c r="F35" s="113"/>
+      <c r="G35" s="181"/>
+      <c r="H35" s="155"/>
+      <c r="I35" s="93"/>
+      <c r="J35" s="93"/>
+      <c r="K35" s="94"/>
+      <c r="L35" s="95"/>
+      <c r="M35" s="96"/>
+      <c r="N35" s="93"/>
+      <c r="O35" s="93"/>
+      <c r="P35" s="94"/>
+      <c r="Q35" s="97"/>
+      <c r="R35" s="98"/>
+      <c r="S35" s="93"/>
+      <c r="T35" s="93"/>
+      <c r="U35" s="94"/>
+      <c r="V35" s="97"/>
+      <c r="W35" s="98"/>
+      <c r="X35" s="99"/>
+      <c r="Y35" s="99"/>
+      <c r="Z35" s="99"/>
+      <c r="AA35" s="99"/>
+      <c r="AB35" s="99"/>
+      <c r="AC35" s="99"/>
+      <c r="AD35" s="99"/>
+      <c r="AE35" s="99"/>
+      <c r="AF35" s="99"/>
+      <c r="AG35" s="99"/>
+      <c r="AH35" s="93"/>
+      <c r="AI35" s="93"/>
+      <c r="AJ35" s="97"/>
+      <c r="AK35" s="97"/>
+      <c r="AL35" s="100"/>
+      <c r="AM35" s="93"/>
+      <c r="AN35" s="93"/>
+      <c r="AO35" s="97"/>
+      <c r="AP35" s="97"/>
+      <c r="AQ35" s="101"/>
     </row>
     <row r="36" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C36" s="10"/>
@@ -5468,18 +5517,18 @@
       <c r="H36" s="10"/>
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
-      <c r="K36" s="81"/>
-      <c r="L36" s="82"/>
+      <c r="K36" s="80"/>
+      <c r="L36" s="81"/>
       <c r="M36" s="69"/>
       <c r="N36" s="69"/>
       <c r="O36" s="69"/>
-      <c r="P36" s="79"/>
-      <c r="Q36" s="79"/>
+      <c r="P36" s="78"/>
+      <c r="Q36" s="78"/>
       <c r="R36" s="69"/>
       <c r="S36" s="69"/>
       <c r="T36" s="69"/>
-      <c r="U36" s="79"/>
-      <c r="V36" s="79"/>
+      <c r="U36" s="78"/>
+      <c r="V36" s="78"/>
       <c r="W36" s="69"/>
       <c r="X36" s="69"/>
       <c r="Y36" s="69"/>
@@ -5488,8 +5537,8 @@
       <c r="AB36" s="69"/>
       <c r="AC36" s="69"/>
       <c r="AD36" s="69"/>
-      <c r="AJ36" s="84"/>
-      <c r="AK36" s="84"/>
+      <c r="AJ36" s="83"/>
+      <c r="AK36" s="83"/>
       <c r="AO36" s="14"/>
       <c r="AP36" s="14"/>
     </row>
@@ -5521,21 +5570,21 @@
       <c r="W37" s="70"/>
       <c r="X37" s="70"/>
       <c r="Y37" s="70"/>
-      <c r="Z37" s="83"/>
-      <c r="AA37" s="83"/>
-      <c r="AB37" s="83"/>
-      <c r="AC37" s="83"/>
-      <c r="AD37" s="83"/>
-      <c r="AE37" s="84"/>
-      <c r="AF37" s="84"/>
-      <c r="AG37" s="84"/>
-      <c r="AH37" s="84"/>
-      <c r="AI37" s="84"/>
+      <c r="Z37" s="82"/>
+      <c r="AA37" s="82"/>
+      <c r="AB37" s="82"/>
+      <c r="AC37" s="82"/>
+      <c r="AD37" s="82"/>
+      <c r="AE37" s="83"/>
+      <c r="AF37" s="83"/>
+      <c r="AG37" s="83"/>
+      <c r="AH37" s="83"/>
+      <c r="AI37" s="83"/>
     </row>
     <row r="38" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="72"/>
       <c r="B38" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="13"/>
@@ -5567,17 +5616,19 @@
       <c r="AD38" s="70"/>
     </row>
     <row r="39" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="85"/>
+      <c r="A39" s="84"/>
       <c r="B39" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J39" s="5"/>
     </row>
     <row r="40" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="92" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" s="12"/>
+      <c r="A40" s="91" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="J40" s="5"/>
     </row>
     <row r="41" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5998,18 +6049,18 @@
       <c r="W162" s="10"/>
       <c r="X162" s="10"/>
       <c r="Y162" s="10"/>
-      <c r="Z162" s="81"/>
-      <c r="AA162" s="82"/>
+      <c r="Z162" s="80"/>
+      <c r="AA162" s="81"/>
       <c r="AB162" s="69"/>
       <c r="AC162" s="69"/>
       <c r="AD162" s="69"/>
-      <c r="AE162" s="79"/>
-      <c r="AF162" s="79"/>
+      <c r="AE162" s="78"/>
+      <c r="AF162" s="78"/>
       <c r="AG162" s="69"/>
       <c r="AH162" s="69"/>
       <c r="AI162" s="69"/>
-      <c r="AJ162" s="79"/>
-      <c r="AK162" s="79"/>
+      <c r="AJ162" s="78"/>
+      <c r="AK162" s="78"/>
       <c r="AL162" s="69"/>
       <c r="AM162" s="69"/>
       <c r="AN162" s="69"/>
@@ -6023,8 +6074,8 @@
       <c r="AV162" s="4"/>
       <c r="AW162" s="4"/>
       <c r="AX162" s="4"/>
-      <c r="AY162" s="84"/>
-      <c r="AZ162" s="84"/>
+      <c r="AY162" s="83"/>
+      <c r="AZ162" s="83"/>
       <c r="BA162" s="4"/>
       <c r="BB162" s="4"/>
       <c r="BC162" s="4"/>
@@ -6061,7 +6112,7 @@
   </sheetPr>
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
@@ -6074,20 +6125,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="185"/>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
-      <c r="H1" s="185"/>
-      <c r="I1" s="185"/>
-      <c r="J1" s="185"/>
-      <c r="K1" s="185"/>
-      <c r="L1" s="185"/>
-      <c r="M1" s="185"/>
-      <c r="N1" s="185"/>
+      <c r="A1" s="217"/>
+      <c r="B1" s="217"/>
+      <c r="C1" s="217"/>
+      <c r="D1" s="217"/>
+      <c r="E1" s="217"/>
+      <c r="F1" s="217"/>
+      <c r="G1" s="217"/>
+      <c r="H1" s="217"/>
+      <c r="I1" s="217"/>
+      <c r="J1" s="217"/>
+      <c r="K1" s="217"/>
+      <c r="L1" s="217"/>
+      <c r="M1" s="217"/>
+      <c r="N1" s="217"/>
     </row>
     <row r="2" spans="1:14" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="63"/>
@@ -6190,7 +6241,7 @@
       </c>
       <c r="B11" s="64">
         <f>Zeitplanung!P34</f>
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6200,7 +6251,7 @@
       </c>
       <c r="B12" s="64">
         <f>Zeitplanung!Q34</f>
-        <v>0.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6210,7 +6261,7 @@
       </c>
       <c r="B13" s="64">
         <f>Zeitplanung!R34</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6416,10 +6467,10 @@
     <row r="34" spans="1:4" ht="15.5" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="36" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="186" t="s">
+      <c r="A36" s="218" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="187"/>
+      <c r="B36" s="219"/>
       <c r="C36" s="3" t="s">
         <v>23</v>
       </c>
@@ -6428,24 +6479,24 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="183" t="s">
+      <c r="A37" s="215" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="184"/>
+      <c r="B37" s="216"/>
       <c r="C37" s="64">
         <f>Zeitplanung!C5</f>
         <v>18</v>
       </c>
       <c r="D37" s="64">
         <f>Zeitplanung!D5</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="188" t="s">
+      <c r="A38" s="220" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="189"/>
+      <c r="B38" s="221"/>
       <c r="C38" s="64">
         <f>Zeitplanung!C11</f>
         <v>8</v>
@@ -6456,38 +6507,38 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="183" t="s">
+      <c r="A39" s="215" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="184"/>
+      <c r="B39" s="216"/>
       <c r="C39" s="64">
         <f>Zeitplanung!C16</f>
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D39" s="64">
         <f>Zeitplanung!D16</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="188" t="s">
+      <c r="A40" s="220" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="189"/>
+      <c r="B40" s="221"/>
       <c r="C40" s="64">
         <f>Zeitplanung!C24</f>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D40" s="64">
         <f>Zeitplanung!D24</f>
-        <v>0</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="183" t="s">
+      <c r="A41" s="215" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="184"/>
+      <c r="B41" s="216"/>
       <c r="C41" s="64">
         <f>Zeitplanung!C28</f>
         <v>5</v>
@@ -6498,10 +6549,10 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="183" t="s">
+      <c r="A42" s="215" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="184"/>
+      <c r="B42" s="216"/>
       <c r="C42" s="64">
         <f>Zeitplanung!C31</f>
         <v>1.25</v>

--- a/doc/Zeitplanung-1.xlsx
+++ b/doc/Zeitplanung-1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8560" tabRatio="597"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8560" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -2590,7 +2590,7 @@
                   <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -2599,7 +2599,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -2670,11 +2670,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="307626080"/>
-        <c:axId val="307625296"/>
+        <c:axId val="318955560"/>
+        <c:axId val="318950072"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="307626080"/>
+        <c:axId val="318955560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2684,14 +2684,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="307625296"/>
+        <c:crossAx val="318950072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="307625296"/>
+        <c:axId val="318950072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2702,7 +2702,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="307626080"/>
+        <c:crossAx val="318955560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2882,7 +2882,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6.5</c:v>
@@ -2911,11 +2911,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="307621376"/>
-        <c:axId val="307624512"/>
+        <c:axId val="318953992"/>
+        <c:axId val="318954384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="307621376"/>
+        <c:axId val="318953992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2925,7 +2925,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="307624512"/>
+        <c:crossAx val="318954384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2933,7 +2933,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="307624512"/>
+        <c:axId val="318954384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2944,7 +2944,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="307621376"/>
+        <c:crossAx val="318953992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3385,8 +3385,8 @@
   </sheetPr>
   <dimension ref="A1:BE162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4306,7 +4306,7 @@
       </c>
       <c r="D16" s="163">
         <f>SUM(D17:D23)</f>
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="E16" s="114"/>
       <c r="F16" s="164"/>
@@ -4358,9 +4358,9 @@
       <c r="C17" s="137">
         <v>2</v>
       </c>
-      <c r="D17" s="203" t="str">
+      <c r="D17" s="203">
         <f>IF(SUM(I17:AQ17)=0," ",SUM(I17:AQ17))</f>
-        <v xml:space="preserve"> </v>
+        <v>2</v>
       </c>
       <c r="E17" s="103">
         <v>1</v>
@@ -4380,7 +4380,9 @@
       <c r="R17" s="26"/>
       <c r="S17" s="79"/>
       <c r="T17" s="79"/>
-      <c r="U17" s="91"/>
+      <c r="U17" s="91">
+        <v>2</v>
+      </c>
       <c r="V17" s="91"/>
       <c r="W17" s="199"/>
       <c r="X17" s="187"/>
@@ -4592,7 +4594,7 @@
       </c>
       <c r="D21" s="204">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E21" s="103">
         <v>1</v>
@@ -4612,7 +4614,7 @@
       <c r="P21" s="24"/>
       <c r="Q21" s="25"/>
       <c r="R21" s="26">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S21" s="79"/>
       <c r="T21" s="79"/>
@@ -5312,7 +5314,7 @@
       </c>
       <c r="D34" s="138">
         <f>SUM(D31+D28+D24+D16+D11+D5)</f>
-        <v>29</v>
+        <v>31.5</v>
       </c>
       <c r="E34" s="129"/>
       <c r="F34" s="130"/>
@@ -5356,7 +5358,7 @@
       </c>
       <c r="R34" s="133">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="S34" s="133">
         <f t="shared" si="4"/>
@@ -5368,7 +5370,7 @@
       </c>
       <c r="U34" s="133">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V34" s="132">
         <f t="shared" si="4"/>
@@ -6261,7 +6263,7 @@
       </c>
       <c r="B13" s="64">
         <f>Zeitplanung!R34</f>
-        <v>7</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6291,7 +6293,7 @@
       </c>
       <c r="B16" s="64">
         <f>Zeitplanung!U34</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6517,7 +6519,7 @@
       </c>
       <c r="D39" s="64">
         <f>Zeitplanung!D16</f>
-        <v>7.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">

--- a/doc/Zeitplanung-1.xlsx
+++ b/doc/Zeitplanung-1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8560" tabRatio="597"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8560" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -2599,7 +2599,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -2670,11 +2670,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="318955560"/>
-        <c:axId val="318950072"/>
+        <c:axId val="319787888"/>
+        <c:axId val="319789064"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="318955560"/>
+        <c:axId val="319787888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2684,14 +2684,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="318950072"/>
+        <c:crossAx val="319789064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="318950072"/>
+        <c:axId val="319789064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2702,7 +2702,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="318955560"/>
+        <c:crossAx val="319787888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2882,7 +2882,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6.5</c:v>
@@ -2911,11 +2911,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="318953992"/>
-        <c:axId val="318954384"/>
+        <c:axId val="319788672"/>
+        <c:axId val="319789456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="318953992"/>
+        <c:axId val="319788672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2925,7 +2925,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="318954384"/>
+        <c:crossAx val="319789456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2933,7 +2933,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="318954384"/>
+        <c:axId val="319789456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2944,7 +2944,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="318953992"/>
+        <c:crossAx val="319788672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3386,7 +3386,7 @@
   <dimension ref="A1:BE162"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4306,7 +4306,7 @@
       </c>
       <c r="D16" s="163">
         <f>SUM(D17:D23)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E16" s="114"/>
       <c r="F16" s="164"/>
@@ -4360,7 +4360,7 @@
       </c>
       <c r="D17" s="203">
         <f>IF(SUM(I17:AQ17)=0," ",SUM(I17:AQ17))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E17" s="103">
         <v>1</v>
@@ -4381,7 +4381,7 @@
       <c r="S17" s="79"/>
       <c r="T17" s="79"/>
       <c r="U17" s="91">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V17" s="91"/>
       <c r="W17" s="199"/>
@@ -5314,7 +5314,7 @@
       </c>
       <c r="D34" s="138">
         <f>SUM(D31+D28+D24+D16+D11+D5)</f>
-        <v>31.5</v>
+        <v>33.5</v>
       </c>
       <c r="E34" s="129"/>
       <c r="F34" s="130"/>
@@ -5370,7 +5370,7 @@
       </c>
       <c r="U34" s="133">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V34" s="132">
         <f t="shared" si="4"/>
@@ -6293,7 +6293,7 @@
       </c>
       <c r="B16" s="64">
         <f>Zeitplanung!U34</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6519,7 +6519,7 @@
       </c>
       <c r="D39" s="64">
         <f>Zeitplanung!D16</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">

--- a/doc/Zeitplanung-1.xlsx
+++ b/doc/Zeitplanung-1.xlsx
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
   <si>
     <t>Nr.</t>
   </si>
@@ -316,6 +316,9 @@
   </si>
   <si>
     <t>Gearbeitete Zeit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -2599,7 +2602,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -2670,11 +2673,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="319787888"/>
-        <c:axId val="319789064"/>
+        <c:axId val="310567096"/>
+        <c:axId val="310568272"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="319787888"/>
+        <c:axId val="310567096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2684,14 +2687,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="319789064"/>
+        <c:crossAx val="310568272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="319789064"/>
+        <c:axId val="310568272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2702,7 +2705,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="319787888"/>
+        <c:crossAx val="310567096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2882,10 +2885,10 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.5</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2911,11 +2914,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="319788672"/>
-        <c:axId val="319789456"/>
+        <c:axId val="310567488"/>
+        <c:axId val="310568664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="319788672"/>
+        <c:axId val="310567488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2925,7 +2928,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="319789456"/>
+        <c:crossAx val="310568664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2933,7 +2936,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="319789456"/>
+        <c:axId val="310568664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2944,7 +2947,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="319788672"/>
+        <c:crossAx val="310567488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3385,8 +3388,8 @@
   </sheetPr>
   <dimension ref="A1:BE162"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="W21" sqref="W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4306,7 +4309,7 @@
       </c>
       <c r="D16" s="163">
         <f>SUM(D17:D23)</f>
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="E16" s="114"/>
       <c r="F16" s="164"/>
@@ -4360,7 +4363,7 @@
       </c>
       <c r="D17" s="203">
         <f>IF(SUM(I17:AQ17)=0," ",SUM(I17:AQ17))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E17" s="103">
         <v>1</v>
@@ -4381,7 +4384,7 @@
       <c r="S17" s="79"/>
       <c r="T17" s="79"/>
       <c r="U17" s="91">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V17" s="91"/>
       <c r="W17" s="199"/>
@@ -4418,7 +4421,7 @@
       </c>
       <c r="D18" s="204">
         <f t="shared" ref="D18:D23" si="2">IF(SUM(I18:AQ18)=0," ",SUM(I18:AQ18))</f>
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="E18" s="103">
         <v>1</v>
@@ -4444,7 +4447,9 @@
       </c>
       <c r="S18" s="182"/>
       <c r="T18" s="79"/>
-      <c r="U18" s="91"/>
+      <c r="U18" s="91">
+        <v>0.5</v>
+      </c>
       <c r="V18" s="25"/>
       <c r="W18" s="26"/>
       <c r="X18" s="76"/>
@@ -4620,7 +4625,9 @@
       <c r="T21" s="79"/>
       <c r="U21" s="24"/>
       <c r="V21" s="25"/>
-      <c r="W21" s="145"/>
+      <c r="W21" s="145" t="s">
+        <v>52</v>
+      </c>
       <c r="X21" s="185"/>
       <c r="Y21" s="190"/>
       <c r="Z21" s="185"/>
@@ -4755,7 +4762,7 @@
       </c>
       <c r="D24" s="163">
         <f>SUM(D25:D27)</f>
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="E24" s="162"/>
       <c r="F24" s="115"/>
@@ -4867,7 +4874,7 @@
       </c>
       <c r="D26" s="204">
         <f>IF(SUM(I26:AQ26)=0," ",SUM(I26:AQ26))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E26" s="103">
         <v>1</v>
@@ -4893,7 +4900,9 @@
       </c>
       <c r="S26" s="182"/>
       <c r="T26" s="79"/>
-      <c r="U26" s="91"/>
+      <c r="U26" s="91">
+        <v>1</v>
+      </c>
       <c r="V26" s="91"/>
       <c r="W26" s="145"/>
       <c r="X26" s="185"/>
@@ -5314,7 +5323,7 @@
       </c>
       <c r="D34" s="138">
         <f>SUM(D31+D28+D24+D16+D11+D5)</f>
-        <v>33.5</v>
+        <v>36</v>
       </c>
       <c r="E34" s="129"/>
       <c r="F34" s="130"/>
@@ -5369,8 +5378,8 @@
         <v>0</v>
       </c>
       <c r="U34" s="133">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f>SUM(U5:U33)</f>
+        <v>6.5</v>
       </c>
       <c r="V34" s="132">
         <f t="shared" si="4"/>
@@ -6293,7 +6302,7 @@
       </c>
       <c r="B16" s="64">
         <f>Zeitplanung!U34</f>
-        <v>4</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6519,7 +6528,7 @@
       </c>
       <c r="D39" s="64">
         <f>Zeitplanung!D16</f>
-        <v>12</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6533,7 +6542,7 @@
       </c>
       <c r="D40" s="64">
         <f>Zeitplanung!D24</f>
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">

--- a/doc/Zeitplanung-1.xlsx
+++ b/doc/Zeitplanung-1.xlsx
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
   <si>
     <t>Nr.</t>
   </si>
@@ -316,9 +316,6 @@
   </si>
   <si>
     <t>Gearbeitete Zeit</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1716,7 +1713,7 @@
     <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="222">
+  <cellXfs count="223">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2371,6 +2368,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="60 % - Akzent1" xfId="7" builtinId="32"/>
@@ -2605,7 +2605,7 @@
                   <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -2673,11 +2673,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="310567096"/>
-        <c:axId val="310568272"/>
+        <c:axId val="312906896"/>
+        <c:axId val="312908856"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="310567096"/>
+        <c:axId val="312906896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2687,14 +2687,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="310568272"/>
+        <c:crossAx val="312908856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="310568272"/>
+        <c:axId val="312908856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2705,7 +2705,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="310567096"/>
+        <c:crossAx val="312906896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2885,7 +2885,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.5</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>7.5</c:v>
@@ -2914,11 +2914,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="310567488"/>
-        <c:axId val="310568664"/>
+        <c:axId val="312909640"/>
+        <c:axId val="312910424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="310567488"/>
+        <c:axId val="312909640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2928,7 +2928,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="310568664"/>
+        <c:crossAx val="312910424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2936,7 +2936,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="310568664"/>
+        <c:axId val="312910424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2947,7 +2947,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="310567488"/>
+        <c:crossAx val="312909640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3388,8 +3388,8 @@
   </sheetPr>
   <dimension ref="A1:BE162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="W21" sqref="W21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="AU30" sqref="AU30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4309,7 +4309,7 @@
       </c>
       <c r="D16" s="163">
         <f>SUM(D17:D23)</f>
-        <v>13.5</v>
+        <v>17.5</v>
       </c>
       <c r="E16" s="114"/>
       <c r="F16" s="164"/>
@@ -4363,7 +4363,7 @@
       </c>
       <c r="D17" s="203">
         <f>IF(SUM(I17:AQ17)=0," ",SUM(I17:AQ17))</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E17" s="103">
         <v>1</v>
@@ -4386,7 +4386,9 @@
       <c r="U17" s="91">
         <v>5</v>
       </c>
-      <c r="V17" s="91"/>
+      <c r="V17" s="91">
+        <v>2</v>
+      </c>
       <c r="W17" s="199"/>
       <c r="X17" s="187"/>
       <c r="Y17" s="76"/>
@@ -4397,10 +4399,10 @@
       <c r="AD17" s="76"/>
       <c r="AE17" s="76"/>
       <c r="AF17" s="76"/>
-      <c r="AG17" s="145"/>
+      <c r="AG17" s="222"/>
       <c r="AH17" s="183"/>
       <c r="AI17" s="79"/>
-      <c r="AJ17" s="91"/>
+      <c r="AJ17" s="143"/>
       <c r="AK17" s="36"/>
       <c r="AL17" s="48"/>
       <c r="AM17" s="79"/>
@@ -4483,9 +4485,9 @@
       <c r="C19" s="137">
         <v>1</v>
       </c>
-      <c r="D19" s="204" t="str">
+      <c r="D19" s="204">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
+        <v>1</v>
       </c>
       <c r="E19" s="103">
         <v>1</v>
@@ -4506,7 +4508,9 @@
       <c r="S19" s="79"/>
       <c r="T19" s="79"/>
       <c r="U19" s="24"/>
-      <c r="V19" s="25"/>
+      <c r="V19" s="25">
+        <v>1</v>
+      </c>
       <c r="W19" s="26"/>
       <c r="X19" s="198"/>
       <c r="Y19" s="186"/>
@@ -4599,7 +4603,7 @@
       </c>
       <c r="D21" s="204">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" s="103">
         <v>1</v>
@@ -4624,10 +4628,10 @@
       <c r="S21" s="79"/>
       <c r="T21" s="79"/>
       <c r="U21" s="24"/>
-      <c r="V21" s="25"/>
-      <c r="W21" s="145" t="s">
-        <v>52</v>
-      </c>
+      <c r="V21" s="25">
+        <v>1</v>
+      </c>
+      <c r="W21" s="145"/>
       <c r="X21" s="185"/>
       <c r="Y21" s="190"/>
       <c r="Z21" s="185"/>
@@ -5323,7 +5327,7 @@
       </c>
       <c r="D34" s="138">
         <f>SUM(D31+D28+D24+D16+D11+D5)</f>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E34" s="129"/>
       <c r="F34" s="130"/>
@@ -5383,7 +5387,7 @@
       </c>
       <c r="V34" s="132">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W34" s="133">
         <f t="shared" si="4"/>
@@ -6312,7 +6316,7 @@
       </c>
       <c r="B17" s="64">
         <f>Zeitplanung!V34</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6528,7 +6532,7 @@
       </c>
       <c r="D39" s="64">
         <f>Zeitplanung!D16</f>
-        <v>13.5</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">

--- a/doc/Zeitplanung-1.xlsx
+++ b/doc/Zeitplanung-1.xlsx
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
   <si>
     <t>Nr.</t>
   </si>
@@ -316,6 +316,9 @@
   </si>
   <si>
     <t>Gearbeitete Zeit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -2330,6 +2333,9 @@
     <xf numFmtId="0" fontId="24" fillId="10" borderId="30" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2368,9 +2374,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="60 % - Akzent1" xfId="7" builtinId="32"/>
@@ -2605,10 +2608,10 @@
                   <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -2673,11 +2676,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="312906896"/>
-        <c:axId val="312908856"/>
+        <c:axId val="307658464"/>
+        <c:axId val="307661208"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="312906896"/>
+        <c:axId val="307658464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2687,14 +2690,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="312908856"/>
+        <c:crossAx val="307661208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="312908856"/>
+        <c:axId val="307661208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2705,7 +2708,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="312906896"/>
+        <c:crossAx val="307658464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2879,13 +2882,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.5</c:v>
+                  <c:v>19.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>7.5</c:v>
@@ -2914,11 +2917,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="312909640"/>
-        <c:axId val="312910424"/>
+        <c:axId val="307654152"/>
+        <c:axId val="307659248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="312909640"/>
+        <c:axId val="307654152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2928,7 +2931,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="312910424"/>
+        <c:crossAx val="307659248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2936,7 +2939,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="312910424"/>
+        <c:axId val="307659248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2947,7 +2950,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="312909640"/>
+        <c:crossAx val="307654152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3388,8 +3391,8 @@
   </sheetPr>
   <dimension ref="A1:BE162"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="AU30" sqref="AU30"/>
+    <sheetView tabSelected="1" topLeftCell="B15" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="W26" sqref="W26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3413,38 +3416,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="26" x14ac:dyDescent="0.35">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="212" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
-      <c r="D1" s="211"/>
-      <c r="E1" s="211"/>
-      <c r="F1" s="211"/>
-      <c r="G1" s="211"/>
-      <c r="H1" s="211"/>
-      <c r="I1" s="211"/>
-      <c r="J1" s="211"/>
-      <c r="K1" s="211"/>
-      <c r="L1" s="211"/>
-      <c r="M1" s="211"/>
-      <c r="N1" s="211"/>
-      <c r="O1" s="211"/>
-      <c r="P1" s="211"/>
-      <c r="Q1" s="211"/>
-      <c r="R1" s="211"/>
-      <c r="S1" s="211"/>
-      <c r="T1" s="211"/>
-      <c r="U1" s="211"/>
-      <c r="V1" s="211"/>
-      <c r="W1" s="211"/>
-      <c r="X1" s="211"/>
-      <c r="Y1" s="211"/>
-      <c r="Z1" s="211"/>
-      <c r="AA1" s="211"/>
-      <c r="AB1" s="211"/>
-      <c r="AC1" s="211"/>
-      <c r="AD1" s="211"/>
+      <c r="B1" s="212"/>
+      <c r="C1" s="212"/>
+      <c r="D1" s="212"/>
+      <c r="E1" s="212"/>
+      <c r="F1" s="212"/>
+      <c r="G1" s="212"/>
+      <c r="H1" s="212"/>
+      <c r="I1" s="212"/>
+      <c r="J1" s="212"/>
+      <c r="K1" s="212"/>
+      <c r="L1" s="212"/>
+      <c r="M1" s="212"/>
+      <c r="N1" s="212"/>
+      <c r="O1" s="212"/>
+      <c r="P1" s="212"/>
+      <c r="Q1" s="212"/>
+      <c r="R1" s="212"/>
+      <c r="S1" s="212"/>
+      <c r="T1" s="212"/>
+      <c r="U1" s="212"/>
+      <c r="V1" s="212"/>
+      <c r="W1" s="212"/>
+      <c r="X1" s="212"/>
+      <c r="Y1" s="212"/>
+      <c r="Z1" s="212"/>
+      <c r="AA1" s="212"/>
+      <c r="AB1" s="212"/>
+      <c r="AC1" s="212"/>
+      <c r="AD1" s="212"/>
     </row>
     <row r="2" spans="1:44" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6"/>
@@ -3461,63 +3464,63 @@
     <row r="3" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="139"/>
       <c r="B3" s="169"/>
-      <c r="C3" s="212" t="s">
+      <c r="C3" s="213" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="213"/>
+      <c r="D3" s="214"/>
       <c r="E3" s="140"/>
       <c r="F3" s="141"/>
       <c r="G3" s="141"/>
       <c r="H3" s="142"/>
-      <c r="I3" s="209" t="s">
+      <c r="I3" s="210" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="209"/>
-      <c r="K3" s="209"/>
-      <c r="L3" s="209"/>
-      <c r="M3" s="214"/>
-      <c r="N3" s="208" t="s">
+      <c r="J3" s="210"/>
+      <c r="K3" s="210"/>
+      <c r="L3" s="210"/>
+      <c r="M3" s="215"/>
+      <c r="N3" s="209" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="209"/>
-      <c r="P3" s="209"/>
-      <c r="Q3" s="209"/>
-      <c r="R3" s="209"/>
-      <c r="S3" s="208" t="s">
+      <c r="O3" s="210"/>
+      <c r="P3" s="210"/>
+      <c r="Q3" s="210"/>
+      <c r="R3" s="210"/>
+      <c r="S3" s="209" t="s">
         <v>27</v>
       </c>
-      <c r="T3" s="209"/>
-      <c r="U3" s="209"/>
-      <c r="V3" s="209"/>
-      <c r="W3" s="209"/>
-      <c r="X3" s="208" t="s">
+      <c r="T3" s="210"/>
+      <c r="U3" s="210"/>
+      <c r="V3" s="210"/>
+      <c r="W3" s="210"/>
+      <c r="X3" s="209" t="s">
         <v>28</v>
       </c>
-      <c r="Y3" s="209"/>
-      <c r="Z3" s="209"/>
-      <c r="AA3" s="209"/>
-      <c r="AB3" s="209"/>
-      <c r="AC3" s="208" t="s">
+      <c r="Y3" s="210"/>
+      <c r="Z3" s="210"/>
+      <c r="AA3" s="210"/>
+      <c r="AB3" s="210"/>
+      <c r="AC3" s="209" t="s">
         <v>32</v>
       </c>
-      <c r="AD3" s="209"/>
-      <c r="AE3" s="209"/>
-      <c r="AF3" s="209"/>
-      <c r="AG3" s="209"/>
-      <c r="AH3" s="208" t="s">
+      <c r="AD3" s="210"/>
+      <c r="AE3" s="210"/>
+      <c r="AF3" s="210"/>
+      <c r="AG3" s="210"/>
+      <c r="AH3" s="209" t="s">
         <v>33</v>
       </c>
-      <c r="AI3" s="209"/>
-      <c r="AJ3" s="209"/>
-      <c r="AK3" s="209"/>
-      <c r="AL3" s="210"/>
-      <c r="AM3" s="208" t="s">
+      <c r="AI3" s="210"/>
+      <c r="AJ3" s="210"/>
+      <c r="AK3" s="210"/>
+      <c r="AL3" s="211"/>
+      <c r="AM3" s="209" t="s">
         <v>37</v>
       </c>
-      <c r="AN3" s="209"/>
-      <c r="AO3" s="209"/>
-      <c r="AP3" s="209"/>
-      <c r="AQ3" s="210"/>
+      <c r="AN3" s="210"/>
+      <c r="AO3" s="210"/>
+      <c r="AP3" s="210"/>
+      <c r="AQ3" s="211"/>
     </row>
     <row r="4" spans="1:44" ht="90.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="61" t="s">
@@ -3694,7 +3697,7 @@
       </c>
       <c r="D5" s="135">
         <f>SUM(D6:D10)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="162"/>
       <c r="F5" s="115"/>
@@ -3864,7 +3867,7 @@
       </c>
       <c r="D8" s="136">
         <f t="shared" ref="D8:D10" si="0">IF(SUM(J8:AR8)=0," ",SUM(J8:AR8))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="104">
         <v>1</v>
@@ -3887,7 +3890,9 @@
       <c r="S8" s="182"/>
       <c r="T8" s="79"/>
       <c r="U8" s="24"/>
-      <c r="V8" s="91"/>
+      <c r="V8" s="91">
+        <v>1</v>
+      </c>
       <c r="W8" s="145"/>
       <c r="X8" s="185"/>
       <c r="Y8" s="74"/>
@@ -4040,7 +4045,7 @@
       </c>
       <c r="D11" s="163">
         <f>SUM(D12:D15)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E11" s="162"/>
       <c r="F11" s="165"/>
@@ -4152,9 +4157,9 @@
       <c r="C13" s="204">
         <v>3</v>
       </c>
-      <c r="D13" s="136" t="str">
+      <c r="D13" s="136">
         <f t="shared" ref="D13:D15" si="1">IF(SUM(J13:AR13)=0," ",SUM(J13:AR13))</f>
-        <v xml:space="preserve"> </v>
+        <v>1</v>
       </c>
       <c r="E13" s="103"/>
       <c r="F13" s="109"/>
@@ -4173,8 +4178,12 @@
       <c r="S13" s="182"/>
       <c r="T13" s="79"/>
       <c r="U13" s="24"/>
-      <c r="V13" s="25"/>
-      <c r="W13" s="145"/>
+      <c r="V13" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="W13" s="145">
+        <v>0.5</v>
+      </c>
       <c r="X13" s="195"/>
       <c r="Y13" s="196"/>
       <c r="Z13" s="195"/>
@@ -4309,7 +4318,7 @@
       </c>
       <c r="D16" s="163">
         <f>SUM(D17:D23)</f>
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="E16" s="114"/>
       <c r="F16" s="164"/>
@@ -4363,7 +4372,7 @@
       </c>
       <c r="D17" s="203">
         <f>IF(SUM(I17:AQ17)=0," ",SUM(I17:AQ17))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E17" s="103">
         <v>1</v>
@@ -4387,7 +4396,7 @@
         <v>5</v>
       </c>
       <c r="V17" s="91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W17" s="199"/>
       <c r="X17" s="187"/>
@@ -4399,7 +4408,7 @@
       <c r="AD17" s="76"/>
       <c r="AE17" s="76"/>
       <c r="AF17" s="76"/>
-      <c r="AG17" s="222"/>
+      <c r="AG17" s="208"/>
       <c r="AH17" s="183"/>
       <c r="AI17" s="79"/>
       <c r="AJ17" s="143"/>
@@ -4603,7 +4612,7 @@
       </c>
       <c r="D21" s="204">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21" s="103">
         <v>1</v>
@@ -4631,7 +4640,9 @@
       <c r="V21" s="25">
         <v>1</v>
       </c>
-      <c r="W21" s="145"/>
+      <c r="W21" s="145">
+        <v>1</v>
+      </c>
       <c r="X21" s="185"/>
       <c r="Y21" s="190"/>
       <c r="Z21" s="185"/>
@@ -4790,7 +4801,9 @@
       <c r="X24" s="122"/>
       <c r="Y24" s="116"/>
       <c r="Z24" s="118"/>
-      <c r="AA24" s="122"/>
+      <c r="AA24" s="122" t="s">
+        <v>52</v>
+      </c>
       <c r="AB24" s="116"/>
       <c r="AC24" s="116"/>
       <c r="AD24" s="118"/>
@@ -4907,7 +4920,9 @@
       <c r="U26" s="91">
         <v>1</v>
       </c>
-      <c r="V26" s="91"/>
+      <c r="V26" s="91">
+        <v>0</v>
+      </c>
       <c r="W26" s="145"/>
       <c r="X26" s="185"/>
       <c r="Y26" s="76"/>
@@ -4965,7 +4980,9 @@
       <c r="S27" s="184"/>
       <c r="T27" s="79"/>
       <c r="U27" s="27"/>
-      <c r="V27" s="91"/>
+      <c r="V27" s="91">
+        <v>0</v>
+      </c>
       <c r="W27" s="30"/>
       <c r="X27" s="76"/>
       <c r="Y27" s="76"/>
@@ -5327,7 +5344,7 @@
       </c>
       <c r="D34" s="138">
         <f>SUM(D31+D28+D24+D16+D11+D5)</f>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E34" s="129"/>
       <c r="F34" s="130"/>
@@ -5387,11 +5404,11 @@
       </c>
       <c r="V34" s="132">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="W34" s="133">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X34" s="133">
         <f t="shared" si="4"/>
@@ -6140,20 +6157,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="217"/>
-      <c r="B1" s="217"/>
-      <c r="C1" s="217"/>
-      <c r="D1" s="217"/>
-      <c r="E1" s="217"/>
-      <c r="F1" s="217"/>
-      <c r="G1" s="217"/>
-      <c r="H1" s="217"/>
-      <c r="I1" s="217"/>
-      <c r="J1" s="217"/>
-      <c r="K1" s="217"/>
-      <c r="L1" s="217"/>
-      <c r="M1" s="217"/>
-      <c r="N1" s="217"/>
+      <c r="A1" s="218"/>
+      <c r="B1" s="218"/>
+      <c r="C1" s="218"/>
+      <c r="D1" s="218"/>
+      <c r="E1" s="218"/>
+      <c r="F1" s="218"/>
+      <c r="G1" s="218"/>
+      <c r="H1" s="218"/>
+      <c r="I1" s="218"/>
+      <c r="J1" s="218"/>
+      <c r="K1" s="218"/>
+      <c r="L1" s="218"/>
+      <c r="M1" s="218"/>
+      <c r="N1" s="218"/>
     </row>
     <row r="2" spans="1:14" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="63"/>
@@ -6316,7 +6333,7 @@
       </c>
       <c r="B17" s="64">
         <f>Zeitplanung!V34</f>
-        <v>4</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6326,7 +6343,7 @@
       </c>
       <c r="B18" s="64">
         <f>Zeitplanung!W34</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6482,10 +6499,10 @@
     <row r="34" spans="1:4" ht="15.5" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="36" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="218" t="s">
+      <c r="A36" s="219" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="219"/>
+      <c r="B36" s="220"/>
       <c r="C36" s="3" t="s">
         <v>23</v>
       </c>
@@ -6494,52 +6511,52 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="215" t="s">
+      <c r="A37" s="216" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="216"/>
+      <c r="B37" s="217"/>
       <c r="C37" s="64">
         <f>Zeitplanung!C5</f>
         <v>18</v>
       </c>
       <c r="D37" s="64">
         <f>Zeitplanung!D5</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="220" t="s">
+      <c r="A38" s="221" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="221"/>
+      <c r="B38" s="222"/>
       <c r="C38" s="64">
         <f>Zeitplanung!C11</f>
         <v>8</v>
       </c>
       <c r="D38" s="64">
         <f>Zeitplanung!D11</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="215" t="s">
+      <c r="A39" s="216" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="216"/>
+      <c r="B39" s="217"/>
       <c r="C39" s="64">
         <f>Zeitplanung!C16</f>
         <v>62</v>
       </c>
       <c r="D39" s="64">
         <f>Zeitplanung!D16</f>
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="220" t="s">
+      <c r="A40" s="221" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="221"/>
+      <c r="B40" s="222"/>
       <c r="C40" s="64">
         <f>Zeitplanung!C24</f>
         <v>21</v>
@@ -6550,10 +6567,10 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="215" t="s">
+      <c r="A41" s="216" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="216"/>
+      <c r="B41" s="217"/>
       <c r="C41" s="64">
         <f>Zeitplanung!C28</f>
         <v>5</v>
@@ -6564,10 +6581,10 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="215" t="s">
+      <c r="A42" s="216" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="216"/>
+      <c r="B42" s="217"/>
       <c r="C42" s="64">
         <f>Zeitplanung!C31</f>
         <v>1.25</v>

--- a/doc/Zeitplanung-1.xlsx
+++ b/doc/Zeitplanung-1.xlsx
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t>Nr.</t>
   </si>
@@ -300,25 +300,78 @@
     <t>Webseitendesign</t>
   </si>
   <si>
-    <t>Befehleliste                #01</t>
-  </si>
-  <si>
-    <t>Anleitung                   #03</t>
-  </si>
-  <si>
-    <t>A bis B Programm     #02</t>
-  </si>
-  <si>
-    <t>Programmieren         #04</t>
-  </si>
-  <si>
-    <t>Webseite                    #06</t>
-  </si>
-  <si>
     <t>Gearbeitete Zeit</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Anleitung                   #03      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t>J</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Programmieren         #04      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t>L</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Webseite                    #06     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t>J</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Befehleliste                #01      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t>J</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A bis B Programm      #02      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve">L </t>
+    </r>
+  </si>
+  <si>
+    <t>Fynn geholfen</t>
   </si>
 </sst>
 </file>
@@ -328,7 +381,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
@@ -482,6 +535,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -2605,13 +2663,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.5</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -2676,11 +2734,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="307658464"/>
-        <c:axId val="307661208"/>
+        <c:axId val="319500528"/>
+        <c:axId val="319496608"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="307658464"/>
+        <c:axId val="319500528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2690,14 +2748,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="307661208"/>
+        <c:crossAx val="319496608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="307661208"/>
+        <c:axId val="319496608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2708,7 +2766,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="307658464"/>
+        <c:crossAx val="319500528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2885,16 +2943,16 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.5</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.5</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2917,11 +2975,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="307654152"/>
-        <c:axId val="307659248"/>
+        <c:axId val="319503664"/>
+        <c:axId val="319499352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="307654152"/>
+        <c:axId val="319503664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2931,7 +2989,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="307659248"/>
+        <c:crossAx val="319499352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2939,7 +2997,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="307659248"/>
+        <c:axId val="319499352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2950,7 +3008,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="307654152"/>
+        <c:crossAx val="319503664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3391,8 +3449,8 @@
   </sheetPr>
   <dimension ref="A1:BE162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B15" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="W26" sqref="W26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="X37" sqref="X37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4045,7 +4103,7 @@
       </c>
       <c r="D11" s="163">
         <f>SUM(D12:D15)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11" s="162"/>
       <c r="F11" s="165"/>
@@ -4159,7 +4217,7 @@
       </c>
       <c r="D13" s="136">
         <f t="shared" ref="D13:D15" si="1">IF(SUM(J13:AR13)=0," ",SUM(J13:AR13))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" s="103"/>
       <c r="F13" s="109"/>
@@ -4182,7 +4240,7 @@
         <v>0.5</v>
       </c>
       <c r="W13" s="145">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="X13" s="195"/>
       <c r="Y13" s="196"/>
@@ -4318,7 +4376,7 @@
       </c>
       <c r="D16" s="163">
         <f>SUM(D17:D23)</f>
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="E16" s="114"/>
       <c r="F16" s="164"/>
@@ -4365,7 +4423,7 @@
         <v>31</v>
       </c>
       <c r="B17" s="49" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C17" s="137">
         <v>2</v>
@@ -4425,14 +4483,14 @@
         <v>32</v>
       </c>
       <c r="B18" s="49" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C18" s="137">
         <v>9</v>
       </c>
       <c r="D18" s="204">
         <f t="shared" ref="D18:D23" si="2">IF(SUM(I18:AQ18)=0," ",SUM(I18:AQ18))</f>
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="E18" s="103">
         <v>1</v>
@@ -4459,7 +4517,7 @@
       <c r="S18" s="182"/>
       <c r="T18" s="79"/>
       <c r="U18" s="91">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V18" s="25"/>
       <c r="W18" s="26"/>
@@ -4489,7 +4547,7 @@
         <v>33</v>
       </c>
       <c r="B19" s="49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" s="137">
         <v>1</v>
@@ -4612,7 +4670,7 @@
       </c>
       <c r="D21" s="204">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E21" s="103">
         <v>1</v>
@@ -4641,7 +4699,7 @@
         <v>1</v>
       </c>
       <c r="W21" s="145">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X21" s="185"/>
       <c r="Y21" s="190"/>
@@ -4777,7 +4835,7 @@
       </c>
       <c r="D24" s="163">
         <f>SUM(D25:D27)</f>
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="E24" s="162"/>
       <c r="F24" s="115"/>
@@ -4802,7 +4860,7 @@
       <c r="Y24" s="116"/>
       <c r="Z24" s="118"/>
       <c r="AA24" s="122" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="AB24" s="116"/>
       <c r="AC24" s="116"/>
@@ -4891,7 +4949,7 @@
       </c>
       <c r="D26" s="204">
         <f>IF(SUM(I26:AQ26)=0," ",SUM(I26:AQ26))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E26" s="103">
         <v>1</v>
@@ -4921,9 +4979,11 @@
         <v>1</v>
       </c>
       <c r="V26" s="91">
-        <v>0</v>
-      </c>
-      <c r="W26" s="145"/>
+        <v>0.5</v>
+      </c>
+      <c r="W26" s="145">
+        <v>0.5</v>
+      </c>
       <c r="X26" s="185"/>
       <c r="Y26" s="76"/>
       <c r="Z26" s="76"/>
@@ -5018,7 +5078,7 @@
       </c>
       <c r="D28" s="163">
         <f>SUM(D29:D30)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E28" s="162"/>
       <c r="F28" s="165"/>
@@ -5120,11 +5180,13 @@
       <c r="A30" s="40">
         <v>52</v>
       </c>
-      <c r="B30" s="53"/>
+      <c r="B30" s="53" t="s">
+        <v>53</v>
+      </c>
       <c r="C30" s="202"/>
-      <c r="D30" s="205" t="str">
+      <c r="D30" s="205">
         <f>IF(SUM(J30:AR30)=0," ",SUM(J30:AR30))</f>
-        <v xml:space="preserve"> </v>
+        <v>0.5</v>
       </c>
       <c r="E30" s="106"/>
       <c r="F30" s="111"/>
@@ -5144,7 +5206,9 @@
       <c r="T30" s="79"/>
       <c r="U30" s="32"/>
       <c r="V30" s="37"/>
-      <c r="W30" s="30"/>
+      <c r="W30" s="30">
+        <v>0.5</v>
+      </c>
       <c r="X30" s="75"/>
       <c r="Y30" s="75"/>
       <c r="Z30" s="75"/>
@@ -5344,7 +5408,7 @@
       </c>
       <c r="D34" s="138">
         <f>SUM(D31+D28+D24+D16+D11+D5)</f>
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E34" s="129"/>
       <c r="F34" s="130"/>
@@ -5400,15 +5464,15 @@
       </c>
       <c r="U34" s="133">
         <f>SUM(U5:U33)</f>
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V34" s="132">
         <f t="shared" si="4"/>
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="W34" s="133">
         <f t="shared" si="4"/>
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="X34" s="133">
         <f t="shared" si="4"/>
@@ -5659,7 +5723,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J40" s="5"/>
     </row>
@@ -6323,7 +6387,7 @@
       </c>
       <c r="B16" s="64">
         <f>Zeitplanung!U34</f>
-        <v>6.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6333,7 +6397,7 @@
       </c>
       <c r="B17" s="64">
         <f>Zeitplanung!V34</f>
-        <v>6.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6343,7 +6407,7 @@
       </c>
       <c r="B18" s="64">
         <f>Zeitplanung!W34</f>
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6535,7 +6599,7 @@
       </c>
       <c r="D38" s="64">
         <f>Zeitplanung!D11</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6549,7 +6613,7 @@
       </c>
       <c r="D39" s="64">
         <f>Zeitplanung!D16</f>
-        <v>19.5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6563,7 +6627,7 @@
       </c>
       <c r="D40" s="64">
         <f>Zeitplanung!D24</f>
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6577,7 +6641,7 @@
       </c>
       <c r="D41" s="64">
         <f>Zeitplanung!D28</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">

--- a/doc/Zeitplanung-1.xlsx
+++ b/doc/Zeitplanung-1.xlsx
@@ -2669,19 +2669,19 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
@@ -2696,7 +2696,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
@@ -2734,11 +2734,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="319500528"/>
-        <c:axId val="319496608"/>
+        <c:axId val="312624192"/>
+        <c:axId val="314228472"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="319500528"/>
+        <c:axId val="312624192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2748,14 +2748,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="319496608"/>
+        <c:crossAx val="314228472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="319496608"/>
+        <c:axId val="314228472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2766,7 +2766,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="319500528"/>
+        <c:crossAx val="312624192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2940,13 +2940,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22</c:v>
+                  <c:v>25.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>8.5</c:v>
@@ -2975,11 +2975,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="319503664"/>
-        <c:axId val="319499352"/>
+        <c:axId val="314232000"/>
+        <c:axId val="314227688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="319503664"/>
+        <c:axId val="314232000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2989,7 +2989,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="319499352"/>
+        <c:crossAx val="314227688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2997,7 +2997,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="319499352"/>
+        <c:axId val="314227688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3008,7 +3008,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="319503664"/>
+        <c:crossAx val="314232000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3449,8 +3449,8 @@
   </sheetPr>
   <dimension ref="A1:BE162"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="X37" sqref="X37"/>
+    <sheetView tabSelected="1" topLeftCell="D11" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="AF20" sqref="AF20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3755,7 +3755,7 @@
       </c>
       <c r="D5" s="135">
         <f>SUM(D6:D10)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" s="162"/>
       <c r="F5" s="115"/>
@@ -3925,7 +3925,7 @@
       </c>
       <c r="D8" s="136">
         <f t="shared" ref="D8:D10" si="0">IF(SUM(J8:AR8)=0," ",SUM(J8:AR8))</f>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E8" s="104">
         <v>1</v>
@@ -3951,7 +3951,9 @@
       <c r="V8" s="91">
         <v>1</v>
       </c>
-      <c r="W8" s="145"/>
+      <c r="W8" s="145">
+        <v>0.5</v>
+      </c>
       <c r="X8" s="185"/>
       <c r="Y8" s="74"/>
       <c r="Z8" s="74"/>
@@ -3986,7 +3988,7 @@
       </c>
       <c r="D9" s="136">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E9" s="104">
         <v>1</v>
@@ -4012,7 +4014,9 @@
       <c r="T9" s="79"/>
       <c r="U9" s="24"/>
       <c r="V9" s="28"/>
-      <c r="W9" s="145"/>
+      <c r="W9" s="145">
+        <v>0.5</v>
+      </c>
       <c r="X9" s="77"/>
       <c r="Y9" s="77"/>
       <c r="Z9" s="77"/>
@@ -4103,7 +4107,7 @@
       </c>
       <c r="D11" s="163">
         <f>SUM(D12:D15)</f>
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="E11" s="162"/>
       <c r="F11" s="165"/>
@@ -4217,7 +4221,7 @@
       </c>
       <c r="D13" s="136">
         <f t="shared" ref="D13:D15" si="1">IF(SUM(J13:AR13)=0," ",SUM(J13:AR13))</f>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E13" s="103"/>
       <c r="F13" s="109"/>
@@ -4240,7 +4244,7 @@
         <v>0.5</v>
       </c>
       <c r="W13" s="145">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="X13" s="195"/>
       <c r="Y13" s="196"/>
@@ -4376,7 +4380,7 @@
       </c>
       <c r="D16" s="163">
         <f>SUM(D17:D23)</f>
-        <v>22</v>
+        <v>25.5</v>
       </c>
       <c r="E16" s="114"/>
       <c r="F16" s="164"/>
@@ -4490,7 +4494,7 @@
       </c>
       <c r="D18" s="204">
         <f t="shared" ref="D18:D23" si="2">IF(SUM(I18:AQ18)=0," ",SUM(I18:AQ18))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E18" s="103">
         <v>1</v>
@@ -4522,7 +4526,9 @@
       <c r="V18" s="25"/>
       <c r="W18" s="26"/>
       <c r="X18" s="76"/>
-      <c r="Y18" s="198"/>
+      <c r="Y18" s="198">
+        <v>1</v>
+      </c>
       <c r="Z18" s="185"/>
       <c r="AA18" s="76"/>
       <c r="AB18" s="188"/>
@@ -4612,7 +4618,7 @@
       </c>
       <c r="D20" s="202">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="E20" s="103">
         <v>1</v>
@@ -4638,14 +4644,20 @@
       <c r="V20" s="143"/>
       <c r="W20" s="199"/>
       <c r="X20" s="185"/>
-      <c r="Y20" s="189"/>
+      <c r="Y20" s="189">
+        <v>1</v>
+      </c>
       <c r="Z20" s="185"/>
-      <c r="AA20" s="198"/>
+      <c r="AA20" s="198">
+        <v>1</v>
+      </c>
       <c r="AB20" s="185"/>
       <c r="AC20" s="76"/>
       <c r="AD20" s="76"/>
       <c r="AE20" s="76"/>
-      <c r="AF20" s="91"/>
+      <c r="AF20" s="91">
+        <v>0.5</v>
+      </c>
       <c r="AG20" s="76"/>
       <c r="AH20" s="79"/>
       <c r="AI20" s="79"/>
@@ -5408,7 +5420,7 @@
       </c>
       <c r="D34" s="138">
         <f>SUM(D31+D28+D24+D16+D11+D5)</f>
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E34" s="129"/>
       <c r="F34" s="130"/>
@@ -5472,7 +5484,7 @@
       </c>
       <c r="W34" s="133">
         <f t="shared" si="4"/>
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="X34" s="133">
         <f t="shared" si="4"/>
@@ -5480,7 +5492,7 @@
       </c>
       <c r="Y34" s="132">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z34" s="133">
         <f t="shared" si="4"/>
@@ -5488,7 +5500,7 @@
       </c>
       <c r="AA34" s="132">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB34" s="133">
         <f t="shared" si="4"/>
@@ -5508,7 +5520,7 @@
       </c>
       <c r="AF34" s="132">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AG34" s="133">
         <f t="shared" si="5"/>
@@ -6407,7 +6419,7 @@
       </c>
       <c r="B18" s="64">
         <f>Zeitplanung!W34</f>
-        <v>5.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6427,7 +6439,7 @@
       </c>
       <c r="B20" s="64">
         <f>Zeitplanung!Y34</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6447,7 +6459,7 @@
       </c>
       <c r="B22" s="64">
         <f>Zeitplanung!AA34</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6497,7 +6509,7 @@
       </c>
       <c r="B27" s="64">
         <f>Zeitplanung!AF34</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6585,7 +6597,7 @@
       </c>
       <c r="D37" s="64">
         <f>Zeitplanung!D5</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6599,7 +6611,7 @@
       </c>
       <c r="D38" s="64">
         <f>Zeitplanung!D11</f>
-        <v>8</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6613,7 +6625,7 @@
       </c>
       <c r="D39" s="64">
         <f>Zeitplanung!D16</f>
-        <v>22</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">

--- a/doc/Zeitplanung-1.xlsx
+++ b/doc/Zeitplanung-1.xlsx
@@ -2681,7 +2681,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
@@ -2696,7 +2696,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
@@ -2734,11 +2734,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="312624192"/>
-        <c:axId val="314228472"/>
+        <c:axId val="310132808"/>
+        <c:axId val="310134376"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="312624192"/>
+        <c:axId val="310132808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2748,14 +2748,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="314228472"/>
+        <c:crossAx val="310134376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="314228472"/>
+        <c:axId val="310134376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2766,7 +2766,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="312624192"/>
+        <c:crossAx val="310132808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2946,7 +2946,7 @@
                   <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.5</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>8.5</c:v>
@@ -2975,11 +2975,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="314232000"/>
-        <c:axId val="314227688"/>
+        <c:axId val="312311488"/>
+        <c:axId val="312315800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="314232000"/>
+        <c:axId val="312311488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2989,7 +2989,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="314227688"/>
+        <c:crossAx val="312315800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2997,7 +2997,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="314227688"/>
+        <c:axId val="312315800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3008,7 +3008,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="314232000"/>
+        <c:crossAx val="312311488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4380,7 +4380,7 @@
       </c>
       <c r="D16" s="163">
         <f>SUM(D17:D23)</f>
-        <v>25.5</v>
+        <v>27</v>
       </c>
       <c r="E16" s="114"/>
       <c r="F16" s="164"/>
@@ -4618,7 +4618,7 @@
       </c>
       <c r="D20" s="202">
         <f t="shared" si="2"/>
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="E20" s="103">
         <v>1</v>
@@ -4649,14 +4649,14 @@
       </c>
       <c r="Z20" s="185"/>
       <c r="AA20" s="198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB20" s="185"/>
       <c r="AC20" s="76"/>
       <c r="AD20" s="76"/>
       <c r="AE20" s="76"/>
       <c r="AF20" s="91">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AG20" s="76"/>
       <c r="AH20" s="79"/>
@@ -5420,7 +5420,7 @@
       </c>
       <c r="D34" s="138">
         <f>SUM(D31+D28+D24+D16+D11+D5)</f>
-        <v>54</v>
+        <v>55.5</v>
       </c>
       <c r="E34" s="129"/>
       <c r="F34" s="130"/>
@@ -5500,7 +5500,7 @@
       </c>
       <c r="AA34" s="132">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB34" s="133">
         <f t="shared" si="4"/>
@@ -5520,7 +5520,7 @@
       </c>
       <c r="AF34" s="132">
         <f t="shared" si="5"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AG34" s="133">
         <f t="shared" si="5"/>
@@ -6459,7 +6459,7 @@
       </c>
       <c r="B22" s="64">
         <f>Zeitplanung!AA34</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6509,7 +6509,7 @@
       </c>
       <c r="B27" s="64">
         <f>Zeitplanung!AF34</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6625,7 +6625,7 @@
       </c>
       <c r="D39" s="64">
         <f>Zeitplanung!D16</f>
-        <v>25.5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">

--- a/doc/Zeitplanung-1.xlsx
+++ b/doc/Zeitplanung-1.xlsx
@@ -381,7 +381,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
@@ -540,6 +540,11 @@
       <name val="Wingdings"/>
       <charset val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -2201,7 +2206,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="2" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2432,6 +2436,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="60 % - Akzent1" xfId="7" builtinId="32"/>
@@ -2663,10 +2668,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>7</c:v>
@@ -2708,7 +2713,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0</c:v>
@@ -2734,11 +2739,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="310132808"/>
-        <c:axId val="310134376"/>
+        <c:axId val="317680424"/>
+        <c:axId val="319355344"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="310132808"/>
+        <c:axId val="317680424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2748,14 +2753,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="310134376"/>
+        <c:crossAx val="319355344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="310134376"/>
+        <c:axId val="319355344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2766,7 +2771,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="310132808"/>
+        <c:crossAx val="317680424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2872,13 +2877,13 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>62</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.25</c:v>
@@ -2940,16 +2945,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.5</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.5</c:v>
@@ -2975,11 +2980,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="312311488"/>
-        <c:axId val="312315800"/>
+        <c:axId val="319356912"/>
+        <c:axId val="319356128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="312311488"/>
+        <c:axId val="319356912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2989,7 +2994,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="312315800"/>
+        <c:crossAx val="319356128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2997,7 +3002,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="312315800"/>
+        <c:axId val="319356128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3008,7 +3013,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="312311488"/>
+        <c:crossAx val="319356912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3449,8 +3454,8 @@
   </sheetPr>
   <dimension ref="A1:BE162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D11" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="AF20" sqref="AF20"/>
+    <sheetView tabSelected="1" topLeftCell="C15" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="AI35" sqref="AI35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3474,38 +3479,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="26" x14ac:dyDescent="0.35">
-      <c r="A1" s="212" t="s">
+      <c r="A1" s="211" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="212"/>
-      <c r="C1" s="212"/>
-      <c r="D1" s="212"/>
-      <c r="E1" s="212"/>
-      <c r="F1" s="212"/>
-      <c r="G1" s="212"/>
-      <c r="H1" s="212"/>
-      <c r="I1" s="212"/>
-      <c r="J1" s="212"/>
-      <c r="K1" s="212"/>
-      <c r="L1" s="212"/>
-      <c r="M1" s="212"/>
-      <c r="N1" s="212"/>
-      <c r="O1" s="212"/>
-      <c r="P1" s="212"/>
-      <c r="Q1" s="212"/>
-      <c r="R1" s="212"/>
-      <c r="S1" s="212"/>
-      <c r="T1" s="212"/>
-      <c r="U1" s="212"/>
-      <c r="V1" s="212"/>
-      <c r="W1" s="212"/>
-      <c r="X1" s="212"/>
-      <c r="Y1" s="212"/>
-      <c r="Z1" s="212"/>
-      <c r="AA1" s="212"/>
-      <c r="AB1" s="212"/>
-      <c r="AC1" s="212"/>
-      <c r="AD1" s="212"/>
+      <c r="B1" s="211"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="211"/>
+      <c r="E1" s="211"/>
+      <c r="F1" s="211"/>
+      <c r="G1" s="211"/>
+      <c r="H1" s="211"/>
+      <c r="I1" s="211"/>
+      <c r="J1" s="211"/>
+      <c r="K1" s="211"/>
+      <c r="L1" s="211"/>
+      <c r="M1" s="211"/>
+      <c r="N1" s="211"/>
+      <c r="O1" s="211"/>
+      <c r="P1" s="211"/>
+      <c r="Q1" s="211"/>
+      <c r="R1" s="211"/>
+      <c r="S1" s="211"/>
+      <c r="T1" s="211"/>
+      <c r="U1" s="211"/>
+      <c r="V1" s="211"/>
+      <c r="W1" s="211"/>
+      <c r="X1" s="211"/>
+      <c r="Y1" s="211"/>
+      <c r="Z1" s="211"/>
+      <c r="AA1" s="211"/>
+      <c r="AB1" s="211"/>
+      <c r="AC1" s="211"/>
+      <c r="AD1" s="211"/>
     </row>
     <row r="2" spans="1:44" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6"/>
@@ -3521,74 +3526,74 @@
     </row>
     <row r="3" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="139"/>
-      <c r="B3" s="169"/>
-      <c r="C3" s="213" t="s">
+      <c r="B3" s="168"/>
+      <c r="C3" s="212" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="214"/>
+      <c r="D3" s="213"/>
       <c r="E3" s="140"/>
       <c r="F3" s="141"/>
       <c r="G3" s="141"/>
       <c r="H3" s="142"/>
-      <c r="I3" s="210" t="s">
+      <c r="I3" s="209" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="210"/>
-      <c r="K3" s="210"/>
-      <c r="L3" s="210"/>
-      <c r="M3" s="215"/>
-      <c r="N3" s="209" t="s">
+      <c r="J3" s="209"/>
+      <c r="K3" s="209"/>
+      <c r="L3" s="209"/>
+      <c r="M3" s="214"/>
+      <c r="N3" s="208" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="210"/>
-      <c r="P3" s="210"/>
-      <c r="Q3" s="210"/>
-      <c r="R3" s="210"/>
-      <c r="S3" s="209" t="s">
+      <c r="O3" s="209"/>
+      <c r="P3" s="209"/>
+      <c r="Q3" s="209"/>
+      <c r="R3" s="209"/>
+      <c r="S3" s="208" t="s">
         <v>27</v>
       </c>
-      <c r="T3" s="210"/>
-      <c r="U3" s="210"/>
-      <c r="V3" s="210"/>
-      <c r="W3" s="210"/>
-      <c r="X3" s="209" t="s">
+      <c r="T3" s="209"/>
+      <c r="U3" s="209"/>
+      <c r="V3" s="209"/>
+      <c r="W3" s="209"/>
+      <c r="X3" s="208" t="s">
         <v>28</v>
       </c>
-      <c r="Y3" s="210"/>
-      <c r="Z3" s="210"/>
-      <c r="AA3" s="210"/>
-      <c r="AB3" s="210"/>
-      <c r="AC3" s="209" t="s">
+      <c r="Y3" s="209"/>
+      <c r="Z3" s="209"/>
+      <c r="AA3" s="209"/>
+      <c r="AB3" s="209"/>
+      <c r="AC3" s="208" t="s">
         <v>32</v>
       </c>
-      <c r="AD3" s="210"/>
-      <c r="AE3" s="210"/>
-      <c r="AF3" s="210"/>
-      <c r="AG3" s="210"/>
-      <c r="AH3" s="209" t="s">
+      <c r="AD3" s="209"/>
+      <c r="AE3" s="209"/>
+      <c r="AF3" s="209"/>
+      <c r="AG3" s="209"/>
+      <c r="AH3" s="208" t="s">
         <v>33</v>
       </c>
-      <c r="AI3" s="210"/>
-      <c r="AJ3" s="210"/>
-      <c r="AK3" s="210"/>
-      <c r="AL3" s="211"/>
-      <c r="AM3" s="209" t="s">
+      <c r="AI3" s="209"/>
+      <c r="AJ3" s="209"/>
+      <c r="AK3" s="209"/>
+      <c r="AL3" s="210"/>
+      <c r="AM3" s="208" t="s">
         <v>37</v>
       </c>
-      <c r="AN3" s="210"/>
-      <c r="AO3" s="210"/>
-      <c r="AP3" s="210"/>
-      <c r="AQ3" s="211"/>
+      <c r="AN3" s="209"/>
+      <c r="AO3" s="209"/>
+      <c r="AP3" s="209"/>
+      <c r="AQ3" s="210"/>
     </row>
     <row r="4" spans="1:44" ht="90.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="167"/>
-      <c r="C4" s="168" t="s">
+      <c r="B4" s="166"/>
+      <c r="C4" s="167" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="168" t="s">
+      <c r="D4" s="167" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="102" t="s">
@@ -3597,7 +3602,7 @@
       <c r="F4" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="157" t="s">
+      <c r="G4" s="156" t="s">
         <v>18</v>
       </c>
       <c r="H4" s="54" t="s">
@@ -3733,7 +3738,7 @@
         <f>AN4+1</f>
         <v>43117</v>
       </c>
-      <c r="AP4" s="201">
+      <c r="AP4" s="200">
         <f>AO4+1</f>
         <v>43118</v>
       </c>
@@ -3749,17 +3754,17 @@
       <c r="B5" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="163">
+      <c r="C5" s="162">
         <f>SUM(C6:C10)</f>
         <v>18</v>
       </c>
       <c r="D5" s="135">
         <f>SUM(D6:D10)</f>
-        <v>11</v>
-      </c>
-      <c r="E5" s="162"/>
+        <v>14</v>
+      </c>
+      <c r="E5" s="161"/>
       <c r="F5" s="115"/>
-      <c r="G5" s="156"/>
+      <c r="G5" s="155"/>
       <c r="H5" s="116"/>
       <c r="I5" s="117"/>
       <c r="J5" s="118"/>
@@ -3804,10 +3809,10 @@
       <c r="B6" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="202">
+      <c r="C6" s="201">
         <v>2</v>
       </c>
-      <c r="D6" s="203">
+      <c r="D6" s="202">
         <f>IF(SUM(J6:AR6)=0," ",SUM(J6:AR6))</f>
         <v>3</v>
       </c>
@@ -3815,7 +3820,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="109"/>
-      <c r="G6" s="175"/>
+      <c r="G6" s="174"/>
       <c r="H6" s="55"/>
       <c r="I6" s="79"/>
       <c r="J6" s="79"/>
@@ -3862,10 +3867,10 @@
       <c r="B7" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="202">
+      <c r="C7" s="201">
         <v>3</v>
       </c>
-      <c r="D7" s="204">
+      <c r="D7" s="203">
         <f>IF(SUM(J7:AR7)=0," ",SUM(J7:AR7))</f>
         <v>4</v>
       </c>
@@ -3873,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="109"/>
-      <c r="G7" s="176"/>
+      <c r="G7" s="175"/>
       <c r="H7" s="56"/>
       <c r="I7" s="79"/>
       <c r="J7" s="79"/>
@@ -3920,7 +3925,7 @@
       <c r="B8" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="204">
+      <c r="C8" s="203">
         <v>6</v>
       </c>
       <c r="D8" s="136">
@@ -3931,7 +3936,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="109"/>
-      <c r="G8" s="177"/>
+      <c r="G8" s="176"/>
       <c r="H8" s="56"/>
       <c r="I8" s="79"/>
       <c r="J8" s="79"/>
@@ -3942,19 +3947,19 @@
       <c r="O8" s="79"/>
       <c r="P8" s="24"/>
       <c r="Q8" s="28"/>
-      <c r="R8" s="145">
+      <c r="R8" s="144">
         <v>1</v>
       </c>
-      <c r="S8" s="182"/>
+      <c r="S8" s="181"/>
       <c r="T8" s="79"/>
       <c r="U8" s="24"/>
       <c r="V8" s="91">
         <v>1</v>
       </c>
-      <c r="W8" s="145">
+      <c r="W8" s="144">
         <v>0.5</v>
       </c>
-      <c r="X8" s="185"/>
+      <c r="X8" s="184"/>
       <c r="Y8" s="74"/>
       <c r="Z8" s="74"/>
       <c r="AA8" s="74"/>
@@ -3968,13 +3973,13 @@
       <c r="AI8" s="79"/>
       <c r="AJ8" s="28"/>
       <c r="AK8" s="23"/>
-      <c r="AL8" s="151"/>
-      <c r="AM8" s="147"/>
+      <c r="AL8" s="150"/>
+      <c r="AM8" s="146"/>
       <c r="AN8" s="79"/>
       <c r="AO8" s="28"/>
       <c r="AP8" s="23"/>
-      <c r="AQ8" s="151"/>
-      <c r="AR8" s="146"/>
+      <c r="AQ8" s="150"/>
+      <c r="AR8" s="145"/>
     </row>
     <row r="9" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="38">
@@ -3983,7 +3988,7 @@
       <c r="B9" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="204">
+      <c r="C9" s="203">
         <v>2</v>
       </c>
       <c r="D9" s="136">
@@ -3994,7 +3999,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="109"/>
-      <c r="G9" s="158"/>
+      <c r="G9" s="157"/>
       <c r="H9" s="56"/>
       <c r="I9" s="79"/>
       <c r="J9" s="79"/>
@@ -4014,7 +4019,7 @@
       <c r="T9" s="79"/>
       <c r="U9" s="24"/>
       <c r="V9" s="28"/>
-      <c r="W9" s="145">
+      <c r="W9" s="144">
         <v>0.5</v>
       </c>
       <c r="X9" s="77"/>
@@ -4045,18 +4050,18 @@
       <c r="B10" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="205">
+      <c r="C10" s="204">
         <v>5</v>
       </c>
-      <c r="D10" s="136" t="str">
+      <c r="D10" s="136">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>3</v>
       </c>
       <c r="E10" s="105">
         <v>1</v>
       </c>
-      <c r="F10" s="171"/>
-      <c r="G10" s="178"/>
+      <c r="F10" s="170"/>
+      <c r="G10" s="177"/>
       <c r="H10" s="56"/>
       <c r="I10" s="79"/>
       <c r="J10" s="79"/>
@@ -4067,8 +4072,8 @@
       <c r="O10" s="79"/>
       <c r="P10" s="32"/>
       <c r="Q10" s="33"/>
-      <c r="R10" s="199"/>
-      <c r="S10" s="184"/>
+      <c r="R10" s="198"/>
+      <c r="S10" s="183"/>
       <c r="T10" s="79"/>
       <c r="U10" s="32"/>
       <c r="V10" s="33"/>
@@ -4085,12 +4090,14 @@
       <c r="AG10" s="77"/>
       <c r="AH10" s="79"/>
       <c r="AI10" s="79"/>
-      <c r="AJ10" s="91"/>
+      <c r="AJ10" s="91">
+        <v>3</v>
+      </c>
       <c r="AK10" s="35"/>
       <c r="AL10" s="46"/>
       <c r="AM10" s="79"/>
       <c r="AN10" s="79"/>
-      <c r="AO10" s="152"/>
+      <c r="AO10" s="151"/>
       <c r="AP10" s="35"/>
       <c r="AQ10" s="46"/>
     </row>
@@ -4101,21 +4108,21 @@
       <c r="B11" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="166">
+      <c r="C11" s="165">
         <f>SUM(C12:C15)</f>
         <v>8</v>
       </c>
-      <c r="D11" s="163">
+      <c r="D11" s="162">
         <f>SUM(D12:D15)</f>
         <v>8.5</v>
       </c>
-      <c r="E11" s="162"/>
-      <c r="F11" s="165"/>
+      <c r="E11" s="161"/>
+      <c r="F11" s="164"/>
       <c r="G11" s="127"/>
       <c r="H11" s="116"/>
       <c r="I11" s="117"/>
       <c r="J11" s="118"/>
-      <c r="K11" s="170"/>
+      <c r="K11" s="169"/>
       <c r="L11" s="120"/>
       <c r="M11" s="121"/>
       <c r="N11" s="122"/>
@@ -4156,10 +4163,10 @@
       <c r="B12" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="202">
+      <c r="C12" s="201">
         <v>5</v>
       </c>
-      <c r="D12" s="203">
+      <c r="D12" s="202">
         <f>IF(SUM(J12:AR12)=0," ",SUM(J12:AR12))</f>
         <v>6</v>
       </c>
@@ -4167,7 +4174,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="109"/>
-      <c r="G12" s="175"/>
+      <c r="G12" s="174"/>
       <c r="H12" s="56"/>
       <c r="I12" s="79"/>
       <c r="J12" s="79"/>
@@ -4183,21 +4190,21 @@
       </c>
       <c r="Q12" s="25"/>
       <c r="R12" s="36"/>
-      <c r="S12" s="183"/>
+      <c r="S12" s="182"/>
       <c r="T12" s="79"/>
       <c r="U12" s="24"/>
       <c r="V12" s="25"/>
       <c r="W12" s="36"/>
-      <c r="X12" s="200"/>
-      <c r="Y12" s="191"/>
-      <c r="Z12" s="191"/>
-      <c r="AA12" s="191"/>
-      <c r="AB12" s="191"/>
-      <c r="AC12" s="191"/>
-      <c r="AD12" s="191"/>
-      <c r="AE12" s="191"/>
-      <c r="AF12" s="191"/>
-      <c r="AG12" s="200"/>
+      <c r="X12" s="199"/>
+      <c r="Y12" s="190"/>
+      <c r="Z12" s="190"/>
+      <c r="AA12" s="190"/>
+      <c r="AB12" s="190"/>
+      <c r="AC12" s="190"/>
+      <c r="AD12" s="190"/>
+      <c r="AE12" s="190"/>
+      <c r="AF12" s="190"/>
+      <c r="AG12" s="199"/>
       <c r="AH12" s="79"/>
       <c r="AI12" s="79"/>
       <c r="AJ12" s="25"/>
@@ -4216,7 +4223,7 @@
       <c r="B13" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="204">
+      <c r="C13" s="203">
         <v>3</v>
       </c>
       <c r="D13" s="136">
@@ -4225,7 +4232,7 @@
       </c>
       <c r="E13" s="103"/>
       <c r="F13" s="109"/>
-      <c r="G13" s="176"/>
+      <c r="G13" s="175"/>
       <c r="H13" s="56"/>
       <c r="I13" s="79"/>
       <c r="J13" s="79"/>
@@ -4237,25 +4244,25 @@
       <c r="P13" s="24"/>
       <c r="Q13" s="25"/>
       <c r="R13" s="36"/>
-      <c r="S13" s="182"/>
+      <c r="S13" s="181"/>
       <c r="T13" s="79"/>
       <c r="U13" s="24"/>
       <c r="V13" s="25">
         <v>0.5</v>
       </c>
-      <c r="W13" s="145">
+      <c r="W13" s="144">
         <v>2</v>
       </c>
-      <c r="X13" s="195"/>
-      <c r="Y13" s="196"/>
-      <c r="Z13" s="195"/>
-      <c r="AA13" s="196"/>
-      <c r="AB13" s="196"/>
-      <c r="AC13" s="196"/>
-      <c r="AD13" s="195"/>
-      <c r="AE13" s="197"/>
-      <c r="AF13" s="196"/>
-      <c r="AG13" s="195"/>
+      <c r="X13" s="194"/>
+      <c r="Y13" s="195"/>
+      <c r="Z13" s="194"/>
+      <c r="AA13" s="195"/>
+      <c r="AB13" s="195"/>
+      <c r="AC13" s="195"/>
+      <c r="AD13" s="194"/>
+      <c r="AE13" s="196"/>
+      <c r="AF13" s="195"/>
+      <c r="AG13" s="194"/>
       <c r="AH13" s="79"/>
       <c r="AI13" s="79"/>
       <c r="AJ13" s="25"/>
@@ -4272,14 +4279,14 @@
         <v>23</v>
       </c>
       <c r="B14" s="42"/>
-      <c r="C14" s="204"/>
+      <c r="C14" s="203"/>
       <c r="D14" s="136" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E14" s="103"/>
       <c r="F14" s="109"/>
-      <c r="G14" s="158"/>
+      <c r="G14" s="157"/>
       <c r="H14" s="56"/>
       <c r="I14" s="79"/>
       <c r="J14" s="79"/>
@@ -4291,22 +4298,22 @@
       <c r="P14" s="24"/>
       <c r="Q14" s="25"/>
       <c r="R14" s="36"/>
-      <c r="S14" s="182"/>
+      <c r="S14" s="181"/>
       <c r="T14" s="79"/>
       <c r="U14" s="24"/>
       <c r="V14" s="25"/>
       <c r="W14" s="36"/>
-      <c r="X14" s="195"/>
-      <c r="Y14" s="195"/>
-      <c r="Z14" s="194"/>
-      <c r="AA14" s="195"/>
-      <c r="AB14" s="197"/>
-      <c r="AC14" s="196"/>
-      <c r="AD14" s="195"/>
-      <c r="AE14" s="197"/>
-      <c r="AF14" s="196"/>
-      <c r="AG14" s="196"/>
-      <c r="AH14" s="182"/>
+      <c r="X14" s="194"/>
+      <c r="Y14" s="194"/>
+      <c r="Z14" s="193"/>
+      <c r="AA14" s="194"/>
+      <c r="AB14" s="196"/>
+      <c r="AC14" s="195"/>
+      <c r="AD14" s="194"/>
+      <c r="AE14" s="196"/>
+      <c r="AF14" s="195"/>
+      <c r="AG14" s="195"/>
+      <c r="AH14" s="181"/>
       <c r="AI14" s="79"/>
       <c r="AJ14" s="25"/>
       <c r="AK14" s="36"/>
@@ -4322,14 +4329,14 @@
         <v>24</v>
       </c>
       <c r="B15" s="42"/>
-      <c r="C15" s="202"/>
-      <c r="D15" s="205" t="str">
+      <c r="C15" s="201"/>
+      <c r="D15" s="204" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E15" s="103"/>
       <c r="F15" s="109"/>
-      <c r="G15" s="159"/>
+      <c r="G15" s="158"/>
       <c r="H15" s="56"/>
       <c r="I15" s="79"/>
       <c r="J15" s="79"/>
@@ -4341,22 +4348,22 @@
       <c r="P15" s="24"/>
       <c r="Q15" s="25"/>
       <c r="R15" s="36"/>
-      <c r="S15" s="184"/>
+      <c r="S15" s="183"/>
       <c r="T15" s="79"/>
       <c r="U15" s="24"/>
       <c r="V15" s="25"/>
       <c r="W15" s="36"/>
-      <c r="X15" s="193"/>
-      <c r="Y15" s="192"/>
-      <c r="Z15" s="193"/>
-      <c r="AA15" s="192"/>
-      <c r="AB15" s="192"/>
-      <c r="AC15" s="192"/>
-      <c r="AD15" s="193"/>
-      <c r="AE15" s="197"/>
-      <c r="AF15" s="192"/>
-      <c r="AG15" s="192"/>
-      <c r="AH15" s="184"/>
+      <c r="X15" s="192"/>
+      <c r="Y15" s="191"/>
+      <c r="Z15" s="192"/>
+      <c r="AA15" s="191"/>
+      <c r="AB15" s="191"/>
+      <c r="AC15" s="191"/>
+      <c r="AD15" s="192"/>
+      <c r="AE15" s="196"/>
+      <c r="AF15" s="191"/>
+      <c r="AG15" s="191"/>
+      <c r="AH15" s="183"/>
       <c r="AI15" s="79"/>
       <c r="AJ15" s="25"/>
       <c r="AK15" s="36"/>
@@ -4374,17 +4381,17 @@
       <c r="B16" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="163">
+      <c r="C16" s="162">
         <f>SUM(C17:C23)</f>
-        <v>62</v>
-      </c>
-      <c r="D16" s="163">
+        <v>52</v>
+      </c>
+      <c r="D16" s="162">
         <f>SUM(D17:D23)</f>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E16" s="114"/>
-      <c r="F16" s="164"/>
-      <c r="G16" s="161"/>
+      <c r="F16" s="163"/>
+      <c r="G16" s="160"/>
       <c r="H16" s="116"/>
       <c r="I16" s="117"/>
       <c r="J16" s="118"/>
@@ -4432,7 +4439,7 @@
       <c r="C17" s="137">
         <v>2</v>
       </c>
-      <c r="D17" s="203">
+      <c r="D17" s="202">
         <f>IF(SUM(I17:AQ17)=0," ",SUM(I17:AQ17))</f>
         <v>8</v>
       </c>
@@ -4440,7 +4447,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="109"/>
-      <c r="G17" s="175"/>
+      <c r="G17" s="174"/>
       <c r="H17" s="56"/>
       <c r="I17" s="79"/>
       <c r="J17" s="79"/>
@@ -4460,8 +4467,8 @@
       <c r="V17" s="91">
         <v>3</v>
       </c>
-      <c r="W17" s="199"/>
-      <c r="X17" s="187"/>
+      <c r="W17" s="198"/>
+      <c r="X17" s="186"/>
       <c r="Y17" s="76"/>
       <c r="Z17" s="76"/>
       <c r="AA17" s="76"/>
@@ -4470,8 +4477,8 @@
       <c r="AD17" s="76"/>
       <c r="AE17" s="76"/>
       <c r="AF17" s="76"/>
-      <c r="AG17" s="208"/>
-      <c r="AH17" s="183"/>
+      <c r="AG17" s="207"/>
+      <c r="AH17" s="182"/>
       <c r="AI17" s="79"/>
       <c r="AJ17" s="143"/>
       <c r="AK17" s="36"/>
@@ -4492,7 +4499,7 @@
       <c r="C18" s="137">
         <v>9</v>
       </c>
-      <c r="D18" s="204">
+      <c r="D18" s="203">
         <f t="shared" ref="D18:D23" si="2">IF(SUM(I18:AQ18)=0," ",SUM(I18:AQ18))</f>
         <v>7</v>
       </c>
@@ -4500,7 +4507,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="109"/>
-      <c r="G18" s="175">
+      <c r="G18" s="174">
         <v>43110</v>
       </c>
       <c r="H18" s="56"/>
@@ -4515,10 +4522,10 @@
       <c r="Q18" s="91">
         <v>3</v>
       </c>
-      <c r="R18" s="145">
+      <c r="R18" s="144">
         <v>2</v>
       </c>
-      <c r="S18" s="182"/>
+      <c r="S18" s="181"/>
       <c r="T18" s="79"/>
       <c r="U18" s="91">
         <v>1</v>
@@ -4526,16 +4533,16 @@
       <c r="V18" s="25"/>
       <c r="W18" s="26"/>
       <c r="X18" s="76"/>
-      <c r="Y18" s="198">
+      <c r="Y18" s="197">
         <v>1</v>
       </c>
-      <c r="Z18" s="185"/>
+      <c r="Z18" s="184"/>
       <c r="AA18" s="76"/>
-      <c r="AB18" s="188"/>
-      <c r="AC18" s="185"/>
+      <c r="AB18" s="187"/>
+      <c r="AC18" s="184"/>
       <c r="AD18" s="76"/>
-      <c r="AE18" s="188"/>
-      <c r="AF18" s="185"/>
+      <c r="AE18" s="187"/>
+      <c r="AF18" s="184"/>
       <c r="AG18" s="76"/>
       <c r="AH18" s="79"/>
       <c r="AI18" s="79"/>
@@ -4558,7 +4565,7 @@
       <c r="C19" s="137">
         <v>1</v>
       </c>
-      <c r="D19" s="204">
+      <c r="D19" s="203">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -4566,7 +4573,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="109"/>
-      <c r="G19" s="176"/>
+      <c r="G19" s="175"/>
       <c r="H19" s="56"/>
       <c r="I19" s="79"/>
       <c r="J19" s="79"/>
@@ -4585,9 +4592,9 @@
         <v>1</v>
       </c>
       <c r="W19" s="26"/>
-      <c r="X19" s="198"/>
-      <c r="Y19" s="186"/>
-      <c r="Z19" s="185"/>
+      <c r="X19" s="197"/>
+      <c r="Y19" s="185"/>
+      <c r="Z19" s="184"/>
       <c r="AA19" s="76"/>
       <c r="AB19" s="76"/>
       <c r="AC19" s="76"/>
@@ -4613,18 +4620,18 @@
       <c r="B20" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="204">
-        <v>45</v>
-      </c>
-      <c r="D20" s="202">
+      <c r="C20" s="203">
+        <v>35</v>
+      </c>
+      <c r="D20" s="201">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E20" s="103">
         <v>1</v>
       </c>
       <c r="F20" s="109"/>
-      <c r="G20" s="176"/>
+      <c r="G20" s="175"/>
       <c r="H20" s="56"/>
       <c r="I20" s="79"/>
       <c r="J20" s="79"/>
@@ -4635,23 +4642,23 @@
       <c r="O20" s="79"/>
       <c r="P20" s="24"/>
       <c r="Q20" s="143"/>
-      <c r="R20" s="145">
+      <c r="R20" s="144">
         <v>2</v>
       </c>
-      <c r="S20" s="182"/>
+      <c r="S20" s="181"/>
       <c r="T20" s="79"/>
       <c r="U20" s="143"/>
       <c r="V20" s="143"/>
-      <c r="W20" s="199"/>
-      <c r="X20" s="185"/>
-      <c r="Y20" s="189">
+      <c r="W20" s="198"/>
+      <c r="X20" s="184"/>
+      <c r="Y20" s="188">
         <v>1</v>
       </c>
-      <c r="Z20" s="185"/>
-      <c r="AA20" s="198">
+      <c r="Z20" s="184"/>
+      <c r="AA20" s="197">
         <v>2</v>
       </c>
-      <c r="AB20" s="185"/>
+      <c r="AB20" s="184"/>
       <c r="AC20" s="76"/>
       <c r="AD20" s="76"/>
       <c r="AE20" s="76"/>
@@ -4661,10 +4668,12 @@
       <c r="AG20" s="76"/>
       <c r="AH20" s="79"/>
       <c r="AI20" s="79"/>
-      <c r="AJ20" s="91"/>
+      <c r="AJ20" s="91">
+        <v>3</v>
+      </c>
       <c r="AK20" s="91"/>
-      <c r="AL20" s="145"/>
-      <c r="AM20" s="147"/>
+      <c r="AL20" s="144"/>
+      <c r="AM20" s="146"/>
       <c r="AN20" s="79"/>
       <c r="AO20" s="143"/>
       <c r="AP20" s="36"/>
@@ -4680,15 +4689,15 @@
       <c r="C21" s="137">
         <v>5</v>
       </c>
-      <c r="D21" s="204">
+      <c r="D21" s="203">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E21" s="103">
         <v>1</v>
       </c>
-      <c r="F21" s="160"/>
-      <c r="G21" s="179">
+      <c r="F21" s="159"/>
+      <c r="G21" s="178">
         <v>43091</v>
       </c>
       <c r="H21" s="56"/>
@@ -4710,14 +4719,14 @@
       <c r="V21" s="25">
         <v>1</v>
       </c>
-      <c r="W21" s="145">
+      <c r="W21" s="144">
         <v>3</v>
       </c>
-      <c r="X21" s="185"/>
-      <c r="Y21" s="190"/>
-      <c r="Z21" s="185"/>
-      <c r="AA21" s="188"/>
-      <c r="AB21" s="185"/>
+      <c r="X21" s="184"/>
+      <c r="Y21" s="189"/>
+      <c r="Z21" s="184"/>
+      <c r="AA21" s="187"/>
+      <c r="AB21" s="184"/>
       <c r="AC21" s="76"/>
       <c r="AD21" s="76"/>
       <c r="AE21" s="76"/>
@@ -4725,7 +4734,9 @@
       <c r="AG21" s="76"/>
       <c r="AH21" s="79"/>
       <c r="AI21" s="79"/>
-      <c r="AJ21" s="143"/>
+      <c r="AJ21" s="143">
+        <v>1</v>
+      </c>
       <c r="AK21" s="36"/>
       <c r="AL21" s="48"/>
       <c r="AM21" s="79"/>
@@ -4739,14 +4750,14 @@
         <v>36</v>
       </c>
       <c r="B22" s="49"/>
-      <c r="C22" s="204"/>
-      <c r="D22" s="202" t="str">
+      <c r="C22" s="203"/>
+      <c r="D22" s="201" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E22" s="103"/>
       <c r="F22" s="109"/>
-      <c r="G22" s="158"/>
+      <c r="G22" s="157"/>
       <c r="H22" s="56"/>
       <c r="I22" s="79"/>
       <c r="J22" s="79"/>
@@ -4790,13 +4801,13 @@
       </c>
       <c r="B23" s="49"/>
       <c r="C23" s="137"/>
-      <c r="D23" s="205" t="str">
+      <c r="D23" s="204" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E23" s="104"/>
       <c r="F23" s="109"/>
-      <c r="G23" s="159"/>
+      <c r="G23" s="158"/>
       <c r="H23" s="56"/>
       <c r="I23" s="79"/>
       <c r="J23" s="79"/>
@@ -4841,17 +4852,17 @@
       <c r="B24" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="163">
+      <c r="C24" s="162">
         <f>SUM(C25:C27)</f>
         <v>21</v>
       </c>
-      <c r="D24" s="163">
+      <c r="D24" s="162">
         <f>SUM(D25:D27)</f>
-        <v>8.5</v>
-      </c>
-      <c r="E24" s="162"/>
+        <v>10.5</v>
+      </c>
+      <c r="E24" s="161"/>
       <c r="F24" s="115"/>
-      <c r="G24" s="161"/>
+      <c r="G24" s="160"/>
       <c r="H24" s="116"/>
       <c r="I24" s="117"/>
       <c r="J24" s="118"/>
@@ -4898,10 +4909,10 @@
       <c r="B25" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="202">
+      <c r="C25" s="201">
         <v>1</v>
       </c>
-      <c r="D25" s="203">
+      <c r="D25" s="202">
         <f>IF(SUM(J25:AR25)=0," ",SUM(J25:AR25))</f>
         <v>1</v>
       </c>
@@ -4909,7 +4920,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="109"/>
-      <c r="G25" s="175"/>
+      <c r="G25" s="174"/>
       <c r="H25" s="57"/>
       <c r="I25" s="79"/>
       <c r="J25" s="79"/>
@@ -4932,7 +4943,7 @@
       <c r="Y25" s="76"/>
       <c r="Z25" s="76"/>
       <c r="AA25" s="76"/>
-      <c r="AB25" s="187"/>
+      <c r="AB25" s="186"/>
       <c r="AC25" s="76"/>
       <c r="AD25" s="76"/>
       <c r="AE25" s="76"/>
@@ -4949,25 +4960,25 @@
       <c r="AP25" s="25"/>
       <c r="AQ25" s="51"/>
     </row>
-    <row r="26" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="39">
         <v>41</v>
       </c>
       <c r="B26" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="202">
+      <c r="C26" s="201">
         <v>12</v>
       </c>
-      <c r="D26" s="204">
+      <c r="D26" s="203">
         <f>IF(SUM(I26:AQ26)=0," ",SUM(I26:AQ26))</f>
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="E26" s="103">
         <v>1</v>
       </c>
       <c r="F26" s="109"/>
-      <c r="G26" s="176"/>
+      <c r="G26" s="175"/>
       <c r="H26" s="57"/>
       <c r="I26" s="79"/>
       <c r="J26" s="79"/>
@@ -4982,10 +4993,10 @@
       <c r="Q26" s="91">
         <v>3</v>
       </c>
-      <c r="R26" s="145">
+      <c r="R26" s="144">
         <v>1</v>
       </c>
-      <c r="S26" s="182"/>
+      <c r="S26" s="181"/>
       <c r="T26" s="79"/>
       <c r="U26" s="91">
         <v>1</v>
@@ -4993,10 +5004,10 @@
       <c r="V26" s="91">
         <v>0.5</v>
       </c>
-      <c r="W26" s="145">
+      <c r="W26" s="144">
         <v>0.5</v>
       </c>
-      <c r="X26" s="185"/>
+      <c r="X26" s="184"/>
       <c r="Y26" s="76"/>
       <c r="Z26" s="76"/>
       <c r="AA26" s="76"/>
@@ -5008,10 +5019,12 @@
       <c r="AG26" s="76"/>
       <c r="AH26" s="79"/>
       <c r="AI26" s="79"/>
-      <c r="AJ26" s="144"/>
+      <c r="AJ26" s="222">
+        <v>0.5</v>
+      </c>
       <c r="AK26" s="91"/>
-      <c r="AL26" s="145"/>
-      <c r="AM26" s="147"/>
+      <c r="AL26" s="144"/>
+      <c r="AM26" s="146"/>
       <c r="AN26" s="79"/>
       <c r="AO26" s="91"/>
       <c r="AP26" s="28"/>
@@ -5024,18 +5037,18 @@
       <c r="B27" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="205">
+      <c r="C27" s="204">
         <v>8</v>
       </c>
       <c r="D27" s="136">
         <f t="shared" ref="D27" si="3">IF(SUM(J27:AR27)=0," ",SUM(J27:AR27))</f>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E27" s="106">
         <v>1</v>
       </c>
       <c r="F27" s="110"/>
-      <c r="G27" s="178"/>
+      <c r="G27" s="177"/>
       <c r="H27" s="57"/>
       <c r="I27" s="79"/>
       <c r="J27" s="79"/>
@@ -5046,14 +5059,16 @@
       <c r="O27" s="79"/>
       <c r="P27" s="27"/>
       <c r="Q27" s="37"/>
-      <c r="R27" s="145">
+      <c r="R27" s="144">
         <v>0.5</v>
       </c>
-      <c r="S27" s="184"/>
+      <c r="S27" s="183"/>
       <c r="T27" s="79"/>
-      <c r="U27" s="27"/>
+      <c r="U27" s="27">
+        <v>0.5</v>
+      </c>
       <c r="V27" s="91">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W27" s="30"/>
       <c r="X27" s="76"/>
@@ -5068,7 +5083,9 @@
       <c r="AG27" s="76"/>
       <c r="AH27" s="79"/>
       <c r="AI27" s="79"/>
-      <c r="AJ27" s="25"/>
+      <c r="AJ27" s="25">
+        <v>0.5</v>
+      </c>
       <c r="AK27" s="91"/>
       <c r="AL27" s="45"/>
       <c r="AM27" s="79"/>
@@ -5084,17 +5101,17 @@
       <c r="B28" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="166">
+      <c r="C28" s="165">
         <f>SUM(C29:C30)</f>
-        <v>5</v>
-      </c>
-      <c r="D28" s="163">
+        <v>2</v>
+      </c>
+      <c r="D28" s="162">
         <f>SUM(D29:D30)</f>
         <v>0.5</v>
       </c>
-      <c r="E28" s="162"/>
-      <c r="F28" s="165"/>
-      <c r="G28" s="161"/>
+      <c r="E28" s="161"/>
+      <c r="F28" s="164"/>
+      <c r="G28" s="160"/>
       <c r="H28" s="116"/>
       <c r="I28" s="117"/>
       <c r="J28" s="118"/>
@@ -5139,10 +5156,10 @@
       <c r="B29" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="202">
-        <v>5</v>
-      </c>
-      <c r="D29" s="203" t="str">
+      <c r="C29" s="201">
+        <v>2</v>
+      </c>
+      <c r="D29" s="202" t="str">
         <f>IF(SUM(J29:AR29)=0," ",SUM(J29:AR29))</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -5150,11 +5167,11 @@
         <v>3</v>
       </c>
       <c r="F29" s="109"/>
-      <c r="G29" s="175"/>
-      <c r="H29" s="153"/>
+      <c r="G29" s="174"/>
+      <c r="H29" s="152"/>
       <c r="I29" s="79"/>
       <c r="J29" s="79"/>
-      <c r="K29" s="154"/>
+      <c r="K29" s="153"/>
       <c r="L29" s="85"/>
       <c r="M29" s="86"/>
       <c r="N29" s="79"/>
@@ -5195,14 +5212,14 @@
       <c r="B30" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="202"/>
-      <c r="D30" s="205">
+      <c r="C30" s="201"/>
+      <c r="D30" s="204">
         <f>IF(SUM(J30:AR30)=0," ",SUM(J30:AR30))</f>
         <v>0.5</v>
       </c>
       <c r="E30" s="106"/>
       <c r="F30" s="111"/>
-      <c r="G30" s="159"/>
+      <c r="G30" s="158"/>
       <c r="H30" s="56"/>
       <c r="I30" s="79"/>
       <c r="J30" s="79"/>
@@ -5231,7 +5248,7 @@
       <c r="AE30" s="75"/>
       <c r="AF30" s="75"/>
       <c r="AG30" s="75"/>
-      <c r="AH30" s="184"/>
+      <c r="AH30" s="183"/>
       <c r="AI30" s="79"/>
       <c r="AJ30" s="37"/>
       <c r="AK30" s="37"/>
@@ -5249,7 +5266,7 @@
       <c r="B31" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="163">
+      <c r="C31" s="162">
         <f>SUM(C32:C33)</f>
         <v>1.25</v>
       </c>
@@ -5258,8 +5275,8 @@
         <v>0</v>
       </c>
       <c r="E31" s="114"/>
-      <c r="F31" s="164"/>
-      <c r="G31" s="161"/>
+      <c r="F31" s="163"/>
+      <c r="G31" s="160"/>
       <c r="H31" s="116"/>
       <c r="I31" s="117"/>
       <c r="J31" s="118"/>
@@ -5304,7 +5321,7 @@
       <c r="B32" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="203">
+      <c r="C32" s="202">
         <v>1</v>
       </c>
       <c r="D32" s="136" t="str">
@@ -5314,8 +5331,8 @@
       <c r="E32" s="103">
         <v>2</v>
       </c>
-      <c r="F32" s="174"/>
-      <c r="G32" s="180"/>
+      <c r="F32" s="173"/>
+      <c r="G32" s="179"/>
       <c r="H32" s="59"/>
       <c r="I32" s="79"/>
       <c r="J32" s="79"/>
@@ -5333,7 +5350,7 @@
       <c r="V32" s="25"/>
       <c r="W32" s="26"/>
       <c r="X32" s="73"/>
-      <c r="Y32" s="187"/>
+      <c r="Y32" s="186"/>
       <c r="Z32" s="74"/>
       <c r="AA32" s="74"/>
       <c r="AB32" s="74"/>
@@ -5354,13 +5371,13 @@
       <c r="AQ32" s="52"/>
     </row>
     <row r="33" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="150">
+      <c r="A33" s="149">
         <v>62</v>
       </c>
       <c r="B33" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="205">
+      <c r="C33" s="204">
         <v>0.25</v>
       </c>
       <c r="D33" s="136" t="str">
@@ -5371,7 +5388,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="112"/>
-      <c r="G33" s="178"/>
+      <c r="G33" s="177"/>
       <c r="H33" s="58"/>
       <c r="I33" s="79"/>
       <c r="J33" s="79"/>
@@ -5388,7 +5405,7 @@
       <c r="U33" s="24"/>
       <c r="V33" s="28"/>
       <c r="W33" s="29"/>
-      <c r="X33" s="186"/>
+      <c r="X33" s="185"/>
       <c r="Y33" s="74"/>
       <c r="Z33" s="74"/>
       <c r="AA33" s="74"/>
@@ -5410,22 +5427,22 @@
       <c r="AQ33" s="52"/>
     </row>
     <row r="34" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="149"/>
+      <c r="A34" s="148"/>
       <c r="B34" s="128" t="s">
         <v>6</v>
       </c>
       <c r="C34" s="138">
         <f>SUM(C5+C11+C16+C24+C28+C31)</f>
-        <v>115.25</v>
+        <v>102.25</v>
       </c>
       <c r="D34" s="138">
         <f>SUM(D31+D28+D24+D16+D11+D5)</f>
-        <v>55.5</v>
+        <v>64.5</v>
       </c>
       <c r="E34" s="129"/>
       <c r="F34" s="130"/>
-      <c r="G34" s="172"/>
-      <c r="H34" s="173"/>
+      <c r="G34" s="171"/>
+      <c r="H34" s="172"/>
       <c r="I34" s="131">
         <f t="shared" ref="I34:AB34" si="4">SUM(I5:I33)</f>
         <v>0</v>
@@ -5476,11 +5493,11 @@
       </c>
       <c r="U34" s="133">
         <f>SUM(U5:U33)</f>
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V34" s="132">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="W34" s="133">
         <f t="shared" si="4"/>
@@ -5536,7 +5553,7 @@
       </c>
       <c r="AJ34" s="133">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AK34" s="132">
         <f t="shared" si="5"/>
@@ -5568,18 +5585,18 @@
       </c>
     </row>
     <row r="35" spans="1:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="148"/>
+      <c r="A35" s="147"/>
       <c r="B35" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="207">
+      <c r="C35" s="206">
         <v>3</v>
       </c>
-      <c r="D35" s="206"/>
+      <c r="D35" s="205"/>
       <c r="E35" s="107"/>
       <c r="F35" s="113"/>
-      <c r="G35" s="181"/>
-      <c r="H35" s="155"/>
+      <c r="G35" s="180"/>
+      <c r="H35" s="154"/>
       <c r="I35" s="93"/>
       <c r="J35" s="93"/>
       <c r="K35" s="94"/>
@@ -6233,20 +6250,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="218"/>
-      <c r="B1" s="218"/>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="218"/>
-      <c r="F1" s="218"/>
-      <c r="G1" s="218"/>
-      <c r="H1" s="218"/>
-      <c r="I1" s="218"/>
-      <c r="J1" s="218"/>
-      <c r="K1" s="218"/>
-      <c r="L1" s="218"/>
-      <c r="M1" s="218"/>
-      <c r="N1" s="218"/>
+      <c r="A1" s="217"/>
+      <c r="B1" s="217"/>
+      <c r="C1" s="217"/>
+      <c r="D1" s="217"/>
+      <c r="E1" s="217"/>
+      <c r="F1" s="217"/>
+      <c r="G1" s="217"/>
+      <c r="H1" s="217"/>
+      <c r="I1" s="217"/>
+      <c r="J1" s="217"/>
+      <c r="K1" s="217"/>
+      <c r="L1" s="217"/>
+      <c r="M1" s="217"/>
+      <c r="N1" s="217"/>
     </row>
     <row r="2" spans="1:14" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="63"/>
@@ -6399,7 +6416,7 @@
       </c>
       <c r="B16" s="64">
         <f>Zeitplanung!U34</f>
-        <v>7</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6409,7 +6426,7 @@
       </c>
       <c r="B17" s="64">
         <f>Zeitplanung!V34</f>
-        <v>7</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6549,7 +6566,7 @@
       </c>
       <c r="B31" s="64">
         <f>Zeitplanung!AJ34</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6575,10 +6592,10 @@
     <row r="34" spans="1:4" ht="15.5" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="36" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="219" t="s">
+      <c r="A36" s="218" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="220"/>
+      <c r="B36" s="219"/>
       <c r="C36" s="3" t="s">
         <v>23</v>
       </c>
@@ -6587,24 +6604,24 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="216" t="s">
+      <c r="A37" s="215" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="217"/>
+      <c r="B37" s="216"/>
       <c r="C37" s="64">
         <f>Zeitplanung!C5</f>
         <v>18</v>
       </c>
       <c r="D37" s="64">
         <f>Zeitplanung!D5</f>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="221" t="s">
+      <c r="A38" s="220" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="222"/>
+      <c r="B38" s="221"/>
       <c r="C38" s="64">
         <f>Zeitplanung!C11</f>
         <v>8</v>
@@ -6615,41 +6632,41 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="216" t="s">
+      <c r="A39" s="215" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="217"/>
+      <c r="B39" s="216"/>
       <c r="C39" s="64">
         <f>Zeitplanung!C16</f>
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D39" s="64">
         <f>Zeitplanung!D16</f>
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="221" t="s">
+      <c r="A40" s="220" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="222"/>
+      <c r="B40" s="221"/>
       <c r="C40" s="64">
         <f>Zeitplanung!C24</f>
         <v>21</v>
       </c>
       <c r="D40" s="64">
         <f>Zeitplanung!D24</f>
-        <v>8.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="216" t="s">
+      <c r="A41" s="215" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="217"/>
+      <c r="B41" s="216"/>
       <c r="C41" s="64">
         <f>Zeitplanung!C28</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" s="64">
         <f>Zeitplanung!D28</f>
@@ -6657,10 +6674,10 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="216" t="s">
+      <c r="A42" s="215" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="217"/>
+      <c r="B42" s="216"/>
       <c r="C42" s="64">
         <f>Zeitplanung!C31</f>
         <v>1.25</v>

--- a/doc/Zeitplanung-1.xlsx
+++ b/doc/Zeitplanung-1.xlsx
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
   <si>
     <t>Nr.</t>
   </si>
@@ -372,6 +372,9 @@
   </si>
   <si>
     <t>Fynn geholfen</t>
+  </si>
+  <si>
+    <t>Andere arbeit</t>
   </si>
 </sst>
 </file>
@@ -2398,6 +2401,7 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2436,7 +2440,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="60 % - Akzent1" xfId="7" builtinId="32"/>
@@ -2716,10 +2719,10 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2739,11 +2742,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="317680424"/>
-        <c:axId val="319355344"/>
+        <c:axId val="390036048"/>
+        <c:axId val="390036440"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="317680424"/>
+        <c:axId val="390036048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2753,14 +2756,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="319355344"/>
+        <c:crossAx val="390036440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="319355344"/>
+        <c:axId val="390036440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2771,7 +2774,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="317680424"/>
+        <c:crossAx val="390036048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2945,22 +2948,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.5</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2980,11 +2983,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="319356912"/>
-        <c:axId val="319356128"/>
+        <c:axId val="390037224"/>
+        <c:axId val="390038008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="319356912"/>
+        <c:axId val="390037224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2994,7 +2997,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="319356128"/>
+        <c:crossAx val="390038008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3002,7 +3005,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="319356128"/>
+        <c:axId val="390038008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3013,7 +3016,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="319356912"/>
+        <c:crossAx val="390037224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3454,8 +3457,8 @@
   </sheetPr>
   <dimension ref="A1:BE162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C15" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="AI35" sqref="AI35"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="Y38" sqref="Y38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3463,7 +3466,7 @@
     <col min="1" max="1" width="3.58203125" style="5" customWidth="1"/>
     <col min="2" max="2" width="44.25" style="5" customWidth="1"/>
     <col min="3" max="3" width="4.58203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="3.83203125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="4.5" style="15" customWidth="1"/>
     <col min="5" max="6" width="3.83203125" style="5" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="5" customWidth="1"/>
     <col min="8" max="8" width="3.6640625" style="5" customWidth="1"/>
@@ -3471,7 +3474,9 @@
     <col min="10" max="10" width="3" style="16" customWidth="1"/>
     <col min="11" max="30" width="3.25" style="5" customWidth="1"/>
     <col min="31" max="35" width="3.25" style="4" customWidth="1"/>
-    <col min="36" max="40" width="3.08203125" style="4" customWidth="1"/>
+    <col min="36" max="37" width="3.08203125" style="4" customWidth="1"/>
+    <col min="38" max="38" width="3.83203125" style="4" customWidth="1"/>
+    <col min="39" max="40" width="3.08203125" style="4" customWidth="1"/>
     <col min="41" max="41" width="3.4140625" style="5" customWidth="1"/>
     <col min="42" max="42" width="3.33203125" style="5" customWidth="1"/>
     <col min="43" max="45" width="2.83203125" style="5" customWidth="1"/>
@@ -3479,38 +3484,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="26" x14ac:dyDescent="0.35">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="212" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
-      <c r="D1" s="211"/>
-      <c r="E1" s="211"/>
-      <c r="F1" s="211"/>
-      <c r="G1" s="211"/>
-      <c r="H1" s="211"/>
-      <c r="I1" s="211"/>
-      <c r="J1" s="211"/>
-      <c r="K1" s="211"/>
-      <c r="L1" s="211"/>
-      <c r="M1" s="211"/>
-      <c r="N1" s="211"/>
-      <c r="O1" s="211"/>
-      <c r="P1" s="211"/>
-      <c r="Q1" s="211"/>
-      <c r="R1" s="211"/>
-      <c r="S1" s="211"/>
-      <c r="T1" s="211"/>
-      <c r="U1" s="211"/>
-      <c r="V1" s="211"/>
-      <c r="W1" s="211"/>
-      <c r="X1" s="211"/>
-      <c r="Y1" s="211"/>
-      <c r="Z1" s="211"/>
-      <c r="AA1" s="211"/>
-      <c r="AB1" s="211"/>
-      <c r="AC1" s="211"/>
-      <c r="AD1" s="211"/>
+      <c r="B1" s="212"/>
+      <c r="C1" s="212"/>
+      <c r="D1" s="212"/>
+      <c r="E1" s="212"/>
+      <c r="F1" s="212"/>
+      <c r="G1" s="212"/>
+      <c r="H1" s="212"/>
+      <c r="I1" s="212"/>
+      <c r="J1" s="212"/>
+      <c r="K1" s="212"/>
+      <c r="L1" s="212"/>
+      <c r="M1" s="212"/>
+      <c r="N1" s="212"/>
+      <c r="O1" s="212"/>
+      <c r="P1" s="212"/>
+      <c r="Q1" s="212"/>
+      <c r="R1" s="212"/>
+      <c r="S1" s="212"/>
+      <c r="T1" s="212"/>
+      <c r="U1" s="212"/>
+      <c r="V1" s="212"/>
+      <c r="W1" s="212"/>
+      <c r="X1" s="212"/>
+      <c r="Y1" s="212"/>
+      <c r="Z1" s="212"/>
+      <c r="AA1" s="212"/>
+      <c r="AB1" s="212"/>
+      <c r="AC1" s="212"/>
+      <c r="AD1" s="212"/>
     </row>
     <row r="2" spans="1:44" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6"/>
@@ -3527,63 +3532,63 @@
     <row r="3" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="139"/>
       <c r="B3" s="168"/>
-      <c r="C3" s="212" t="s">
+      <c r="C3" s="213" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="213"/>
+      <c r="D3" s="214"/>
       <c r="E3" s="140"/>
       <c r="F3" s="141"/>
       <c r="G3" s="141"/>
       <c r="H3" s="142"/>
-      <c r="I3" s="209" t="s">
+      <c r="I3" s="210" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="209"/>
-      <c r="K3" s="209"/>
-      <c r="L3" s="209"/>
-      <c r="M3" s="214"/>
-      <c r="N3" s="208" t="s">
+      <c r="J3" s="210"/>
+      <c r="K3" s="210"/>
+      <c r="L3" s="210"/>
+      <c r="M3" s="215"/>
+      <c r="N3" s="209" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="209"/>
-      <c r="P3" s="209"/>
-      <c r="Q3" s="209"/>
-      <c r="R3" s="209"/>
-      <c r="S3" s="208" t="s">
+      <c r="O3" s="210"/>
+      <c r="P3" s="210"/>
+      <c r="Q3" s="210"/>
+      <c r="R3" s="210"/>
+      <c r="S3" s="209" t="s">
         <v>27</v>
       </c>
-      <c r="T3" s="209"/>
-      <c r="U3" s="209"/>
-      <c r="V3" s="209"/>
-      <c r="W3" s="209"/>
-      <c r="X3" s="208" t="s">
+      <c r="T3" s="210"/>
+      <c r="U3" s="210"/>
+      <c r="V3" s="210"/>
+      <c r="W3" s="210"/>
+      <c r="X3" s="209" t="s">
         <v>28</v>
       </c>
-      <c r="Y3" s="209"/>
-      <c r="Z3" s="209"/>
-      <c r="AA3" s="209"/>
-      <c r="AB3" s="209"/>
-      <c r="AC3" s="208" t="s">
+      <c r="Y3" s="210"/>
+      <c r="Z3" s="210"/>
+      <c r="AA3" s="210"/>
+      <c r="AB3" s="210"/>
+      <c r="AC3" s="209" t="s">
         <v>32</v>
       </c>
-      <c r="AD3" s="209"/>
-      <c r="AE3" s="209"/>
-      <c r="AF3" s="209"/>
-      <c r="AG3" s="209"/>
-      <c r="AH3" s="208" t="s">
+      <c r="AD3" s="210"/>
+      <c r="AE3" s="210"/>
+      <c r="AF3" s="210"/>
+      <c r="AG3" s="210"/>
+      <c r="AH3" s="209" t="s">
         <v>33</v>
       </c>
-      <c r="AI3" s="209"/>
-      <c r="AJ3" s="209"/>
-      <c r="AK3" s="209"/>
-      <c r="AL3" s="210"/>
-      <c r="AM3" s="208" t="s">
+      <c r="AI3" s="210"/>
+      <c r="AJ3" s="210"/>
+      <c r="AK3" s="210"/>
+      <c r="AL3" s="211"/>
+      <c r="AM3" s="209" t="s">
         <v>37</v>
       </c>
-      <c r="AN3" s="209"/>
-      <c r="AO3" s="209"/>
-      <c r="AP3" s="209"/>
-      <c r="AQ3" s="210"/>
+      <c r="AN3" s="210"/>
+      <c r="AO3" s="210"/>
+      <c r="AP3" s="210"/>
+      <c r="AQ3" s="211"/>
     </row>
     <row r="4" spans="1:44" ht="90.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="61" t="s">
@@ -3760,7 +3765,7 @@
       </c>
       <c r="D5" s="135">
         <f>SUM(D6:D10)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="161"/>
       <c r="F5" s="115"/>
@@ -3930,7 +3935,7 @@
       </c>
       <c r="D8" s="136">
         <f t="shared" ref="D8:D10" si="0">IF(SUM(J8:AR8)=0," ",SUM(J8:AR8))</f>
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="E8" s="104">
         <v>1</v>
@@ -3973,7 +3978,9 @@
       <c r="AI8" s="79"/>
       <c r="AJ8" s="28"/>
       <c r="AK8" s="23"/>
-      <c r="AL8" s="150"/>
+      <c r="AL8" s="150">
+        <v>1</v>
+      </c>
       <c r="AM8" s="146"/>
       <c r="AN8" s="79"/>
       <c r="AO8" s="28"/>
@@ -4387,7 +4394,7 @@
       </c>
       <c r="D16" s="162">
         <f>SUM(D17:D23)</f>
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="E16" s="114"/>
       <c r="F16" s="163"/>
@@ -4625,7 +4632,7 @@
       </c>
       <c r="D20" s="201">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E20" s="103">
         <v>1</v>
@@ -4671,8 +4678,12 @@
       <c r="AJ20" s="91">
         <v>3</v>
       </c>
-      <c r="AK20" s="91"/>
-      <c r="AL20" s="144"/>
+      <c r="AK20" s="91">
+        <v>6</v>
+      </c>
+      <c r="AL20" s="144">
+        <v>3</v>
+      </c>
       <c r="AM20" s="146"/>
       <c r="AN20" s="79"/>
       <c r="AO20" s="143"/>
@@ -4799,11 +4810,13 @@
       <c r="A23" s="39">
         <v>37</v>
       </c>
-      <c r="B23" s="49"/>
+      <c r="B23" s="49" t="s">
+        <v>54</v>
+      </c>
       <c r="C23" s="137"/>
-      <c r="D23" s="204" t="str">
+      <c r="D23" s="204">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
+        <v>13</v>
       </c>
       <c r="E23" s="104"/>
       <c r="F23" s="109"/>
@@ -4838,11 +4851,17 @@
       <c r="AI23" s="79"/>
       <c r="AJ23" s="28"/>
       <c r="AK23" s="23"/>
-      <c r="AL23" s="46"/>
+      <c r="AL23" s="46">
+        <v>2.5</v>
+      </c>
       <c r="AM23" s="79"/>
       <c r="AN23" s="79"/>
-      <c r="AO23" s="28"/>
-      <c r="AP23" s="23"/>
+      <c r="AO23" s="28">
+        <v>7.5</v>
+      </c>
+      <c r="AP23" s="23">
+        <v>3</v>
+      </c>
       <c r="AQ23" s="46"/>
     </row>
     <row r="24" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4858,7 +4877,7 @@
       </c>
       <c r="D24" s="162">
         <f>SUM(D25:D27)</f>
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="E24" s="161"/>
       <c r="F24" s="115"/>
@@ -4972,7 +4991,7 @@
       </c>
       <c r="D26" s="203">
         <f>IF(SUM(I26:AQ26)=0," ",SUM(I26:AQ26))</f>
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="E26" s="103">
         <v>1</v>
@@ -5019,11 +5038,15 @@
       <c r="AG26" s="76"/>
       <c r="AH26" s="79"/>
       <c r="AI26" s="79"/>
-      <c r="AJ26" s="222">
+      <c r="AJ26" s="208">
         <v>0.5</v>
       </c>
-      <c r="AK26" s="91"/>
-      <c r="AL26" s="144"/>
+      <c r="AK26" s="91">
+        <v>1</v>
+      </c>
+      <c r="AL26" s="144">
+        <v>1</v>
+      </c>
       <c r="AM26" s="146"/>
       <c r="AN26" s="79"/>
       <c r="AO26" s="91"/>
@@ -5042,7 +5065,7 @@
       </c>
       <c r="D27" s="136">
         <f t="shared" ref="D27" si="3">IF(SUM(J27:AR27)=0," ",SUM(J27:AR27))</f>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E27" s="106">
         <v>1</v>
@@ -5086,7 +5109,9 @@
       <c r="AJ27" s="25">
         <v>0.5</v>
       </c>
-      <c r="AK27" s="91"/>
+      <c r="AK27" s="91">
+        <v>0.5</v>
+      </c>
       <c r="AL27" s="45"/>
       <c r="AM27" s="79"/>
       <c r="AN27" s="79"/>
@@ -5272,7 +5297,7 @@
       </c>
       <c r="D31" s="135">
         <f>SUM(D32:D33)</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E31" s="114"/>
       <c r="F31" s="163"/>
@@ -5380,9 +5405,9 @@
       <c r="C33" s="204">
         <v>0.25</v>
       </c>
-      <c r="D33" s="136" t="str">
+      <c r="D33" s="136">
         <f>IF(SUM(J33:AR33)=0," ",SUM(J33:AR33))</f>
-        <v xml:space="preserve"> </v>
+        <v>4.5</v>
       </c>
       <c r="E33" s="104">
         <v>1</v>
@@ -5423,7 +5448,9 @@
       <c r="AM33" s="79"/>
       <c r="AN33" s="79"/>
       <c r="AO33" s="28"/>
-      <c r="AP33" s="91"/>
+      <c r="AP33" s="91">
+        <v>4.5</v>
+      </c>
       <c r="AQ33" s="52"/>
     </row>
     <row r="34" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -5437,7 +5464,7 @@
       </c>
       <c r="D34" s="138">
         <f>SUM(D31+D28+D24+D16+D11+D5)</f>
-        <v>64.5</v>
+        <v>94.5</v>
       </c>
       <c r="E34" s="129"/>
       <c r="F34" s="130"/>
@@ -5557,11 +5584,11 @@
       </c>
       <c r="AK34" s="132">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AL34" s="134">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AM34" s="133">
         <f t="shared" ref="AM34:AQ34" si="6">SUM(AM5:AM33)</f>
@@ -5573,11 +5600,11 @@
       </c>
       <c r="AO34" s="133">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AP34" s="132">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AQ34" s="134">
         <f t="shared" si="6"/>
@@ -6250,20 +6277,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="217"/>
-      <c r="B1" s="217"/>
-      <c r="C1" s="217"/>
-      <c r="D1" s="217"/>
-      <c r="E1" s="217"/>
-      <c r="F1" s="217"/>
-      <c r="G1" s="217"/>
-      <c r="H1" s="217"/>
-      <c r="I1" s="217"/>
-      <c r="J1" s="217"/>
-      <c r="K1" s="217"/>
-      <c r="L1" s="217"/>
-      <c r="M1" s="217"/>
-      <c r="N1" s="217"/>
+      <c r="A1" s="218"/>
+      <c r="B1" s="218"/>
+      <c r="C1" s="218"/>
+      <c r="D1" s="218"/>
+      <c r="E1" s="218"/>
+      <c r="F1" s="218"/>
+      <c r="G1" s="218"/>
+      <c r="H1" s="218"/>
+      <c r="I1" s="218"/>
+      <c r="J1" s="218"/>
+      <c r="K1" s="218"/>
+      <c r="L1" s="218"/>
+      <c r="M1" s="218"/>
+      <c r="N1" s="218"/>
     </row>
     <row r="2" spans="1:14" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="63"/>
@@ -6576,7 +6603,7 @@
       </c>
       <c r="B32" s="64">
         <f>Zeitplanung!AK34</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6586,16 +6613,16 @@
       </c>
       <c r="B33" s="64">
         <f>Zeitplanung!AL34</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.5" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="36" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="218" t="s">
+      <c r="A36" s="219" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="219"/>
+      <c r="B36" s="220"/>
       <c r="C36" s="3" t="s">
         <v>23</v>
       </c>
@@ -6604,24 +6631,24 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="215" t="s">
+      <c r="A37" s="216" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="216"/>
+      <c r="B37" s="217"/>
       <c r="C37" s="64">
         <f>Zeitplanung!C5</f>
         <v>18</v>
       </c>
       <c r="D37" s="64">
         <f>Zeitplanung!D5</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="221" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="220" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38" s="221"/>
+      <c r="B38" s="222"/>
       <c r="C38" s="64">
         <f>Zeitplanung!C11</f>
         <v>8</v>
@@ -6632,38 +6659,38 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="215" t="s">
+      <c r="A39" s="216" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="216"/>
+      <c r="B39" s="217"/>
       <c r="C39" s="64">
         <f>Zeitplanung!C16</f>
         <v>52</v>
       </c>
       <c r="D39" s="64">
         <f>Zeitplanung!D16</f>
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="220" t="s">
+      <c r="A40" s="221" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="221"/>
+      <c r="B40" s="222"/>
       <c r="C40" s="64">
         <f>Zeitplanung!C24</f>
         <v>21</v>
       </c>
       <c r="D40" s="64">
         <f>Zeitplanung!D24</f>
-        <v>10.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="215" t="s">
+      <c r="A41" s="216" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="216"/>
+      <c r="B41" s="217"/>
       <c r="C41" s="64">
         <f>Zeitplanung!C28</f>
         <v>2</v>
@@ -6674,17 +6701,17 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="215" t="s">
+      <c r="A42" s="216" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="216"/>
+      <c r="B42" s="217"/>
       <c r="C42" s="64">
         <f>Zeitplanung!C31</f>
         <v>1.25</v>
       </c>
       <c r="D42" s="64">
         <f>Zeitplanung!D31</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.5" thickTop="1" x14ac:dyDescent="0.3"/>
